--- a/dataset/lg/sundariimani.xlsx
+++ b/dataset/lg/sundariimani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీలలరంగఁ జంద్రకళ చెల్వున లేనునునవ్వువెన్నెలల్
 గీలుకొనంగ నంగజశిలీముఖరీతిఁ జెలంగుచున్న నీ
@@ -477,32 +474,29 @@
 బేలినకన్న సౌఖ్యమని యెంతుఁ జుమా మది సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('ల', '|'), ('ల', '|'), ('రం', 'U'), ('గ', '|'), ('జం', 'U'), ('ద్ర', '|'), ('క', '|'), ('ళ', '|'), ('చె', 'U'), ('ల్వు', '|'), ('న', '|'), ('లే', 'U'), ('ను', '|'), ('ను', '|'), ('న', 'U'), ('వ్వు', '|'), ('వె', 'U'), ('న్నె', '|'), ('లల్', 'U'), ('గీ', 'U'), ('లు', '|'), ('కొ', '|'), ('నం', 'U'), ('గ', '|'), ('నం', 'U'), ('గ', '|'), ('జ', '|'), ('శి', '|'), ('లీ', 'U'), ('ము', '|'), ('ఖ', '|'), ('రీ', 'U'), ('తి', '|'), ('జె', '|'), ('లం', 'U'), ('గు', '|'), ('చు', 'U'), ('న్న', '|'), ('నీ', 'U'), ('లీ', 'U'), ('ల', '|'), ('క', '|'), ('నుం', 'U'), ('గొ', '|'), ('నం', 'U'), ('గ', '|'), ('న', '|'), ('వ', '|'), ('లీ', 'U'), ('ల', '|'), ('న', '|'), ('ఖం', 'U'), ('డ', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('భూ', 'U'), ('త', '|'), ('లం', 'U'), ('బే', 'U'), ('లి', '|'), ('న', '|'), ('క', 'U'), ('న్న', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మ', '|'), ('ని', '|'), ('యెం', 'U'), ('తు', '|'), ('జు', '|'), ('మా', 'U'), ('మ', '|'), ('ది', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>నినుఁ దొలునాఁటికూటమిని నేరుపుఁతో జెలులెల్ల మెల్లమె-
 ల్లనె పడకింటిలోని కొకలాగునఁ దెచ్చిననాఁటి సిగ్గుతో
@@ -510,32 +504,29 @@
 యన వెలుఁగొందె నేఁటి కెదనంటిన ముల్కులు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('దొ', '|'), ('లు', '|'), ('నా', 'U'), ('టి', '|'), ('కూ', 'U'), ('ట', '|'), ('మి', '|'), ('ని', '|'), ('నే', 'U'), ('రు', '|'), ('పు', '|'), ('తో', 'U'), ('జె', '|'), ('లు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('మె', 'U'), ('ల్ల', '|'), ('మె', 'U'), ('ల్ల', '|'), ('నె', '|'), ('ప', '|'), ('డ', '|'), ('కిం', 'U'), ('టి', '|'), ('లో', 'U'), ('ని', '|'), ('కొ', '|'), ('క', '|'), ('లా', 'U'), ('గు', '|'), ('న', '|'), ('దె', 'U'), ('చ్చి', '|'), ('న', '|'), ('నా', 'U'), ('టి', '|'), ('సి', 'U'), ('గ్గు', '|'), ('తో', 'U'), ('నె', '|'), ('న', '|'), ('సి', '|'), ('న', '|'), ('యో', 'U'), ('ర', '|'), ('చూ', 'U'), ('పు', '|'), ('లి', '|'), ('క', '|'), ('నే', 'U'), ('మ', '|'), ('న', '|'), ('నా', 'U'), ('ట', '|'), ('ను', '|'), ('గ', 'U'), ('ల్వ', '|'), ('దం', 'U'), ('డ', '|'), ('లో', 'U'), ('య', '|'), ('న', '|'), ('వె', '|'), ('లు', '|'), ('గొం', 'U'), ('దె', '|'), ('నే', 'U'), ('టి', '|'), ('కె', '|'), ('ద', '|'), ('నం', 'U'), ('టి', '|'), ('న', '|'), ('ము', 'U'), ('ల్కు', '|'), ('లు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>ముసిముసినవ్వుతోఁ జిగురుమోవి కదల్పుచుఁ జన్నుదోయి నె-
 న్నొసలు చమర్చఁగా ననుఁ గనుంగొని నానమరల్చు జూపులఁ-
@@ -543,32 +534,29 @@
 రసములనంగఁ దోఁచఁగ దరంబులె యోర్వఁగ సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('సి', '|'), ('ము', '|'), ('సి', '|'), ('న', 'U'), ('వ్వు', '|'), ('తో', 'U'), ('జి', '|'), ('గు', '|'), ('రు', '|'), ('మో', 'U'), ('వి', '|'), ('క', '|'), ('ద', 'U'), ('ల్పు', '|'), ('చు', '|'), ('జ', 'U'), ('న్ను', '|'), ('దో', 'U'), ('యి', '|'), ('నె', 'U'), ('న్నొ', '|'), ('స', '|'), ('లు', '|'), ('చ', '|'), ('మ', 'U'), ('ర్చ', '|'), ('గా', 'U'), ('న', '|'), ('ను', '|'), ('గ', '|'), ('నుం', 'U'), ('గొ', '|'), ('ని', '|'), ('నా', 'U'), ('న', '|'), ('మ', '|'), ('ర', 'U'), ('ల్చు', '|'), ('జూ', 'U'), ('పు', '|'), ('ల', 'U'), ('య్య', '|'), ('స', '|'), ('మ', '|'), ('శ', '|'), ('రుం', 'U'), ('డు', '|'), ('ము', 'U'), ('న్ను', '|'), ('యె', '|'), ('ద', '|'), ('నం', 'U'), ('ట', '|'), ('గ', 'U'), ('గ్రు', 'U'), ('చ్చి', '|'), ('పె', '|'), ('గ', 'U'), ('ల్చు', '|'), ('పూ', 'U'), ('వు', '|'), ('నా', 'U'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('ల', '|'), ('నం', 'U'), ('గ', '|'), ('దో', 'U'), ('చ', '|'), ('గ', '|'), ('ద', '|'), ('రం', 'U'), ('బు', '|'), ('లె', '|'), ('యో', 'U'), ('ర్వ', '|'), ('గ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>సరసములాడు నేర్పు కనుసైగలు సేసెడు నేర్పు నా మనం-
 బెఱిఁగెడు నేర్పు నెమ్మది నొకించుక గోపము సేయు నేర్పు క్ర-
@@ -576,32 +564,29 @@
 గరఁగెడు నేర్పు నీకె తగుఁగాదె తలంపఁగ సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('లా', 'U'), ('డు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('క', '|'), ('ను', '|'), ('సై', 'U'), ('గ', '|'), ('లు', '|'), ('సే', 'U'), ('సె', '|'), ('డు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('నా', 'U'), ('మ', '|'), ('నం', 'U'), ('బె', '|'), ('ఱి', '|'), ('గె', '|'), ('డు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('ది', '|'), ('నొ', '|'), ('కిం', 'U'), ('చు', '|'), ('క', '|'), ('గో', 'U'), ('ప', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('నే', 'U'), ('ర్పు', 'U'), ('క్ర', 'U'), ('మ్మ', '|'), ('ఱ', '|'), ('ము', '|'), ('రి', '|'), ('పెం', 'U'), ('బు', '|'), ('తో', 'U'), ('డ', 'U'), ('బ్ర', '|'), ('తి', '|'), ('మా', 'U'), ('లె', '|'), ('డు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('మ', '|'), ('నో', 'U'), ('జ', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('గ', '|'), ('ర', '|'), ('గె', '|'), ('డు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('నీ', 'U'), ('కె', '|'), ('త', '|'), ('గు', '|'), ('గా', 'U'), ('దె', '|'), ('త', '|'), ('లం', 'U'), ('ప', '|'), ('గ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>పాపటదీర్చి నెన్నొసటిపై నునుపై యసియాడు చేయుచు-
 క్కాపయిఁ గూర్చి గుబ్బలనొయారపు జాఱుపయంట చేర్చి వాల్
@@ -609,32 +594,29 @@
 దీపములాగ నా యెదుర నిల్చుట యెన్నడొ సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ప', '|'), ('ట', '|'), ('దీ', 'U'), ('ర్చి', '|'), ('నె', 'U'), ('న్నొ', '|'), ('స', '|'), ('టి', '|'), ('పై', 'U'), ('ను', '|'), ('ను', '|'), ('పై', 'U'), ('య', '|'), ('సి', '|'), ('యా', 'U'), ('డు', '|'), ('చే', 'U'), ('యు', '|'), ('చు', 'U'), ('క్కా', 'U'), ('ప', '|'), ('యి', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('నొ', '|'), ('యా', 'U'), ('ర', '|'), ('పు', '|'), ('జా', 'U'), ('ఱు', '|'), ('ప', '|'), ('యం', 'U'), ('ట', '|'), ('చే', 'U'), ('ర్చి', '|'), ('వాల్', 'U'), ('జూ', 'U'), ('పు', '|'), ('ల', '|'), ('నా', 'U'), ('దు', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('ము', '|'), ('చూ', 'U'), ('ఱ', '|'), ('గొ', '|'), ('నన్', 'U'), ('సొ', '|'), ('గ', '|'), ('సై', 'U'), ('న', '|'), ('ర', 'U'), ('త్న', '|'), ('పుం', 'U'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('లా', 'U'), ('గ', '|'), ('నా', 'U'), ('యె', '|'), ('దు', '|'), ('ర', '|'), ('ని', 'U'), ('ల్చు', '|'), ('ట', '|'), ('యె', 'U'), ('న్న', '|'), ('డొ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>క్రొమ్ముడివీడ గబ్బిచనుగుబ్బల పేరులు చింద నత్తుము-
 త్యమ్ము చలింపఁ గేలు కడియమ్ముల చప్పుడు లుప్పతిల్ల లేఁ
@@ -642,32 +624,29 @@
 తెమ్మని చెక్కు గొట్టుదువె, దిట్టతనమ్మున సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('క్రొ', 'U'), ('మ్ము', '|'), ('డి', '|'), ('వీ', 'U'), ('డ', '|'), ('గ', 'U'), ('బ్బి', '|'), ('చ', '|'), ('ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('పే', 'U'), ('రు', '|'), ('లు', '|'), ('చిం', 'U'), ('ద', '|'), ('న', 'U'), ('త్తు', '|'), ('ము', 'U'), ('త్య', 'U'), ('మ్ము', '|'), ('చ', '|'), ('లిం', 'U'), ('ప', '|'), ('గే', 'U'), ('లు', '|'), ('క', '|'), ('డి', '|'), ('య', 'U'), ('మ్ము', '|'), ('ల', '|'), ('చ', 'U'), ('ప్పు', '|'), ('డు', '|'), ('లు', 'U'), ('ప్ప', '|'), ('తి', 'U'), ('ల్ల', '|'), ('లే', 'U'), ('జె', 'U'), ('మ్మ', '|'), ('ట', '|'), ('మే', 'U'), ('ను', 'U'), ('గ్ర', 'U'), ('మ్మ', '|'), ('మ', '|'), ('గ', '|'), ('సే', 'U'), ('త', '|'), ('లు', '|'), ('సే', 'U'), ('యు', '|'), ('చు', '|'), ('మో', 'U'), ('వి', '|'), ('తే', 'U'), ('నె', '|'), ('తే', 'U'), ('తె', 'U'), ('మ్మ', '|'), ('ని', '|'), ('చె', 'U'), ('క్కు', '|'), ('గొ', 'U'), ('ట్టు', '|'), ('దు', '|'), ('వె', '|'), ('ది', 'U'), ('ట్ట', '|'), ('త', '|'), ('న', 'U'), ('మ్ము', '|'), ('న', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>పదకటకంబు ఘళ్లురనఁ బైకిఁ జివాలున వ్రాలి గుబ్బలుం
 గదుములు కట్ట ఱొమ్మదిమి గంటుగవాతెఱ నొక్కి మైగగు-
@@ -675,32 +654,29 @@
 బొదువుచు నీవె నన్ గవయు పోడుములెన్నఁడు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ద', '|'), ('క', '|'), ('ట', '|'), ('కం', 'U'), ('బు', '|'), ('ఘ', 'U'), ('ళ్లు', '|'), ('ర', '|'), ('న', '|'), ('బై', 'U'), ('కి', '|'), ('జి', '|'), ('వా', 'U'), ('లు', '|'), ('న', 'U'), ('వ్రా', 'U'), ('లి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లుం', 'U'), ('గ', '|'), ('దు', '|'), ('ము', '|'), ('లు', '|'), ('క', 'U'), ('ట్ట', '|'), ('ఱొ', 'U'), ('మ్మ', '|'), ('ది', '|'), ('మి', '|'), ('గం', 'U'), ('టు', '|'), ('గ', '|'), ('వా', 'U'), ('తె', '|'), ('ఱ', '|'), ('నొ', 'U'), ('క్కి', '|'), ('మై', 'U'), ('గ', '|'), ('గు', 'U'), ('ర్పొ', '|'), ('ద', '|'), ('వ', '|'), ('గ', '|'), ('బ', 'U'), ('య్యె', '|'), ('దం', 'U'), ('జె', '|'), ('మ', '|'), ('ట', '|'), ('లొ', 'U'), ('త్తు', '|'), ('చు', '|'), ('గే', 'U'), ('రు', '|'), ('చు', 'U'), ('గ్రిం', 'U'), ('దు', '|'), ('మీ', 'U'), ('దు', '|'), ('గా', 'U'), ('బొ', '|'), ('దు', '|'), ('వు', '|'), ('చు', '|'), ('నీ', 'U'), ('వె', '|'), ('నన్', 'U'), ('గ', '|'), ('వ', '|'), ('యు', '|'), ('పో', 'U'), ('డు', '|'), ('ము', '|'), ('లె', 'U'), ('న్న', '|'), ('డు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>అలిగినవేళనైన మొగమారసి నవ్వక మానలేవు కౌఁ-
 గిలి వదలంగలేవు తమిగీల్కొనఁగా నిదురించునప్పుడుం
@@ -708,32 +684,29 @@
 చెలిమి దలంచి, యే కరణిఁ జెందెద ధైర్యము సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('నై', 'U'), ('న', '|'), ('మొ', '|'), ('గ', '|'), ('మా', 'U'), ('ర', '|'), ('సి', '|'), ('న', 'U'), ('వ్వ', '|'), ('క', '|'), ('మా', 'U'), ('న', '|'), ('లే', 'U'), ('వు', '|'), ('కౌ', 'U'), ('గి', '|'), ('లి', '|'), ('వ', '|'), ('ద', '|'), ('లం', 'U'), ('గ', '|'), ('లే', 'U'), ('వు', '|'), ('త', '|'), ('మి', '|'), ('గీ', 'U'), ('ల్కొ', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('దు', '|'), ('రిం', 'U'), ('చు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డుం', 'U'), ('గ', '|'), ('ల', '|'), ('యి', '|'), ('క', '|'), ('నై', 'U'), ('న', '|'), ('నే', 'U'), ('న', '|'), ('ల', '|'), ('య', '|'), ('గా', 'U'), ('గ', '|'), ('ని', '|'), ('పై', 'U'), ('కొ', '|'), ('న', '|'), ('కో', 'U'), ('ర్వ', '|'), ('లే', 'U'), ('వు', '|'), ('నీ', 'U'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('యే', 'U'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('జెం', 'U'), ('దె', '|'), ('ద', '|'), ('ధై', 'U'), ('ర్య', '|'), ('ము', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>తళుకుల దొంతి! పూవిలుతుదంతి! కడాని శలాక! కెంపురా-
 మొలక! మెఱుంగుఁదీవ! నునుముత్తెమ! చక్కఁదనాలకుప్ప! యొ-
@@ -741,32 +714,29 @@
 చెలువము మెచ్చికొందుఁ దమి చిత్తములోపల సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ళు', '|'), ('కు', '|'), ('ల', '|'), ('దొం', 'U'), ('తి', '|'), ('పూ', 'U'), ('వి', '|'), ('లు', '|'), ('తు', '|'), ('దం', 'U'), ('తి', '|'), ('క', '|'), ('డా', 'U'), ('ని', '|'), ('శ', '|'), ('లా', 'U'), ('క', '|'), ('కెం', 'U'), ('పు', '|'), ('రా', 'U'), ('మొ', '|'), ('ల', '|'), ('క', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('దీ', 'U'), ('వ', '|'), ('ను', '|'), ('ను', '|'), ('ము', 'U'), ('త్తె', '|'), ('మ', '|'), ('చ', 'U'), ('క్క', '|'), ('ద', '|'), ('నా', 'U'), ('ల', '|'), ('కు', 'U'), ('ప్ప', '|'), ('యొ', 'U'), ('ప్పు', '|'), ('ల', '|'), ('గ', '|'), ('ని', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గు', 'U'), ('మ్మ', '|'), ('య', '|'), ('ని', '|'), ('పొం', 'U'), ('గు', '|'), ('చు', '|'), ('నే', 'U'), ('వె', '|'), ('యి', '|'), ('నో', 'U'), ('ళ్ల', '|'), ('చే', 'U'), ('త', '|'), ('నీ', 'U'), ('చె', '|'), ('లు', '|'), ('వ', '|'), ('ము', '|'), ('మె', 'U'), ('చ్చి', '|'), ('కొం', 'U'), ('దు', '|'), ('ద', '|'), ('మి', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>మును కనుఱెప్ప వేయు క్షణమున్ యుగరీతిని దోఁచునట్టి నే
 నిను నెడఁబాయఁ బ్రాణములు నిల్చె, నిదేమని కొంతసేపు నె-
@@ -774,32 +744,29 @@
 ఘనమధురాధరామృతము కారణమౌనని సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ను', '|'), ('క', '|'), ('ను', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('వే', 'U'), ('యు', 'U'), ('క్ష', '|'), ('ణ', '|'), ('మున్', 'U'), ('యు', '|'), ('గ', '|'), ('రీ', 'U'), ('తి', '|'), ('ని', '|'), ('దో', 'U'), ('చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('నే', 'U'), ('ని', '|'), ('ను', '|'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('య', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('ల్చె', '|'), ('ని', '|'), ('దే', 'U'), ('మ', '|'), ('ని', '|'), ('కొం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('జిం', 'U'), ('త', '|'), ('చే', 'U'), ('సి', '|'), ('వి', '|'), ('ను', '|'), ('మా', 'U'), ('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('చి', '|'), ('తి', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('నె', '|'), ('నీ', 'U'), ('ఘ', '|'), ('న', '|'), ('మ', '|'), ('ధు', '|'), ('రా', 'U'), ('ధ', '|'), ('రా', 'U'), ('మృ', '|'), ('త', '|'), ('ము', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('మౌ', 'U'), ('న', '|'), ('ని', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>బంగరుతీఁగెవంటి మెయి పట్టెఁడు గుబ్బలు, చేరెఁ డేసి క-
 న్నుంగలువల్ కనన్ మినుమినుక్కను కౌన్ బలుమేల్‍పిఱుందు జం-
@@ -807,32 +774,29 @@
 ముంగల నిల్చుటెన్నఁడొకొ ముచ్చట దీరఁగ సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('బం', 'U'), ('గ', '|'), ('రు', '|'), ('తీ', 'U'), ('గె', '|'), ('వం', 'U'), ('టి', '|'), ('మె', '|'), ('యి', '|'), ('ప', 'U'), ('ట్టె', '|'), ('డు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లు', '|'), ('చే', 'U'), ('రె', '|'), ('డే', 'U'), ('సి', '|'), ('క', 'U'), ('న్నుం', 'U'), ('గ', '|'), ('లు', '|'), ('వల్', 'U'), ('క', '|'), ('నన్', 'U'), ('మి', '|'), ('ను', '|'), ('మి', '|'), ('ను', 'U'), ('క్క', '|'), ('ను', '|'), ('కౌన్', 'U'), ('బ', '|'), ('లు', '|'), ('మే', 'U'), ('ల్పి', '|'), ('ఱుం', 'U'), ('దు', '|'), ('జం', 'U'), ('కుం', 'U'), ('గ', '|'), ('ళ', '|'), ('లు', 'U'), ('ల్ల', '|'), ('సి', 'U'), ('ల్ల', '|'), ('ని', '|'), ('ట', '|'), ('కున్', 'U'), ('సి', '|'), ('రి', '|'), ('చు', 'U'), ('క్క', '|'), ('య', '|'), ('నం', 'U'), ('గ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('మా', 'U'), ('ముం', 'U'), ('గ', '|'), ('ల', '|'), ('ని', 'U'), ('ల్చు', '|'), ('టె', 'U'), ('న్న', '|'), ('డొ', '|'), ('కొ', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('దీ', 'U'), ('ర', '|'), ('గ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>తమ మధురత్వసంపదగదా యిది దొంగిలెనంచు మోద న-
 య్యమృతపుబిందువోయనఁగ నందమునం దగు ముక్కునత్తుము-
@@ -840,32 +804,29 @@
 క్రమమున నుండు నిన్ దలఁపఁగాఁ గరఁగున్ మది సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('మ', '|'), ('మ', '|'), ('ధు', '|'), ('ర', 'U'), ('త్వ', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('గ', '|'), ('దా', 'U'), ('యి', '|'), ('ది', '|'), ('దొం', 'U'), ('గి', '|'), ('లె', '|'), ('నం', 'U'), ('చు', '|'), ('మో', 'U'), ('ద', '|'), ('న', 'U'), ('య్య', '|'), ('మృ', '|'), ('త', '|'), ('పు', '|'), ('బిం', 'U'), ('దు', '|'), ('వో', 'U'), ('య', '|'), ('న', '|'), ('గ', '|'), ('నం', 'U'), ('ద', '|'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('గు', '|'), ('ము', 'U'), ('క్కు', '|'), ('న', 'U'), ('త్తు', '|'), ('ము', 'U'), ('త్య', '|'), ('ము', '|'), ('ను', '|'), ('ను', '|'), ('మో', 'U'), ('వి', '|'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('ని', '|'), ('దా', 'U'), ('కు', '|'), ('చు', '|'), ('నుం', 'U'), ('డ', '|'), ('గ', '|'), ('బూ', 'U'), ('రు', '|'), ('షా', 'U'), ('యి', '|'), ('త', 'U'), ('క్ర', '|'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('నుం', 'U'), ('డు', '|'), ('నిన్', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ర', '|'), ('గున్', 'U'), ('మ', '|'), ('ది', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>చెలఁగుచు మీఱి నీదు నునుజెక్కులు గోరుల నొక్కకున్న మె-
 చ్చులుగల నీదు మోవి చవిచూడకయుండిన నీదు పల్కులూ-
@@ -873,32 +834,29 @@
 చిలుకలు నేల నే గణన సేతునె వీనిని, సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('మీ', 'U'), ('ఱి', '|'), ('నీ', 'U'), ('దు', '|'), ('ను', '|'), ('ను', '|'), ('జె', 'U'), ('క్కు', '|'), ('లు', '|'), ('గో', 'U'), ('రు', '|'), ('ల', '|'), ('నొ', 'U'), ('క్క', '|'), ('కు', 'U'), ('న్న', '|'), ('మె', 'U'), ('చ్చు', '|'), ('లు', '|'), ('గ', '|'), ('ల', '|'), ('నీ', 'U'), ('దు', '|'), ('మో', 'U'), ('వి', '|'), ('చ', '|'), ('వి', '|'), ('చూ', 'U'), ('డ', '|'), ('క', '|'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('నీ', 'U'), ('దు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('లూ', 'U'), ('హ', '|'), ('ల', '|'), ('గొ', '|'), ('న', '|'), ('కు', 'U'), ('న్న', '|'), ('నీ', 'U'), ('త', '|'), ('ళు', '|'), ('కు', '|'), ('లం', 'U'), ('ద', '|'), ('ము', '|'), ('నీ', 'U'), ('గు', '|'), ('జ', '|'), ('రా', 'U'), ('తి', '|'), ('కెం', 'U'), ('పు', '|'), ('లీ', 'U'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('లు', '|'), ('నే', 'U'), ('ల', '|'), ('నే', 'U'), ('గ', '|'), ('ణ', '|'), ('న', '|'), ('సే', 'U'), ('తు', '|'), ('నె', '|'), ('వీ', 'U'), ('ని', '|'), ('ని', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>అలుక యిదేమిరా! వెగటులాడకురా! దయతోడ జూడరా!
 పలుక విదేలరా! గడుసు పల్కులెఱుంగని చిన్నదానరా!
@@ -906,32 +864,29 @@
 చెలువుఁడ యన్న నీ నెనరు చిత్తము వాయదు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('లు', '|'), ('క', '|'), ('యి', '|'), ('దే', 'U'), ('మి', '|'), ('రా', 'U'), ('వె', '|'), ('గ', '|'), ('టు', '|'), ('లా', 'U'), ('డ', '|'), ('కు', '|'), ('రా', 'U'), ('ద', '|'), ('య', '|'), ('తో', 'U'), ('డ', '|'), ('జూ', 'U'), ('డ', '|'), ('రా', 'U'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('వి', '|'), ('దే', 'U'), ('ల', '|'), ('రా', 'U'), ('గ', '|'), ('డు', '|'), ('సు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ని', '|'), ('చి', 'U'), ('న్న', '|'), ('దా', 'U'), ('న', '|'), ('రా', 'U'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('రా', 'U'), ('మ', '|'), ('న', '|'), ('వి', '|'), ('చే', 'U'), ('కొ', '|'), ('న', '|'), ('రా', 'U'), ('వి', '|'), ('న', '|'), ('రా', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('రా', 'U'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('డ', '|'), ('య', 'U'), ('న్న', '|'), ('నీ', 'U'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('వా', 'U'), ('య', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>తల లొకయింత యెత్తి నునుదళ్కులుపై వెదజల్లి గొంటుపోఁ
 కలవలెనుండి బంతులయి గట్టితనంబున కౌళ్లుగట్టి చెం-
@@ -939,32 +894,29 @@
 బులఁ బవళించి, నేఁ దనివి పొందుట యెన్నఁడొ సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('లొ', '|'), ('క', '|'), ('యిం', 'U'), ('త', '|'), ('యె', 'U'), ('త్తి', '|'), ('ను', '|'), ('ను', '|'), ('ద', 'U'), ('ళ్కు', '|'), ('లు', '|'), ('పై', 'U'), ('వె', '|'), ('ద', '|'), ('జ', 'U'), ('ల్లి', '|'), ('గొం', 'U'), ('టు', '|'), ('పో', 'U'), ('క', '|'), ('ల', '|'), ('వ', '|'), ('లె', '|'), ('నుం', 'U'), ('డి', '|'), ('బం', 'U'), ('తు', '|'), ('ల', '|'), ('యి', '|'), ('గ', 'U'), ('ట్టి', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('కౌ', 'U'), ('ళ్లు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('చెం', 'U'), ('త', '|'), ('ల', '|'), ('నె', '|'), ('ఱ', '|'), ('నిం', 'U'), ('డె', '|'), ('నాం', 'U'), ('త', '|'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('క', '|'), ('ల', '|'), ('శం', 'U'), ('బు', '|'), ('ల', '|'), ('గే', 'U'), ('రు', '|'), ('నీ', 'U'), ('కు', '|'), ('చం', 'U'), ('బు', '|'), ('ల', '|'), ('బ', '|'), ('వ', '|'), ('ళిం', 'U'), ('చి', '|'), ('నే', 'U'), ('ద', '|'), ('ని', '|'), ('వి', '|'), ('పొం', 'U'), ('దు', '|'), ('ట', '|'), ('యె', 'U'), ('న్న', '|'), ('డొ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>రతిఁ జిగురాకువంటి యధరంబు చుఱుక్కునఁ బంటనొక్కి సీ-
 త్కృతి యొనరించి, బొమ్మముడి దేరఁగ నోరగఁజూచి, నీకు నీ
@@ -972,32 +924,29 @@
 చ్చితివే యటంచుఁ గేలఁ బరిశీలన చేతువె సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('తి', '|'), ('జి', '|'), ('గు', '|'), ('రా', 'U'), ('కు', '|'), ('వం', 'U'), ('టి', '|'), ('య', '|'), ('ధ', '|'), ('రం', 'U'), ('బు', '|'), ('చు', '|'), ('ఱు', 'U'), ('క్కు', '|'), ('న', '|'), ('బం', 'U'), ('ట', '|'), ('నొ', 'U'), ('క్కి', '|'), ('సీ', 'U'), ('త్కృ', '|'), ('తి', '|'), ('యొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('ము', '|'), ('డి', '|'), ('దే', 'U'), ('ర', '|'), ('గ', '|'), ('నో', 'U'), ('ర', '|'), ('గ', '|'), ('జూ', 'U'), ('చి', '|'), ('నీ', 'U'), ('కు', '|'), ('నీ', 'U'), ('గ', '|'), ('తి', '|'), ('నొ', '|'), ('న', '|'), ('రిం', 'U'), ('చ', '|'), ('నే', 'U'), ('ర్తు', '|'), ('న', '|'), ('ని', '|'), ('గం', 'U'), ('టు', '|'), ('గ', '|'), ('నా', 'U'), ('ను', '|'), ('ను', '|'), ('మో', 'U'), ('వి', '|'), ('నొ', 'U'), ('క్కి', '|'), ('నొ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('వే', 'U'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('గే', 'U'), ('ల', '|'), ('బ', '|'), ('రి', '|'), ('శీ', 'U'), ('ల', '|'), ('న', '|'), ('చే', 'U'), ('తు', '|'), ('వె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>చెలఁగి కికాకిక న్నగుచుఁ జిల్కలమంచముమీఁదఁ గేరుచున్
 గులుకుమెఱుంగుగబ్బిచనుగుబ్బ లురమ్మునఁ గూర్చి రేపవల్
@@ -1005,32 +954,29 @@
 నలువకుఁ బూజ లేదుగద! నాఁటికి నేటికి, సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('ల', '|'), ('గి', '|'), ('కి', '|'), ('కా', 'U'), ('కి', '|'), ('క', 'U'), ('న్న', '|'), ('గు', '|'), ('చు', '|'), ('జి', 'U'), ('ల్క', '|'), ('ల', '|'), ('మం', 'U'), ('చ', '|'), ('ము', '|'), ('మీ', 'U'), ('ద', '|'), ('గే', 'U'), ('రు', '|'), ('చున్', 'U'), ('గు', '|'), ('లు', '|'), ('కు', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('గ', 'U'), ('బ్బి', '|'), ('చ', '|'), ('ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లు', '|'), ('ర', 'U'), ('మ్ము', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('రే', 'U'), ('ప', '|'), ('వల్', 'U'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('సు', '|'), ('ద', '|'), ('తీ', 'U'), ('ని', '|'), ('ను', '|'), ('న', 'U'), ('న్నె', '|'), ('డ', '|'), ('బా', 'U'), ('పి', '|'), ('న', 'U'), ('ట్టి', '|'), ('యా', 'U'), ('న', '|'), ('లు', '|'), ('వ', '|'), ('కు', '|'), ('బూ', 'U'), ('జ', '|'), ('లే', 'U'), ('దు', '|'), ('గ', '|'), ('ద', '|'), ('నా', 'U'), ('టి', '|'), ('కి', '|'), ('నే', 'U'), ('టి', '|'), ('కి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>చిలుకలకొల్కి! నీ నగవుచిల్కెడు నెమ్మొగ మొక్కమాఱు క-
 న్నులఁ గనుఁగొన్ననాఁడు మదనుండు ననుం గరుణించుగాక! యో
@@ -1038,32 +984,29 @@
 వలమతి కర్కశాస్త్రముల వంచును నొంచును సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('లు', '|'), ('క', '|'), ('ల', '|'), ('కొ', 'U'), ('ల్కి', '|'), ('నీ', 'U'), ('న', '|'), ('గ', '|'), ('వు', '|'), ('చి', 'U'), ('ల్కె', '|'), ('డు', '|'), ('నె', 'U'), ('మ్మొ', '|'), ('గ', '|'), ('మొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('ఱు', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('గ', '|'), ('ను', '|'), ('గొ', 'U'), ('న్న', '|'), ('నా', 'U'), ('డు', '|'), ('మ', '|'), ('ద', '|'), ('నుం', 'U'), ('డు', '|'), ('న', '|'), ('నుం', 'U'), ('గ', '|'), ('రు', '|'), ('ణిం', 'U'), ('చు', '|'), ('గా', 'U'), ('క', '|'), ('యో', 'U'), ('చె', '|'), ('లి', '|'), ('ని', '|'), ('ను', '|'), ('బా', 'U'), ('సి', 'U'), ('వ్య', 'U'), ('ర్థ', '|'), ('గ', '|'), ('తి', '|'), ('జెం', 'U'), ('ది', '|'), ('న', '|'), ('నా', 'U'), ('డ', '|'), ('క', '|'), ('టా', 'U'), ('మ', '|'), ('రుం', 'U'), ('డు', '|'), ('కే', 'U'), ('వ', '|'), ('ల', '|'), ('మ', '|'), ('తి', '|'), ('క', 'U'), ('ర్క', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('వం', 'U'), ('చు', '|'), ('ను', '|'), ('నొం', 'U'), ('చు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>కాటుకకంటి నిగ్గులెసఁగం బొసఁగంగను నీ కటాక్షమై
 నాటెను ఱొమ్ము తాళఁగలనా లలనా? యిదిగాక కప్రపున్
@@ -1071,32 +1014,29 @@
 కూటము లెన్న గుండె కరఁగుఁన్ జరగున్ ధృతి సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('టు', '|'), ('క', '|'), ('కం', 'U'), ('టి', '|'), ('ని', 'U'), ('గ్గు', '|'), ('లె', '|'), ('స', '|'), ('గం', 'U'), ('బొ', '|'), ('స', '|'), ('గం', 'U'), ('గ', '|'), ('ను', '|'), ('నీ', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('మై', 'U'), ('నా', 'U'), ('టె', '|'), ('ను', '|'), ('ఱొ', 'U'), ('మ్ము', '|'), ('తా', 'U'), ('ళ', '|'), ('గ', '|'), ('ల', '|'), ('నా', 'U'), ('ల', '|'), ('ల', '|'), ('నా', 'U'), ('యి', '|'), ('ది', '|'), ('గా', 'U'), ('క', '|'), ('క', 'U'), ('ప్ర', '|'), ('పున్', 'U'), ('వీ', 'U'), ('టి', '|'), ('యొ', '|'), ('సం', 'U'), ('గు', '|'), ('చుం', 'U'), ('బి', '|'), ('కి', '|'), ('లి', '|'), ('పి', 'U'), ('ట్ట', '|'), ('వ', '|'), ('గం', 'U'), ('గ', '|'), ('వ', '|'), ('గ', 'U'), ('న్న', '|'), ('నా', 'U'), ('టి', '|'), ('నీ', 'U'), ('కూ', 'U'), ('ట', '|'), ('ము', '|'), ('లె', 'U'), ('న్న', '|'), ('గుం', 'U'), ('డె', '|'), ('క', '|'), ('ర', '|'), ('గున్', 'U'), ('జ', '|'), ('ర', '|'), ('గున్', 'U'), ('ధృ', '|'), ('తి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>సొలయక నీవు పౌరుషముఁ జూపుచుఁ గంతురణం బొనర్ప నే-
 నలకలు గోళదువ్వి, తెలనాకుల చుట్టలొసంగి, తాని పు-
@@ -1104,32 +1044,29 @@
 పులఁ బరిచర్య సేఁత దలపోయుదొ లేదొకొ సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('సొ', '|'), ('ల', '|'), ('య', '|'), ('క', '|'), ('నీ', 'U'), ('వు', '|'), ('పౌ', 'U'), ('రు', '|'), ('ష', '|'), ('ము', '|'), ('జూ', 'U'), ('పు', '|'), ('చు', '|'), ('గం', 'U'), ('తు', '|'), ('ర', '|'), ('ణం', 'U'), ('బొ', '|'), ('న', 'U'), ('ర్ప', '|'), ('నే', 'U'), ('న', '|'), ('ల', '|'), ('క', '|'), ('లు', '|'), ('గో', 'U'), ('ళ', '|'), ('దు', 'U'), ('వ్వి', '|'), ('తె', '|'), ('ల', '|'), ('నా', 'U'), ('కు', '|'), ('ల', '|'), ('చు', 'U'), ('ట్ట', '|'), ('లొ', '|'), ('సం', 'U'), ('గి', '|'), ('తా', 'U'), ('ని', '|'), ('పు', 'U'), ('వ్వు', '|'), ('ల', '|'), ('సు', '|'), ('ర', '|'), ('టీ', 'U'), ('ల', '|'), ('వీ', 'U'), ('వ', '|'), ('ను', '|'), ('ను', '|'), ('పుం', 'U'), ('గ', '|'), ('వు', '|'), ('న', 'U'), ('ల్ల', '|'), ('న', '|'), ('బి', 'U'), ('గ్గ', '|'), ('బ', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('వు', '|'), ('యిం', 'U'), ('పు', '|'), ('ల', '|'), ('బ', '|'), ('రి', '|'), ('చ', 'U'), ('ర్య', '|'), ('సే', 'U'), ('త', '|'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('యు', '|'), ('దొ', '|'), ('లే', 'U'), ('దొ', '|'), ('కొ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>మించు ధర న్నటించె లత మేదినిపైఁ జరియించె నేమొకో
 యంచుఁ దలంచుచున్న తరి నచ్చపుబంగరుబొమ్మరీతి మ-
@@ -1137,32 +1074,29 @@
 నెంచెద నన్ను నమ్మము రతీశుని సాక్షిగ సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('మిం', 'U'), ('చు', '|'), ('ధ', '|'), ('ర', 'U'), ('న్న', '|'), ('టిం', 'U'), ('చె', '|'), ('ల', '|'), ('త', '|'), ('మే', 'U'), ('ది', '|'), ('ని', '|'), ('పై', 'U'), ('జ', '|'), ('రి', '|'), ('యిం', 'U'), ('చె', '|'), ('నే', 'U'), ('మొ', '|'), ('కో', 'U'), ('యం', 'U'), ('చు', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('త', '|'), ('రి', '|'), ('న', 'U'), ('చ్చ', '|'), ('పు', '|'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('రీ', 'U'), ('తి', '|'), ('మ', 'U'), ('త్కాం', 'U'), ('చ', '|'), ('న', '|'), ('సౌ', 'U'), ('ధ', '|'), ('స', 'U'), ('న్ని', '|'), ('ధి', '|'), ('ని', '|'), ('గాం', 'U'), ('చి', '|'), ('మ', '|'), ('దీ', 'U'), ('య', '|'), ('త', '|'), ('పః', 'U'), ('ఫ', '|'), ('లం', 'U'), ('బె', '|'), ('కా', 'U'), ('నెం', 'U'), ('చె', '|'), ('ద', '|'), ('న', 'U'), ('న్ను', '|'), ('న', 'U'), ('మ్మ', '|'), ('ము', '|'), ('ర', '|'), ('తీ', 'U'), ('శు', '|'), ('ని', '|'), ('సా', 'U'), ('క్షి', '|'), ('గ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>చక్కెరబొమ్మ! నీ మొగము చక్కదనంబు పిఱుందునంద మా
 చెక్కుల చెక్కు పల్వరుస చెల్వము నూరుల తీరు లయ్యరే!
@@ -1170,32 +1104,29 @@
 చక్కెరవింటిదంట సుమసాయక మేయక? సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('నీ', 'U'), ('మొ', '|'), ('గ', '|'), ('ము', '|'), ('చ', 'U'), ('క్క', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('పి', '|'), ('ఱుం', 'U'), ('దు', '|'), ('నం', 'U'), ('ద', '|'), ('మా', 'U'), ('చె', 'U'), ('క్కు', '|'), ('ల', '|'), ('చె', 'U'), ('క్కు', '|'), ('ప', 'U'), ('ల్వ', '|'), ('రు', '|'), ('స', '|'), ('చె', 'U'), ('ల్వ', '|'), ('ము', '|'), ('నూ', 'U'), ('రు', '|'), ('ల', '|'), ('తీ', 'U'), ('రు', '|'), ('ల', 'U'), ('య్య', '|'), ('రే', 'U'), ('యె', 'U'), ('క్క', '|'), ('డ', '|'), ('జూ', 'U'), ('డ', '|'), ('నీ', 'U'), ('వె', '|'), ('కృ', '|'), ('ప', '|'), ('నిం', 'U'), ('చు', '|'), ('క', '|'), ('చూ', 'U'), ('డ', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('మా', 'U'), ('ను', '|'), ('నే', 'U'), ('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('విం', 'U'), ('టి', '|'), ('దం', 'U'), ('ట', '|'), ('సు', '|'), ('మ', '|'), ('సా', 'U'), ('య', '|'), ('క', '|'), ('మే', 'U'), ('య', '|'), ('క', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>నేటికి నిండె నా తపము నిక్కమటంచు సుఖించి యుంటి, స-
 య్యాటల నాటపాటల నొయారపుదేటల ముద్దుమాటలన్
@@ -1203,32 +1134,29 @@
 నాఁటికి నేది మున్నెడ నొనర్చితినో యిట సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('టి', '|'), ('కి', '|'), ('నిం', 'U'), ('డె', '|'), ('నా', 'U'), ('త', '|'), ('ప', '|'), ('ము', '|'), ('ని', 'U'), ('క్క', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('సు', '|'), ('ఖిం', 'U'), ('చి', '|'), ('యుం', 'U'), ('టి', '|'), ('స', 'U'), ('య్యా', 'U'), ('ట', '|'), ('ల', '|'), ('నా', 'U'), ('ట', '|'), ('పా', 'U'), ('ట', '|'), ('ల', '|'), ('నొ', '|'), ('యా', 'U'), ('ర', '|'), ('పు', '|'), ('దే', 'U'), ('ట', '|'), ('ల', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మా', 'U'), ('ట', '|'), ('లన్', 'U'), ('గూ', 'U'), ('ట', '|'), ('మి', '|'), ('నే', 'U'), ('లు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గ', '|'), ('ని', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ని', 'U'), ('న్నె', '|'), ('డ', '|'), ('బా', 'U'), ('సి', '|'), ('యుం', 'U'), ('టి', '|'), ('నీ', 'U'), ('నా', 'U'), ('టి', '|'), ('కి', '|'), ('నే', 'U'), ('ది', '|'), ('ము', 'U'), ('న్నె', '|'), ('డ', '|'), ('నొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('తి', '|'), ('నో', 'U'), ('యి', '|'), ('ట', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>బహుతరలజ్జఁ గన్ను లొక పాళముగా ముకుళించి, నీ యురో-
 రుహముల నీవిపైఁ గరసరోజములుంచి, తొడల్ బిగించ నే
@@ -1236,32 +1164,29 @@
 గ్రహణ మొనర్చినట్టి యుపకారిణి వౌదువె సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('హు', '|'), ('త', '|'), ('ర', '|'), ('ల', 'U'), ('జ్జ', '|'), ('గ', 'U'), ('న్ను', '|'), ('లొ', '|'), ('క', '|'), ('పా', 'U'), ('ళ', '|'), ('ము', '|'), ('గా', 'U'), ('ము', '|'), ('కు', '|'), ('ళిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('యు', '|'), ('రో', 'U'), ('రు', '|'), ('హ', '|'), ('ము', '|'), ('ల', '|'), ('నీ', 'U'), ('వి', '|'), ('పై', 'U'), ('గ', '|'), ('ర', '|'), ('స', '|'), ('రో', 'U'), ('జ', '|'), ('ము', '|'), ('లుం', 'U'), ('చి', '|'), ('తొ', '|'), ('డల్', 'U'), ('బి', '|'), ('గిం', 'U'), ('చ', '|'), ('నే', 'U'), ('ర', '|'), ('హి', '|'), ('వ', '|'), ('లు', '|'), ('వె', 'U'), ('ల్ల', '|'), ('బా', 'U'), ('ప', '|'), ('గ', '|'), ('బి', '|'), ('రా', 'U'), ('లు', '|'), ('న', '|'), ('దొ', 'U'), ('ల్త', '|'), ('టి', '|'), ('కూ', 'U'), ('ట', '|'), ('మిన్', 'U'), ('స్వ', '|'), ('యం', 'U'), ('గ్ర', '|'), ('హ', '|'), ('ణ', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('యు', '|'), ('ప', '|'), ('కా', 'U'), ('రి', '|'), ('ణి', '|'), ('వౌ', 'U'), ('దు', '|'), ('వె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>అందెల నాదు చొప్పణఁచి, యల్లన మెల్లన వచ్చి కేళికా-
 మందిరశయ్య నిద్ర గనుమాడ్కి వసించిన నాదు చెక్కులిం-
@@ -1269,32 +1194,29 @@
 జ్జం దగు నిన్ను గేళి నెకసక్కెము చేయుదు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('దె', '|'), ('ల', '|'), ('నా', 'U'), ('దు', '|'), ('చొ', 'U'), ('ప్ప', '|'), ('ణ', '|'), ('చి', '|'), ('య', 'U'), ('ల్ల', '|'), ('న', '|'), ('మె', 'U'), ('ల్ల', '|'), ('న', '|'), ('వ', 'U'), ('చ్చి', '|'), ('కే', 'U'), ('ళి', '|'), ('కా', 'U'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('శ', 'U'), ('య్య', '|'), ('ని', '|'), ('ద్ర', '|'), ('గ', '|'), ('ను', '|'), ('మా', 'U'), ('డ్కి', '|'), ('వ', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('నా', 'U'), ('దు', '|'), ('చె', 'U'), ('క్కు', '|'), ('లిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('గ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('పె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ను', '|'), ('చుం', 'U'), ('డ', '|'), ('గ', '|'), ('నే', 'U'), ('జి', '|'), ('ఱు', '|'), ('న', 'U'), ('వ్వు', '|'), ('న', 'U'), ('వ్వ', '|'), ('ల', 'U'), ('జ్జం', 'U'), ('ద', '|'), ('గు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గే', 'U'), ('ళి', '|'), ('నె', '|'), ('క', '|'), ('స', 'U'), ('క్కె', '|'), ('ము', '|'), ('చే', 'U'), ('యు', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>ఎటులిఁకఁ దెల్లవాఱె సెలవీయర నీదు కరంబు నాదు సం-
 దిట నిడినావు నా పదము నీ పదమున్ మెలవైచి తేమొకో
@@ -1302,32 +1224,29 @@
 గిటఁ బతిమాలు నిన్ బలిమిఁ గేళి యొనర్తును సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('ఎ', '|'), ('టు', '|'), ('లి', '|'), ('క', '|'), ('దె', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('ఱె', '|'), ('సె', '|'), ('ల', '|'), ('వీ', 'U'), ('య', '|'), ('ర', '|'), ('నీ', 'U'), ('దు', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('నా', 'U'), ('దు', '|'), ('సం', 'U'), ('ది', '|'), ('ట', '|'), ('ని', '|'), ('డి', '|'), ('నా', 'U'), ('వు', '|'), ('నా', 'U'), ('ప', '|'), ('ద', '|'), ('ము', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('మున్', 'U'), ('మె', '|'), ('ల', '|'), ('వై', 'U'), ('చి', '|'), ('తే', 'U'), ('మొ', '|'), ('కో', 'U'), ('చి', '|'), ('టి', '|'), ('పొ', '|'), ('టి', '|'), ('చే', 'U'), ('త', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('వె', '|'), ('సి', 'U'), ('గ్గు', '|'), ('ల', '|'), ('చే', 'U'), ('టి', '|'), ('పు', '|'), ('డే', 'U'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('గౌ', 'U'), ('గి', '|'), ('ట', '|'), ('బ', '|'), ('తి', '|'), ('మా', 'U'), ('లు', '|'), ('నిన్', 'U'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('గే', 'U'), ('ళి', '|'), ('యొ', '|'), ('న', 'U'), ('ర్తు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>చెమ్మటనంటు ముంగురులు చిందిన కస్తురిబొట్టు నిద్దురం
 గ్రమ్మెడు కన్నులున్ జెదరు కాటుకయున్ నెలవంకలున్ వినో-
@@ -1335,32 +1254,29 @@
 నిమ్మగు నీ మొగంబు గనుటెన్నఁడు ప్రొద్దున సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('చె', 'U'), ('మ్మ', '|'), ('ట', '|'), ('నం', 'U'), ('టు', '|'), ('ముం', 'U'), ('గు', '|'), ('రు', '|'), ('లు', '|'), ('చిం', 'U'), ('ది', '|'), ('న', '|'), ('క', 'U'), ('స్తు', '|'), ('రి', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('ని', 'U'), ('ద్దు', '|'), ('రం', 'U'), ('గ్ర', 'U'), ('మ్మె', '|'), ('డు', '|'), ('క', 'U'), ('న్ను', '|'), ('లున్', 'U'), ('జె', '|'), ('ద', '|'), ('రు', '|'), ('కా', 'U'), ('టు', '|'), ('క', '|'), ('యున్', 'U'), ('నె', '|'), ('ల', '|'), ('వం', 'U'), ('క', '|'), ('లున్', 'U'), ('వి', '|'), ('నో', 'U'), ('ద', 'U'), ('మ్మ', '|'), ('గు', '|'), ('త', 'U'), ('ళ్కు', '|'), ('జె', 'U'), ('క్కు', '|'), ('లు', '|'), ('ర', '|'), ('ద', 'U'), ('క్ష', '|'), ('త', '|'), ('ల', 'U'), ('క్షి', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('మో', 'U'), ('వి', '|'), ('చే', 'U'), ('ని', 'U'), ('మ్మ', '|'), ('గు', '|'), ('నీ', 'U'), ('మొ', '|'), ('గం', 'U'), ('బు', '|'), ('గ', '|'), ('ను', '|'), ('టె', 'U'), ('న్న', '|'), ('డు', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('న', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>వాడిన మోముతోఁ దొగరువాతెఱఁ బలుగెంపుగుంపుతో
 వీడిన కొప్పుతో సొలపువింతలతో ననుఁ బాసిఁపోవఁ గా-
@@ -1368,32 +1284,29 @@
 వేడుకఁ గేళిమందిరము వెల్వడుచుందువు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('డి', '|'), ('న', '|'), ('మో', 'U'), ('ము', '|'), ('తో', 'U'), ('దొ', '|'), ('గ', '|'), ('రు', '|'), ('వా', 'U'), ('తె', '|'), ('ఱ', '|'), ('బ', '|'), ('లు', '|'), ('గెం', 'U'), ('పు', '|'), ('గుం', 'U'), ('పు', '|'), ('తో', 'U'), ('వీ', 'U'), ('డి', '|'), ('న', '|'), ('కొ', 'U'), ('ప్పు', '|'), ('తో', 'U'), ('సొ', '|'), ('ల', '|'), ('పు', '|'), ('విం', 'U'), ('త', '|'), ('ల', '|'), ('తో', 'U'), ('న', '|'), ('ను', '|'), ('బా', 'U'), ('సి', '|'), ('పో', 'U'), ('వ', '|'), ('గా', 'U'), ('ళ్లా', 'U'), ('డ', '|'), ('ని', '|'), ('య', 'U'), ('ట్లు', '|'), ('తొ', 'U'), ('ట్రు', '|'), ('వ', '|'), ('డు', '|'), ('నం', 'U'), ('ద', '|'), ('పు', '|'), ('నె', 'U'), ('న్న', '|'), ('డ', '|'), ('తో', 'U'), ('డ', 'U'), ('బ్రొ', 'U'), ('ద్దు', '|'), ('నన్', 'U'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('గే', 'U'), ('ళి', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('వె', 'U'), ('ల్వ', '|'), ('డు', '|'), ('చుం', 'U'), ('దు', '|'), ('వు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>సోయగ ముప్పతిల్ల ననుఁ జూచి కిసాలున నవ్వి లేచి, రా-
 రా! యని కౌగిలింపుచుఁ బిరాలున శయ్యకు వ్రాలి గుబ్బలన్
@@ -1401,32 +1314,29 @@
 హూ! యని సైఁగ నన్ బలుకకుండ నదల్తువె సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('సో', 'U'), ('య', '|'), ('గ', '|'), ('ము', 'U'), ('ప్ప', '|'), ('తి', 'U'), ('ల్ల', '|'), ('న', '|'), ('ను', '|'), ('జూ', 'U'), ('చి', '|'), ('కి', '|'), ('సా', 'U'), ('లు', '|'), ('న', '|'), ('న', 'U'), ('వ్వి', '|'), ('లే', 'U'), ('చి', '|'), ('రా', 'U'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('పు', '|'), ('చు', '|'), ('బి', '|'), ('రా', 'U'), ('లు', '|'), ('న', '|'), ('శ', 'U'), ('య్య', '|'), ('కు', 'U'), ('వ్రా', 'U'), ('లి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లన్', 'U'), ('నా', 'U'), ('యు', '|'), ('ర', '|'), ('మా', 'U'), ('ని', '|'), ('మో', 'U'), ('వి', '|'), ('ర', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('నొ', 'U'), ('క్కు', '|'), ('చు', '|'), ('జొ', 'U'), ('క్కి', '|'), ('చొ', 'U'), ('క్కి', '|'), ('యూ', 'U'), ('హూ', 'U'), ('య', '|'), ('ని', '|'), ('సై', 'U'), ('గ', '|'), ('నన్', 'U'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('కుం', 'U'), ('డ', '|'), ('న', '|'), ('ద', 'U'), ('ల్తు', '|'), ('వె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>పాయఁగలేని మోహమున బంతులవంటి కుచద్వయంబు చే-
 దోయి నమర్చి, కేళితమి తోరపుఁ గామశతాంగచక్రపుం
@@ -1434,32 +1344,29 @@
 రాయితలీల మెచ్చుగొను నద్భుతశీలవె సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('య', '|'), ('గ', '|'), ('లే', 'U'), ('ని', '|'), ('మో', 'U'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('బం', 'U'), ('తు', '|'), ('ల', '|'), ('వం', 'U'), ('టి', '|'), ('కు', '|'), ('చ', 'U'), ('ద్వ', '|'), ('యం', 'U'), ('బు', '|'), ('చే', 'U'), ('దో', 'U'), ('యి', '|'), ('న', '|'), ('మ', 'U'), ('ర్చి', '|'), ('కే', 'U'), ('ళి', '|'), ('త', '|'), ('మి', '|'), ('తో', 'U'), ('ర', '|'), ('పు', '|'), ('గా', 'U'), ('మ', '|'), ('శ', '|'), ('తాం', 'U'), ('గ', '|'), ('చ', 'U'), ('క్ర', '|'), ('పుం', 'U'), ('జా', 'U'), ('య', '|'), ('ల', '|'), ('పై', 'U'), ('కి', '|'), ('దొ', 'U'), ('ర్లి', '|'), ('న', '|'), ('ను', '|'), ('శ', 'U'), ('య్య', '|'), ('కు', 'U'), ('వ్రా', 'U'), ('ల్చి', '|'), ('ప', '|'), ('రా', 'U'), ('క', '|'), ('టం', 'U'), ('చు', '|'), ('వీ', 'U'), ('రా', 'U'), ('యి', '|'), ('త', '|'), ('లీ', 'U'), ('ల', '|'), ('మె', 'U'), ('చ్చు', '|'), ('గొ', '|'), ('ను', '|'), ('న', 'U'), ('ద్భు', '|'), ('త', '|'), ('శీ', 'U'), ('ల', '|'), ('వె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>మించెడు వేడ్కఁ బైకొని రమించెడుచోఁ గటిమీఁద వేణి న-
 ర్తించుట యొప్పు రాచిలుకతేజిమనోజుఁడు చౌపటాలి ద్రొ-
@@ -1467,32 +1374,29 @@
 యించిన లాగు నా సొగసు లెన్నఁగ శక్యమే, సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('మిం', 'U'), ('చె', '|'), ('డు', '|'), ('వే', 'U'), ('డ్క', '|'), ('బై', 'U'), ('కొ', '|'), ('ని', '|'), ('ర', '|'), ('మిం', 'U'), ('చె', '|'), ('డు', '|'), ('చో', 'U'), ('గ', '|'), ('టి', '|'), ('మీ', 'U'), ('ద', '|'), ('వే', 'U'), ('ణి', '|'), ('న', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('ట', '|'), ('యొ', 'U'), ('ప్పు', '|'), ('రా', 'U'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('తే', 'U'), ('జి', '|'), ('మ', '|'), ('నో', 'U'), ('జు', '|'), ('డు', '|'), ('చౌ', 'U'), ('ప', '|'), ('టా', 'U'), ('లి', '|'), ('ద్రొ', 'U'), ('క్కిం', 'U'), ('చు', '|'), ('చు', '|'), ('జి', 'U'), ('త్ర', '|'), ('భం', 'U'), ('గి', '|'), ('దు', '|'), ('మి', '|'), ('కిం', 'U'), ('పు', '|'), ('చు', '|'), ('నీ', 'U'), ('ల', '|'), ('క', '|'), ('శా', 'U'), ('హ', '|'), ('తిం', 'U'), ('దు', '|'), ('టా', 'U'), ('యిం', 'U'), ('చి', '|'), ('న', '|'), ('లా', 'U'), ('గు', '|'), ('నా', 'U'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('లె', 'U'), ('న్న', '|'), ('గ', '|'), ('శ', 'U'), ('క్య', '|'), ('మే', 'U'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>మోహముమీఱఁ బంచశరుమోహర మొగ్గినవేళఁ గుల్కు నీ
 సాహస మేమనన్ బయికిఁ జంగున దాఁటి చెలంగి కేళిలో
@@ -1500,32 +1404,29 @@
 రోహ యటన్న పేరు దగు రూఢిగ నీయెడ సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('మో', 'U'), ('హ', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('బం', 'U'), ('చ', '|'), ('శ', '|'), ('రు', '|'), ('మో', 'U'), ('హ', '|'), ('ర', '|'), ('మొ', 'U'), ('గ్గి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('గు', 'U'), ('ల్కు', '|'), ('నీ', 'U'), ('సా', 'U'), ('హ', '|'), ('స', '|'), ('మే', 'U'), ('మ', '|'), ('నన్', 'U'), ('బ', '|'), ('యి', '|'), ('కి', '|'), ('జం', 'U'), ('గు', '|'), ('న', '|'), ('దా', 'U'), ('టి', '|'), ('చె', '|'), ('లం', 'U'), ('గి', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('నీ', 'U'), ('హొ', '|'), ('న', '|'), ('రె', 'U'), ('ల్ల', '|'), ('నే', 'U'), ('ర్ప', '|'), ('ఱు', '|'), ('పు', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రి', '|'), ('వౌ', 'U'), ('దు', '|'), ('వు', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('ద్వ', '|'), ('రా', 'U'), ('రో', 'U'), ('హ', '|'), ('య', '|'), ('ట', 'U'), ('న్న', '|'), ('పే', 'U'), ('రు', '|'), ('ద', '|'), ('గు', '|'), ('రూ', 'U'), ('ఢి', '|'), ('గ', '|'), ('నీ', 'U'), ('యె', '|'), ('డ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>అలితతి మ్రోఁతకున్ శుకపికావళి కూఁతకు మంటమారిపూ-
 విలుతుని కత్తికోతఁకు నవీనసమీరకుమారు నేఁతకున్
@@ -1533,32 +1434,29 @@
 జలనమునొంది గుండె ఝలుఝల్లుమనెం గదె సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('లి', '|'), ('త', '|'), ('తి', '|'), ('మ్రో', 'U'), ('త', '|'), ('కున్', 'U'), ('శు', '|'), ('క', '|'), ('పి', '|'), ('కా', 'U'), ('వ', '|'), ('ళి', '|'), ('కూ', 'U'), ('త', '|'), ('కు', '|'), ('మం', 'U'), ('ట', '|'), ('మా', 'U'), ('రి', '|'), ('పూ', 'U'), ('వి', '|'), ('లు', '|'), ('తు', '|'), ('ని', '|'), ('క', 'U'), ('త్తి', '|'), ('కో', 'U'), ('త', '|'), ('కు', '|'), ('న', '|'), ('వీ', 'U'), ('న', '|'), ('స', '|'), ('మీ', 'U'), ('ర', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('నే', 'U'), ('త', '|'), ('కున్', 'U'), ('బొ', '|'), ('లు', '|'), ('పు', '|'), ('గ', '|'), ('జం', 'U'), ('ద్రు', '|'), ('పె', 'U'), ('ళ్లు', '|'), ('డు', '|'), ('క', '|'), ('పో', 'U'), ('త', '|'), ('కు', 'U'), ('క్రొ', 'U'), ('వ్వి', '|'), ('రి', '|'), ('మ', 'U'), ('ల్లె', '|'), ('పూ', 'U'), ('త', '|'), ('కున్', 'U'), ('జ', '|'), ('ల', '|'), ('న', '|'), ('ము', '|'), ('నొం', 'U'), ('ది', '|'), ('గుం', 'U'), ('డె', '|'), ('ఝ', '|'), ('లు', '|'), ('ఝ', 'U'), ('ల్లు', '|'), ('మ', '|'), ('నెం', 'U'), ('గ', '|'), ('దె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>జడ కటి సంచరింప, బురుసాపనిచీరె పయిన్ మెఱుంగుపా-
 వడ తళుకుల్ నటింప, బిగివట్రువగుబ్బల రత్నహారముల్
@@ -1566,32 +1464,29 @@
 బడకకు వచ్చు నీ సొబగు భావముఁ బాయదు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('డ', '|'), ('క', '|'), ('టి', '|'), ('సం', 'U'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('బు', '|'), ('రు', '|'), ('సా', 'U'), ('ప', '|'), ('ని', '|'), ('చీ', 'U'), ('రె', '|'), ('ప', '|'), ('యిన్', 'U'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('పా', 'U'), ('వ', '|'), ('డ', '|'), ('త', '|'), ('ళు', '|'), ('కుల్', 'U'), ('న', '|'), ('టిం', 'U'), ('ప', '|'), ('బి', '|'), ('గి', '|'), ('వ', 'U'), ('ట్రు', '|'), ('వ', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('ర', 'U'), ('త్న', '|'), ('హా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('త', '|'), ('డ', '|'), ('బ', '|'), ('డి', '|'), ('సం', 'U'), ('ద', '|'), ('డిం', 'U'), ('ప', '|'), ('మ', '|'), ('రు', '|'), ('తం', 'U'), ('త్ర', '|'), ('ము', '|'), ('లం', 'U'), ('ది', '|'), ('య', '|'), ('లు', 'U'), ('గ్గ', '|'), ('డిం', 'U'), ('ప', '|'), ('గా', 'U'), ('బ', '|'), ('డ', '|'), ('క', '|'), ('కు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నీ', 'U'), ('సొ', '|'), ('బ', '|'), ('గు', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('బా', 'U'), ('య', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>కొదమమిటారి చన్నుఁగవ గోరుల పోటు మెఱుంగు వాతెఱన్
 గుదిరిన పచ్చికాటుకనుఁ గోనల నిద్దురపాటు చెమ్మటల్
@@ -1599,32 +1494,29 @@
 య్యెఁద యెదమాటు, నీవు పడకిల్ వెడలం దగు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('ద', '|'), ('మ', '|'), ('మి', '|'), ('టా', 'U'), ('రి', '|'), ('చ', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('గో', 'U'), ('రు', '|'), ('ల', '|'), ('పో', 'U'), ('టు', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('వా', 'U'), ('తె', '|'), ('ఱన్', 'U'), ('గు', '|'), ('ది', '|'), ('రి', '|'), ('న', '|'), ('ప', 'U'), ('చ్చి', '|'), ('కా', 'U'), ('టు', '|'), ('క', '|'), ('ను', '|'), ('గో', 'U'), ('న', '|'), ('ల', '|'), ('ని', 'U'), ('ద్దు', '|'), ('ర', '|'), ('పా', 'U'), ('టు', '|'), ('చె', 'U'), ('మ్మ', '|'), ('టల్', 'U'), ('క', '|'), ('ద', '|'), ('లె', '|'), ('డు', '|'), ('మే', 'U'), ('ను', '|'), ('నీ', 'U'), ('టు', '|'), ('ప', '|'), ('ద', '|'), ('కం', 'U'), ('జ', '|'), ('ము', '|'), ('లన్', 'U'), ('ద', '|'), ('డ', '|'), ('బా', 'U'), ('టు', '|'), ('జా', 'U'), ('రు', '|'), ('ప', 'U'), ('య్యె', '|'), ('ద', '|'), ('యె', '|'), ('ద', '|'), ('మా', 'U'), ('టు', '|'), ('నీ', 'U'), ('వు', '|'), ('ప', '|'), ('డ', '|'), ('కిల్', 'U'), ('వె', '|'), ('డ', '|'), ('లం', 'U'), ('ద', '|'), ('గు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>నీ కడకంటి చూపు, బలునిద్దపు నీ చనుదోయి ప్రాపు, నన్
 బైకొను కోపు, నీ జిలుగుబంగరు మై నునుతాపు, నీ సుధా-
@@ -1632,32 +1524,29 @@
 జేకొను కోపు లేక గడెసేపు రుచించదు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('క', '|'), ('డ', '|'), ('కం', 'U'), ('టి', '|'), ('చూ', 'U'), ('పు', '|'), ('బ', '|'), ('లు', '|'), ('ని', 'U'), ('ద్ద', '|'), ('పు', '|'), ('నీ', 'U'), ('చ', '|'), ('ను', '|'), ('దో', 'U'), ('యి', 'U'), ('ప్రా', 'U'), ('పు', '|'), ('నన్', 'U'), ('బై', 'U'), ('కొ', '|'), ('ను', '|'), ('కో', 'U'), ('పు', '|'), ('నీ', 'U'), ('జి', '|'), ('లు', '|'), ('గు', '|'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('మై', 'U'), ('ను', '|'), ('ను', '|'), ('తా', 'U'), ('పు', '|'), ('నీ', 'U'), ('సు', '|'), ('ధా', 'U'), ('స్తో', 'U'), ('క', '|'), ('ర', '|'), ('దాం', 'U'), ('శు', '|'), ('కం', 'U'), ('బు', '|'), ('చ', '|'), ('వి', '|'), ('చూ', 'U'), ('పు', '|'), ('ద', '|'), ('యా', 'U'), ('మ', '|'), ('తి', '|'), ('దా', 'U'), ('పు', '|'), ('నీ', 'U'), ('వే', 'U'), ('నన్', 'U'), ('జే', 'U'), ('కొ', '|'), ('ను', '|'), ('కో', 'U'), ('పు', '|'), ('లే', 'U'), ('క', '|'), ('గ', '|'), ('డె', '|'), ('సే', 'U'), ('పు', '|'), ('రు', '|'), ('చిం', 'U'), ('చ', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>చిలుకహుమావజీరు విరిసింగిణిఁగూర్చిన కొత్తవింత పూ-
 జిలుకవు నా పయిం గరుణ చిల్క విదేమి మెఱుంగురత్నపుం
@@ -1665,32 +1554,29 @@
 నలిగినవేళ వేఁడుకొను టాత్మఁ దలంపవె సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('లు', '|'), ('క', '|'), ('హు', '|'), ('మా', 'U'), ('వ', '|'), ('జీ', 'U'), ('రు', '|'), ('వి', '|'), ('రి', '|'), ('సిం', 'U'), ('గి', '|'), ('ణి', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('కొ', 'U'), ('త్త', '|'), ('విం', 'U'), ('త', '|'), ('పూ', 'U'), ('జి', '|'), ('లు', '|'), ('క', '|'), ('వు', '|'), ('నా', 'U'), ('ప', '|'), ('యిం', 'U'), ('గ', '|'), ('రు', '|'), ('ణ', '|'), ('చి', 'U'), ('ల్క', '|'), ('వి', '|'), ('దే', 'U'), ('మి', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('ర', 'U'), ('త్న', '|'), ('పుం', 'U'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('వు', '|'), ('క', 'U'), ('ప్పు', '|'), ('రం', 'U'), ('బు', '|'), ('లి', '|'), ('క', '|'), ('ప', 'U'), ('ల్క', '|'), ('వి', '|'), ('దే', 'U'), ('మి', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('ని', 'U'), ('న్న', '|'), ('నే', 'U'), ('న', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('వే', 'U'), ('డు', '|'), ('కొ', '|'), ('ను', '|'), ('టా', 'U'), ('త్మ', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('వె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>కోపము మానవే, నెనరుగూర్చిన చల్లనిచూపువెన్నెలల్
 నాపయిఁ జల్లవే చలము నాయమె బిగ్గఱఁ గౌఁగిలింపవే
@@ -1698,32 +1584,29 @@
 దాపము దీర్చవే యనుచుఁ దద్దయుఁ బల్కుదు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('కో', 'U'), ('ప', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('వే', 'U'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('చ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('చూ', 'U'), ('పు', '|'), ('వె', 'U'), ('న్నె', '|'), ('లల్', 'U'), ('నా', 'U'), ('ప', '|'), ('యి', '|'), ('జ', 'U'), ('ల్ల', '|'), ('వే', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('నా', 'U'), ('య', '|'), ('మె', '|'), ('బి', 'U'), ('గ్గ', '|'), ('ఱ', '|'), ('గౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('యో', 'U'), ('పు', '|'), ('వు', '|'), ('బో', 'U'), ('డి', '|'), ('యో', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('యో', 'U'), ('చె', '|'), ('లి', '|'), ('నీ', 'U'), ('య', '|'), ('ధ', '|'), ('రా', 'U'), ('మృ', '|'), ('తం', 'U'), ('బు', '|'), ('నం', 'U'), ('దా', 'U'), ('ప', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్చ', '|'), ('వే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('ద', 'U'), ('ద్ద', '|'), ('యు', '|'), ('బ', 'U'), ('ల్కు', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>అతులితచిత్రవస్తుసముదంచితదర్పణనూత్నకాంతి న-
 ప్రతిమపుఁ గేళిసౌధమున బంగరుసౌధపుఁ జప్పరంపు మేల్
@@ -1731,32 +1614,29 @@
 గుతుకముమీఱ నిన్నుఁ గవగూడుట యెన్నడొ సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తు', '|'), ('లి', '|'), ('త', '|'), ('చి', 'U'), ('త్ర', '|'), ('వ', 'U'), ('స్తు', '|'), ('స', '|'), ('ము', '|'), ('దం', 'U'), ('చి', '|'), ('త', '|'), ('ద', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('నూ', 'U'), ('త్న', '|'), ('కాం', 'U'), ('తి', '|'), ('న', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మ', '|'), ('పు', '|'), ('గే', 'U'), ('ళి', '|'), ('సౌ', 'U'), ('ధ', '|'), ('ము', '|'), ('న', '|'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('సౌ', 'U'), ('ధ', '|'), ('పు', '|'), ('జ', 'U'), ('ప్ప', '|'), ('రం', 'U'), ('పు', '|'), ('మేల్', 'U'), ('ర', '|'), ('త', '|'), ('న', '|'), ('పు', '|'), ('గో', 'U'), ('ళ్ల', '|'), ('మం', 'U'), ('చ', '|'), ('ము', '|'), ('న', '|'), ('రం', 'U'), ('జి', '|'), ('లు', '|'), ('పూ', 'U'), ('స', '|'), ('ల', '|'), ('సె', 'U'), ('జ్జ', '|'), ('యం', 'U'), ('దు', '|'), ('నే', 'U'), ('గు', '|'), ('తు', '|'), ('క', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('ని', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('గూ', 'U'), ('డు', '|'), ('ట', '|'), ('యె', 'U'), ('న్న', '|'), ('డొ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>ఇంచుక నొక్కనాఁడు పడకింట సమున్నతదర్పణాప్తి నై-
 జాంచితమూర్తిఁ గన్గొని పరాంగనలౌ యని యల్గిపోవ వా-
@@ -1764,32 +1644,29 @@
 క్షించుమనన్ గ్రహించి దయ సేతువుగా నను సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('ఇం', 'U'), ('చు', '|'), ('క', '|'), ('నొ', 'U'), ('క్క', '|'), ('నా', 'U'), ('డు', '|'), ('ప', '|'), ('డ', '|'), ('కిం', 'U'), ('ట', '|'), ('స', '|'), ('ము', 'U'), ('న్న', '|'), ('త', '|'), ('ద', 'U'), ('ర్ప', '|'), ('ణా', 'U'), ('ప్తి', '|'), ('నై', 'U'), ('జాం', 'U'), ('చి', '|'), ('త', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('ప', '|'), ('రాం', 'U'), ('గ', '|'), ('న', '|'), ('లౌ', 'U'), ('య', '|'), ('ని', '|'), ('య', 'U'), ('ల్గి', '|'), ('పో', 'U'), ('వ', '|'), ('వా', 'U'), ('రిం', 'U'), ('చు', '|'), ('చు', '|'), ('నీ', 'U'), ('డ', '|'), ('జూ', 'U'), ('చి', '|'), ('బె', '|'), ('ద', '|'), ('రే', 'U'), ('వ', '|'), ('ని', '|'), ('న', 'U'), ('వ్వు', '|'), ('చు', '|'), ('మో', 'U'), ('ము', '|'), ('ద్రి', 'U'), ('ప్పి', '|'), ('నీ', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('మ', '|'), ('నన్', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('ద', '|'), ('య', '|'), ('సే', 'U'), ('తు', '|'), ('వు', '|'), ('గా', 'U'), ('న', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>పలుచనిమేనితోఁ జిలుకపల్కులతోఁ జిఱునవ్వుమోముతో
 కులుకుకడానిడాల్‍పొగరుగుబ్బలతో నసియాడుకౌనుతో
@@ -1797,32 +1674,29 @@
 తమము చెంత నిల్చి పరితాపము దీర్పవె సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('లు', '|'), ('చ', '|'), ('ని', '|'), ('మే', 'U'), ('ని', '|'), ('తో', 'U'), ('జి', '|'), ('లు', '|'), ('క', '|'), ('ప', 'U'), ('ల్కు', '|'), ('ల', '|'), ('తో', 'U'), ('జి', '|'), ('ఱు', '|'), ('న', 'U'), ('వ్వు', '|'), ('మో', 'U'), ('ము', '|'), ('తో', 'U'), ('కు', '|'), ('లు', '|'), ('కు', '|'), ('క', '|'), ('డా', 'U'), ('ని', '|'), ('డా', 'U'), ('ల్పొ', '|'), ('గ', '|'), ('రు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('తో', 'U'), ('న', '|'), ('సి', '|'), ('యా', 'U'), ('డు', '|'), ('కౌ', 'U'), ('ను', '|'), ('తో', 'U'), ('బ', '|'), ('లు', '|'), ('వు', '|'), ('పి', '|'), ('ఱుం', 'U'), ('దు', '|'), ('తో', 'U'), ('ద', '|'), ('రు', '|'), ('ణ', '|'), ('ప', 'U'), ('ల్ల', '|'), ('వ', '|'), ('జి', 'U'), ('చ్చ', '|'), ('ర', '|'), ('ణ', 'U'), ('ద్వ', '|'), ('యం', 'U'), ('బు', '|'), ('తో', 'U'), ('త', '|'), ('మ', '|'), ('ము', '|'), ('చెం', 'U'), ('త', '|'), ('ని', 'U'), ('ల్చి', '|'), ('ప', '|'), ('రి', '|'), ('తా', 'U'), ('ప', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('వె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>కిలకిల నవ్వు నవ్వి, గిలిగింతలు వింతలు చేసిచేసి, గు-
 బ్బల నెద గ్రుమ్మిక్రుమ్మి, నునుపల్మొనవాతెఱ నొక్కినొక్కి, రా-
@@ -1830,32 +1704,29 @@
 దలఁచిన గుండెలో దిగులు దైవమెఱుంగును సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('కి', '|'), ('ల', '|'), ('కి', '|'), ('ల', '|'), ('న', 'U'), ('వ్వు', '|'), ('న', 'U'), ('వ్వి', '|'), ('గి', '|'), ('లి', '|'), ('గిం', 'U'), ('త', '|'), ('లు', '|'), ('విం', 'U'), ('త', '|'), ('లు', '|'), ('చే', 'U'), ('సి', '|'), ('చే', 'U'), ('సి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('నె', '|'), ('ద', 'U'), ('గ్రు', 'U'), ('మ్మి', 'U'), ('క్రు', 'U'), ('మ్మి', '|'), ('ను', '|'), ('ను', '|'), ('ప', 'U'), ('ల్మొ', '|'), ('న', '|'), ('వా', 'U'), ('తె', '|'), ('ఱ', '|'), ('నొ', 'U'), ('క్కి', '|'), ('నొ', 'U'), ('క్కి', '|'), ('రా', 'U'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('హు', '|'), ('మా', 'U'), ('వ', '|'), ('జీ', 'U'), ('రు', '|'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లు', '|'), ('ల', '|'), ('డా', 'U'), ('యి', '|'), ('బ', '|'), ('డా', 'U'), ('యి', '|'), ('చూ', 'U'), ('పు', '|'), ('నిన్', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('గుం', 'U'), ('డె', '|'), ('లో', 'U'), ('ది', '|'), ('గు', '|'), ('లు', '|'), ('దై', 'U'), ('వ', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>కొదమమిటారిచన్నుఁగవ గొప్పపిఱుందు మెఱుంగుఁజెక్కు లొ-
 ప్పిదమగు కన్ను లబ్బురపుఁ బెన్నెఱు లొప్ప వయఃప్రపూర్ణమై
@@ -1863,32 +1734,29 @@
 వదలఁకయున్న నబ్బు వహవా సహవాసము సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('ద', '|'), ('మ', '|'), ('మి', '|'), ('టా', 'U'), ('రి', '|'), ('చ', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('పి', '|'), ('ఱుం', 'U'), ('దు', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('జె', 'U'), ('క్కు', '|'), ('లొ', 'U'), ('ప్పి', '|'), ('ద', '|'), ('మ', '|'), ('గు', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', 'U'), ('బ్బు', '|'), ('ర', '|'), ('పు', '|'), ('బె', 'U'), ('న్నె', '|'), ('ఱు', '|'), ('లొ', 'U'), ('ప్ప', '|'), ('వ', '|'), ('యః', 'U'), ('ప్ర', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('మై', 'U'), ('మ', '|'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('దం', 'U'), ('తి', '|'), ('లా', 'U'), ('గు', '|'), ('న', '|'), ('ను', '|'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('ద', 'U'), ('క్క', '|'), ('బె', '|'), ('నం', 'U'), ('గు', '|'), ('చుం', 'U'), ('డు', '|'), ('నిన్', 'U'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('న', 'U'), ('బ్బు', '|'), ('వ', '|'), ('హ', '|'), ('వా', 'U'), ('స', '|'), ('హ', '|'), ('వా', 'U'), ('స', '|'), ('ము', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>గడి యెడబాసి చిత్రఫలకంబున నా నునుచూపు వ్రాసి న-
 ల్గడలును జూచి మోహమున కన్నులనద్దుక చన్నుదోయిపై
@@ -1896,32 +1764,29 @@
 ల్వెడవిలుకాఁడు కత్తి ఝళిపించెను కోయను సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('డి', '|'), ('యె', '|'), ('డ', '|'), ('బా', 'U'), ('సి', '|'), ('చి', 'U'), ('త్ర', '|'), ('ఫ', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('నా', 'U'), ('ను', '|'), ('ను', '|'), ('చూ', 'U'), ('పు', 'U'), ('వ్రా', 'U'), ('సి', '|'), ('న', 'U'), ('ల్గ', '|'), ('డ', '|'), ('లు', '|'), ('ను', '|'), ('జూ', 'U'), ('చి', '|'), ('మో', 'U'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('న', 'U'), ('ద్దు', '|'), ('క', '|'), ('చ', 'U'), ('న్ను', '|'), ('దో', 'U'), ('యి', '|'), ('పై', 'U'), ('ని', '|'), ('డి', '|'), ('కొ', '|'), ('ని', '|'), ('జం', 'U'), ('కు', '|'), ('కొం', 'U'), ('కు', '|'), ('నె', '|'), ('డ', '|'), ('నే', 'U'), ('గ', '|'), ('ను', '|'), ('గొం', 'U'), ('దు', '|'), ('పి', '|'), ('ఱుం', 'U'), ('ద', '|'), ('పొం', 'U'), ('చి', '|'), ('బ', 'U'), ('ల్వె', '|'), ('డ', '|'), ('వి', '|'), ('లు', '|'), ('కా', 'U'), ('డు', '|'), ('క', 'U'), ('త్తి', '|'), ('ఝ', '|'), ('ళి', '|'), ('పిం', 'U'), ('చె', '|'), ('ను', '|'), ('కో', 'U'), ('య', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>చనుగవ మున్ను నొక్కుదునొ చక్కని చెక్కిలి ముద్దుగొందునో
 మును నునుమోవి గ్రోలుదునొ? తొల్తఁ గవుంగిట జేర్చుకొందునో
@@ -1929,32 +1794,29 @@
 దనువులు రెండు నొక్కటగఁ దార్కొనఁజేతువె సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('ను', '|'), ('గ', '|'), ('వ', '|'), ('ము', 'U'), ('న్ను', '|'), ('నొ', 'U'), ('క్కు', '|'), ('దు', '|'), ('నొ', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('చె', 'U'), ('క్కి', '|'), ('లి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గొం', 'U'), ('దు', '|'), ('నో', 'U'), ('ము', '|'), ('ను', '|'), ('ను', '|'), ('ను', '|'), ('మో', 'U'), ('వి', 'U'), ('గ్రో', 'U'), ('లు', '|'), ('దు', '|'), ('నొ', '|'), ('తొ', 'U'), ('ల్త', '|'), ('గ', '|'), ('వుం', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్చు', '|'), ('కొం', 'U'), ('దు', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('య', '|'), ('ను', '|'), ('రా', 'U'), ('గ', '|'), ('మొం', 'U'), ('ది', '|'), ('మ', '|'), ('న', '|'), ('సా', 'U'), ('ర', '|'), ('గ', '|'), ('ను', 'U'), ('వ్వి', '|'), ('ళు', '|'), ('లూ', 'U'), ('రు', '|'), ('చుం', 'U'), ('డ', '|'), ('గా', 'U'), ('ద', '|'), ('ను', '|'), ('వు', '|'), ('లు', '|'), ('రెం', 'U'), ('డు', '|'), ('నొ', 'U'), ('క్క', '|'), ('ట', '|'), ('గ', '|'), ('దా', 'U'), ('ర్కొ', '|'), ('న', '|'), ('జే', 'U'), ('తు', '|'), ('వె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>చిత్తము రంజిలంగ నల చిత్తజుపట్టపుదంతివై ???
 వత్తువు వచ్చి చిత్రితమ??? యిబ్బడి నుండెడు నన్ను కేళిలో
@@ -1962,32 +1824,29 @@
 బిత్తువొ, నీ ఋణంబు లిక యెన్నడు దీర్తును సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('రం', 'U'), ('జి', '|'), ('లం', 'U'), ('గ', '|'), ('న', '|'), ('ల', '|'), ('చి', 'U'), ('త్త', '|'), ('జు', '|'), ('ప', 'U'), ('ట్ట', '|'), ('పు', '|'), ('దం', 'U'), ('తి', '|'), ('వై', 'U'), ('వ', 'U'), ('త్తు', '|'), ('వు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('చి', 'U'), ('త్రి', '|'), ('త', '|'), ('మ', '|'), ('యి', 'U'), ('బ్బ', '|'), ('డి', '|'), ('నుం', 'U'), ('డె', '|'), ('డు', '|'), ('న', 'U'), ('న్ను', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('మె', 'U'), ('త్తు', '|'), ('వొ', '|'), ('మె', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('సొ', '|'), ('ల', '|'), ('పు', '|'), ('మేన్', 'U'), ('వె', '|'), ('ద', '|'), ('దీ', 'U'), ('ర', '|'), ('గ', '|'), ('మో', 'U'), ('వి', '|'), ('నా', 'U'), ('న', '|'), ('కన్', 'U'), ('బి', 'U'), ('త్తు', '|'), ('వొ', '|'), ('నీ', 'U'), ('ఋ', '|'), ('ణం', 'U'), ('బు', '|'), ('లి', '|'), ('క', '|'), ('యె', 'U'), ('న్న', '|'), ('డు', '|'), ('దీ', 'U'), ('ర్తు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>మంతనమంచు వచ్చి పలుమారు కపోలము చుంబనంబు గా-
 వింతువె పువ్వుదండ మెడవేసెదనంచు నురంబునందు నా-
@@ -1995,32 +1854,29 @@
 ధింతువె నీ వినోదము నుతింపగ శక్యమే సుందరిమణీ!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('మం', 'U'), ('త', '|'), ('న', '|'), ('మం', 'U'), ('చు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('ప', '|'), ('లు', '|'), ('మా', 'U'), ('రు', '|'), ('క', '|'), ('పో', 'U'), ('ల', '|'), ('ము', '|'), ('చుం', 'U'), ('బ', '|'), ('నం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('తు', '|'), ('వె', '|'), ('పు', 'U'), ('వ్వు', '|'), ('దం', 'U'), ('డ', '|'), ('మె', '|'), ('డ', '|'), ('వే', 'U'), ('సె', '|'), ('ద', '|'), ('నం', 'U'), ('చు', '|'), ('ను', '|'), ('రం', 'U'), ('బు', '|'), ('నం', 'U'), ('దు', '|'), ('నా', 'U'), ('టిం', 'U'), ('తు', '|'), ('వె', '|'), ('చ', 'U'), ('న్మొ', '|'), ('ర', '|'), ('దం', 'U'), ('బు', '|'), ('మో', 'U'), ('వి', '|'), ('సం', 'U'), ('ధిం', 'U'), ('తు', '|'), ('వె', '|'), ('నీ', 'U'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('ము', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('గ', '|'), ('శ', 'U'), ('క్య', '|'), ('మే', 'U'), ('సుం', 'U'), ('ద', '|'), ('రి', '|'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>... ... ... ... వత్తు నలివేణి దయన్ ... ... మ్మటంచు మో-
 హమ్మున కౌఁగలించుకొన నక్కున జేర్చి ... ... .. ... ... ...
@@ -2028,32 +1884,29 @@
 ... ... .. ... ... ... ... ... ... దైన్యము లెంచుదు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('వ', 'U'), ('త్తు', '|'), ('న', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('ద', '|'), ('యన్', 'U'), ('మ్మ', '|'), ('టం', 'U'), ('చు', '|'), ('మో', 'U'), ('హ', 'U'), ('మ్ము', '|'), ('న', '|'), ('కౌ', 'U'), ('గ', '|'), ('లిం', 'U'), ('చు', '|'), ('కొ', '|'), ('న', '|'), ('న', 'U'), ('క్కు', '|'), ('న', '|'), ('జే', 'U'), ('ర్చి', '|'), ('సి', 'U'), ('ల్లు', '|'), ('గ', '|'), ('తి', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('న', 'U'), ('శ్రు', '|'), ('లు', '|'), ('క', 'U'), ('మ్మ', '|'), ('దై', 'U'), ('న్య', '|'), ('ము', '|'), ('లెం', 'U'), ('చు', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>కనకపుబొమ్మ నిన్ను కను కన్నులు కన్నులు, నీదు చాతురీ-
 వినయవచోగతుల్ వినెడు వీనులు వీనులు, నీ తనూలతం
@@ -2061,32 +1914,29 @@
 జన మొనరించకాఁ గలుగు జన్మము జన్మము సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('న', '|'), ('క', '|'), ('పు', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('ని', 'U'), ('న్ను', '|'), ('క', '|'), ('ను', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('నీ', 'U'), ('దు', '|'), ('చా', 'U'), ('తు', '|'), ('రీ', 'U'), ('వి', '|'), ('న', '|'), ('య', '|'), ('వ', '|'), ('చో', 'U'), ('గ', '|'), ('తుల్', 'U'), ('వి', '|'), ('నె', '|'), ('డు', '|'), ('వీ', 'U'), ('ను', '|'), ('లు', '|'), ('వీ', 'U'), ('ను', '|'), ('లు', '|'), ('నీ', 'U'), ('త', '|'), ('నూ', 'U'), ('ల', '|'), ('తం', 'U'), ('బె', '|'), ('న', '|'), ('గె', '|'), ('డు', '|'), ('మే', 'U'), ('ను', '|'), ('మే', 'U'), ('ను', '|'), ('త', '|'), ('మి', '|'), ('ని', 'U'), ('న్నె', '|'), ('పు', '|'), ('డున్', 'U'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('న', '|'), ('రం', 'U'), ('జ', '|'), ('న', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చ', '|'), ('కా', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>కులుకుచుఁ గేళిసౌధమునకున్ వెస నీ వరుదెంచి, నాదు క-
 న్నులు వడిమూయ నే నిను గనుంగొను లాగు మోము గు-
@@ -2094,32 +1944,29 @@
 భళిభళి! యంచు నవ్వుదువు పక్కను పైఁబడి సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('లు', '|'), ('కు', '|'), ('చు', '|'), ('గే', 'U'), ('ళి', '|'), ('సౌ', 'U'), ('ధ', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('వె', '|'), ('స', '|'), ('నీ', 'U'), ('వ', '|'), ('రు', '|'), ('దెం', 'U'), ('చి', '|'), ('నా', 'U'), ('దు', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('వ', '|'), ('డి', '|'), ('మూ', 'U'), ('య', '|'), ('నే', 'U'), ('ని', '|'), ('ను', '|'), ('గ', '|'), ('నుం', 'U'), ('గొ', '|'), ('ను', '|'), ('లా', 'U'), ('గు', '|'), ('మో', 'U'), ('ము', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లు', '|'), ('వ', '|'), ('ళు', '|'), ('లు', 'U'), ('ల్క', '|'), ('వే', 'U'), ('సి', '|'), ('పి', '|'), ('రు', '|'), ('దు', '|'), ('ప', 'U'), ('ల్మ', '|'), ('రు', '|'), ('నం', 'U'), ('టు', '|'), ('చు', '|'), ('నీ', 'U'), ('వె', '|'), ('లా', 'U'), ('గి', '|'), ('నన్', 'U'), ('భ', '|'), ('ళి', '|'), ('భ', '|'), ('ళి', '|'), ('యం', 'U'), ('చు', '|'), ('న', 'U'), ('వ్వు', '|'), ('దు', '|'), ('వు', '|'), ('ప', 'U'), ('క్క', '|'), ('ను', '|'), ('పై', 'U'), ('బ', '|'), ('డి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>మదనుఁడు డాసెఁ బూవిలుతు మర్మములంటఁగ నేసె నక్కటా
 హృదయము దూసె దానిపయి నిందుఁడు వెన్నెలఁ గాసెఁ గోకిలల్
@@ -2127,32 +1974,29 @@
 ర్చెద విధి నిన్ను నన్నెడలఁజేసె దురాత్మత సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ద', '|'), ('ను', '|'), ('డు', '|'), ('డా', 'U'), ('సె', '|'), ('బూ', 'U'), ('వి', '|'), ('లు', '|'), ('తు', '|'), ('మ', '|'), ('ర్మ', '|'), ('ము', '|'), ('లం', 'U'), ('ట', '|'), ('గ', '|'), ('నే', 'U'), ('సె', '|'), ('న', 'U'), ('క్క', '|'), ('టా', 'U'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('ము', '|'), ('దూ', 'U'), ('సె', '|'), ('దా', 'U'), ('ని', '|'), ('ప', '|'), ('యి', '|'), ('నిం', 'U'), ('దు', '|'), ('డు', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('గా', 'U'), ('సె', '|'), ('గో', 'U'), ('కి', '|'), ('లల్', 'U'), ('చె', '|'), ('ద', '|'), ('ర', '|'), ('క', '|'), ('కూ', 'U'), ('సె', '|'), ('జి', 'U'), ('ల్క', '|'), ('రొ', '|'), ('ద', '|'), ('చే', 'U'), ('సె', '|'), ('న', '|'), ('ళుల్', 'U'), ('వ', '|'), ('డి', '|'), ('మ్రో', 'U'), ('సె', '|'), ('నె', 'U'), ('ట్టు', '|'), ('లో', 'U'), ('ర్చె', '|'), ('ద', '|'), ('వి', '|'), ('ధి', '|'), ('ని', 'U'), ('న్ను', '|'), ('న', 'U'), ('న్నె', '|'), ('డ', '|'), ('ల', '|'), ('జే', 'U'), ('సె', '|'), ('దు', '|'), ('రా', 'U'), ('త్మ', '|'), ('త', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>హా తరళాక్షి! హా రమణి! హా చెలి! నీవును నేను మేడలోఁ
 గౌతుకమందు నున్‍హవుసు ఖానపు వారము చింద మల్లికా-
@@ -2160,32 +2004,29 @@
 రాతిరి కంటికిన్ నిదురరాదిక నెట్లొకొ సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('హా', 'U'), ('త', '|'), ('ర', '|'), ('ళా', 'U'), ('క్షి', '|'), ('హా', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('హా', 'U'), ('చె', '|'), ('లి', '|'), ('నీ', 'U'), ('వు', '|'), ('ను', '|'), ('నే', 'U'), ('ను', '|'), ('మే', 'U'), ('డ', '|'), ('లో', 'U'), ('గౌ', 'U'), ('తు', '|'), ('క', '|'), ('మం', 'U'), ('దు', '|'), ('ను', 'U'), ('న్హ', '|'), ('వు', '|'), ('సు', '|'), ('ఖా', 'U'), ('న', '|'), ('పు', '|'), ('వా', 'U'), ('ర', '|'), ('ము', '|'), ('చిం', 'U'), ('ద', '|'), ('మ', 'U'), ('ల్లి', '|'), ('కా', 'U'), ('నూ', 'U'), ('త', '|'), ('న', '|'), ('శ', 'U'), ('య్య', '|'), ('పై', 'U'), ('మ', '|'), ('రు', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('ము', '|'), ('లొం', 'U'), ('దు', '|'), ('మ', '|'), ('జా', 'U'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('తే', 'U'), ('రా', 'U'), ('తి', '|'), ('రి', '|'), ('కం', 'U'), ('టి', '|'), ('కిన్', 'U'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('రా', 'U'), ('ది', '|'), ('క', '|'), ('నె', 'U'), ('ట్లొ', '|'), ('కొ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>ముద్దులగుమ్మ! నీ కులుకు ముద్దుమొగం బిటువంటిదంచు నే-
 నద్దముఁ జూచుకొందు కమలాఖ్యఫలంబులు చేతనుంతు నీ
@@ -2193,32 +2034,29 @@
 చద్దయఁ దీయమామిడిరసం బొకగ్రుక్కెడు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('ము', 'U'), ('ద్దు', '|'), ('ల', '|'), ('గు', 'U'), ('మ్మ', '|'), ('నీ', 'U'), ('కు', '|'), ('లు', '|'), ('కు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మొ', '|'), ('గం', 'U'), ('బి', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('దం', 'U'), ('చు', '|'), ('నే', 'U'), ('న', 'U'), ('ద్ద', '|'), ('ము', '|'), ('జూ', 'U'), ('చు', '|'), ('కొం', 'U'), ('దు', '|'), ('క', '|'), ('మ', '|'), ('లా', 'U'), ('ఖ్య', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('చే', 'U'), ('త', '|'), ('నుం', 'U'), ('తు', '|'), ('నీ', 'U'), ('ని', 'U'), ('ద్ద', '|'), ('పు', '|'), ('జం', 'U'), ('టి', '|'), ('పో', 'U'), ('లి', '|'), ('క', '|'), ('ని', '|'), ('నీ', 'U'), ('య', '|'), ('ధ', '|'), ('రో', 'U'), ('ప', '|'), ('మ', '|'), ('మం', 'U'), ('చు', '|'), ('గొం', 'U'), ('దు', '|'), ('నం', 'U'), ('చ', 'U'), ('ద్ద', '|'), ('య', '|'), ('దీ', 'U'), ('య', '|'), ('మా', 'U'), ('మి', '|'), ('డి', '|'), ('ర', '|'), ('సం', 'U'), ('బొ', '|'), ('క', 'U'), ('గ్రు', 'U'), ('క్కె', '|'), ('డు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>దీపములున్ మతాబులును దివ్వటులున్ కొరవియున్ శశాంకుడున్
 దీపితులై వెలింగినను నీమెయి వెన్నెల నీ యొయారపుం
@@ -2226,32 +2064,29 @@
 క్షేపమునొంది రేపగలు చీకటియౌఁ గదె సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('లున్', 'U'), ('మ', '|'), ('తా', 'U'), ('బు', '|'), ('లు', '|'), ('ను', '|'), ('ది', 'U'), ('వ్వ', '|'), ('టు', '|'), ('లున్', 'U'), ('కొ', '|'), ('ర', '|'), ('వి', '|'), ('యున్', 'U'), ('శ', '|'), ('శాం', 'U'), ('కు', '|'), ('డున్', 'U'), ('దీ', 'U'), ('పి', '|'), ('తు', '|'), ('లై', 'U'), ('వె', '|'), ('లిం', 'U'), ('గి', '|'), ('న', '|'), ('ను', '|'), ('నీ', 'U'), ('మె', '|'), ('యి', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('నీ', 'U'), ('యొ', '|'), ('యా', 'U'), ('ర', '|'), ('పుం', 'U'), ('జూ', 'U'), ('పు', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('ల', '|'), ('సొం', 'U'), ('పు', '|'), ('ను', '|'), ('గ', 'U'), ('న్గొ', '|'), ('న', '|'), ('కు', 'U'), ('న్న', '|'), ('జి', 'U'), ('త్త', '|'), ('వి', 'U'), ('క్షే', 'U'), ('ప', '|'), ('ము', '|'), ('నొం', 'U'), ('ది', '|'), ('రే', 'U'), ('ప', '|'), ('గ', '|'), ('లు', '|'), ('చీ', 'U'), ('క', '|'), ('టి', '|'), ('యౌ', 'U'), ('గ', '|'), ('దె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>మారెడు బంటసోయగము మారెను నీ చనుగుబ్బదోయిపై
 గోరెడు బంటనొక్కి మదిఁ గోరెడు నీ నునుమోవి గ్రోల నో-
@@ -2259,32 +2094,29 @@
 న్నారెడు పూవు మోదినను నారెడు బెట్టెదు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('రె', '|'), ('డు', '|'), ('బం', 'U'), ('ట', '|'), ('సో', 'U'), ('య', '|'), ('గ', '|'), ('ము', '|'), ('మా', 'U'), ('రె', '|'), ('ను', '|'), ('నీ', 'U'), ('చ', '|'), ('ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('దో', 'U'), ('యి', '|'), ('పై', 'U'), ('గో', 'U'), ('రె', '|'), ('డు', '|'), ('బం', 'U'), ('ట', '|'), ('నొ', 'U'), ('క్కి', '|'), ('మ', '|'), ('ది', '|'), ('గో', 'U'), ('రె', '|'), ('డు', '|'), ('నీ', 'U'), ('ను', '|'), ('ను', '|'), ('మో', 'U'), ('వి', 'U'), ('గ్రో', 'U'), ('ల', '|'), ('నో', 'U'), ('రూ', 'U'), ('రె', '|'), ('డు', '|'), ('నే', 'U'), ('మి', '|'), ('సే', 'U'), ('తు', '|'), ('మ', '|'), ('రు', '|'), ('డూ', 'U'), ('ర', '|'), ('ట', '|'), ('జెం', 'U'), ('ద', '|'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('మీ', 'U'), ('ది', '|'), ('మ', 'U'), ('న్నా', 'U'), ('రె', '|'), ('డు', '|'), ('పూ', 'U'), ('వు', '|'), ('మో', 'U'), ('ది', '|'), ('న', '|'), ('ను', '|'), ('నా', 'U'), ('రె', '|'), ('డు', '|'), ('బె', 'U'), ('ట్టె', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>భావము పల్లవింపఁ బువుబానుపుపై వసియించి వేడుకన్
 నీవును నేను ముచ్చటలు నేరుపుమీఱఁగ నాడుకొంచు నెం-
@@ -2292,32 +2124,29 @@
 కేవిధి వచ్చునో తెలియదే మది కిప్పుడు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('భా', 'U'), ('వ', '|'), ('ము', '|'), ('ప', 'U'), ('ల్ల', '|'), ('విం', 'U'), ('ప', '|'), ('బు', '|'), ('వు', '|'), ('బా', 'U'), ('ను', '|'), ('పు', '|'), ('పై', 'U'), ('వ', '|'), ('సి', '|'), ('యిం', 'U'), ('చి', '|'), ('వే', 'U'), ('డు', '|'), ('కన్', 'U'), ('నీ', 'U'), ('వు', '|'), ('ను', '|'), ('నే', 'U'), ('ను', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('లు', '|'), ('నే', 'U'), ('రు', '|'), ('పు', '|'), ('మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('నా', 'U'), ('డు', '|'), ('కొం', 'U'), ('చు', '|'), ('నెం', 'U'), ('తో', 'U'), ('వ', '|'), ('గ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('మిం', 'U'), ('చు', '|'), ('త', '|'), ('మి', '|'), ('తో', 'U'), ('నె', '|'), ('పు', '|'), ('డుం', 'U'), ('టి', '|'), ('మొ', '|'), ('యా', 'U'), ('ది', '|'), ('నం', 'U'), ('బు', '|'), ('లిం', 'U'), ('కే', 'U'), ('వి', '|'), ('ధి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నో', 'U'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('దే', 'U'), ('మ', '|'), ('ది', '|'), ('కి', 'U'), ('ప్పు', '|'), ('డు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>కాంతుని తీవ్రబాణముల కాకకుఁ దాళగలేక నీవె నే-
 నింత తపింప నేపయిన నింపగు కల్పన జేసె బ్రహ్మ క-
@@ -2325,32 +2154,29 @@
 యెంతని యోర్తు ... ... లేదు నేమి యొనర్తును సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('కాం', 'U'), ('తు', '|'), ('ని', '|'), ('తీ', 'U'), ('వ్ర', '|'), ('బా', 'U'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('కా', 'U'), ('క', '|'), ('కు', '|'), ('దా', 'U'), ('ళ', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('నీ', 'U'), ('వె', '|'), ('నే', 'U'), ('నిం', 'U'), ('త', '|'), ('త', '|'), ('పిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ప', '|'), ('యి', '|'), ('న', '|'), ('నిం', 'U'), ('ప', '|'), ('గు', '|'), ('క', 'U'), ('ల్ప', '|'), ('న', '|'), ('జే', 'U'), ('సె', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('క', 'U'), ('ల్పాం', 'U'), ('త', '|'), ('స', '|'), ('హ', 'U'), ('స్ర', '|'), ('క', 'U'), ('ల్ప', '|'), ('న', '|'), ('ము', '|'), ('ల', 'U'), ('య్య', '|'), ('ల', 'U'), ('క్క', '|'), ('ట', 'U'), ('క్క', '|'), ('టా', 'U'), ('యెం', 'U'), ('త', '|'), ('ని', '|'), ('యో', 'U'), ('ర్తు', '|'), ('లే', 'U'), ('దు', '|'), ('నే', 'U'), ('మి', '|'), ('యొ', '|'), ('న', 'U'), ('ర్తు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>ఎన్నఁడు నిన్ను గన్గొనుదు నెన్నఁడు కౌగిటఁ జేర్చుకొందు నిం-
 కెన్నఁడు ముచ్చటాడి సుఖియించెద నెన్నఁడు వేడ్క మించెదన్
@@ -2358,32 +2184,29 @@
 భ్యున్నతలీల నే తనివినొందుట యెన్నడు? సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('న్న', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ను', '|'), ('దు', '|'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్చు', '|'), ('కొం', 'U'), ('దు', '|'), ('నిం', 'U'), ('కె', 'U'), ('న్న', '|'), ('డు', '|'), ('ము', 'U'), ('చ్చ', '|'), ('టా', 'U'), ('డి', '|'), ('సు', '|'), ('ఖి', '|'), ('యిం', 'U'), ('చె', '|'), ('ద', '|'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('వే', 'U'), ('డ్క', '|'), ('మిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('క్రొ', 'U'), ('న్న', '|'), ('ల', '|'), ('రా', 'U'), ('రు', '|'), ('మే', 'U'), ('క', '|'), ('ప', '|'), ('యి', 'U'), ('క్రొ', 'U'), ('న్న', '|'), ('న', '|'), ('వి', 'U'), ('ల్తు', '|'), ('ని', '|'), ('కే', 'U'), ('ళి', '|'), ('దే', 'U'), ('ల', '|'), ('య', 'U'), ('భ్యు', 'U'), ('న్న', '|'), ('త', '|'), ('లీ', 'U'), ('ల', '|'), ('నే', 'U'), ('త', '|'), ('ని', '|'), ('వి', '|'), ('నొం', 'U'), ('దు', '|'), ('ట', '|'), ('యె', 'U'), ('న్న', '|'), ('డు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>నీ కటిపెంపుచేత ధరణీతలమున్ వశమయ్యె కోమలీ
 నీ కుచకుంభయుగ్మమున నిర్జితమయ్యె సురాలయం బహో
@@ -2391,32 +2214,29 @@
 ల్లోకము లేలినట్లు మదిలో ముదమందుదు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('క', '|'), ('టి', '|'), ('పెం', 'U'), ('పు', '|'), ('చే', 'U'), ('త', '|'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('త', '|'), ('ల', '|'), ('మున్', 'U'), ('వ', '|'), ('శ', '|'), ('మ', 'U'), ('య్యె', '|'), ('కో', 'U'), ('మ', '|'), ('లీ', 'U'), ('నీ', 'U'), ('కు', '|'), ('చ', '|'), ('కుం', 'U'), ('భ', '|'), ('యు', 'U'), ('గ్మ', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('ర్జి', '|'), ('త', '|'), ('మ', 'U'), ('య్యె', '|'), ('సు', '|'), ('రా', 'U'), ('ల', '|'), ('యం', 'U'), ('బ', '|'), ('హో', 'U'), ('చే', 'U'), ('కొ', '|'), ('న', '|'), ('గ', 'U'), ('ల్గె', '|'), ('నీ', 'U'), ('దు', '|'), ('జ', '|'), ('డ', '|'), ('చే', 'U'), ('న', '|'), ('హి', '|'), ('ధా', 'U'), ('మ', '|'), ('ము', '|'), ('ని', 'U'), ('న్ను', '|'), ('గూ', 'U'), ('డి', '|'), ('ము', 'U'), ('ల్లో', 'U'), ('క', '|'), ('ము', '|'), ('లే', 'U'), ('లి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('దు', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>ఓ తరళాక్షి! మంచుతరలూఁతగఁ బొక్కిలి కందుకంబు నెం-
 తో తమి నంతరించి చెలువొందెడు నీ వలిగబ్బిగుబ్బ చ-
@@ -2424,32 +2244,29 @@
 చేతనె పుచ్చుకొందు కద, చిత్తజు ప్రాపున సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('ఓ', 'U'), ('త', '|'), ('ర', '|'), ('ళా', 'U'), ('క్షి', '|'), ('మం', 'U'), ('చు', '|'), ('త', '|'), ('ర', '|'), ('లూ', 'U'), ('త', '|'), ('గ', '|'), ('బొ', 'U'), ('క్కి', '|'), ('లి', '|'), ('కం', 'U'), ('దు', '|'), ('కం', 'U'), ('బు', '|'), ('నెం', 'U'), ('తో', 'U'), ('త', '|'), ('మి', '|'), ('నం', 'U'), ('త', '|'), ('రిం', 'U'), ('చి', '|'), ('చె', '|'), ('లు', '|'), ('వొం', 'U'), ('దె', '|'), ('డు', '|'), ('నీ', 'U'), ('వ', '|'), ('లి', '|'), ('గ', 'U'), ('బ్బి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('చ', 'U'), ('క్రా', 'U'), ('తి', '|'), ('న', '|'), ('ఖా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('న', '|'), ('రా', 'U'), ('యి', '|'), ('డి', '|'), ('చే', 'U'), ('సి', '|'), ('చె', '|'), ('లం', 'U'), ('గి', '|'), ('డా', 'U'), ('సి', '|'), ('చే', 'U'), ('చే', 'U'), ('త', '|'), ('నె', '|'), ('పు', 'U'), ('చ్చు', '|'), ('కొం', 'U'), ('దు', '|'), ('క', '|'), ('ద', '|'), ('చి', 'U'), ('త్త', '|'), ('జు', 'U'), ('ప్రా', 'U'), ('పు', '|'), ('న', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>అంగన నన్నుఁ గూడి చతురంగములాడఁగ నోరఁజూపు క-
 న్నుంగవ నీటుపొంగెడు చనుంగవ నీటుమెఱుంగు చక్కటిన్
@@ -2457,32 +2274,29 @@
 న్నంగజుఁ డీరుబారుగ సుమాసిని వ్రేసెడు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('గ', '|'), ('న', '|'), ('న', 'U'), ('న్ను', '|'), ('గూ', 'U'), ('డి', '|'), ('చ', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('లా', 'U'), ('డ', '|'), ('గ', '|'), ('నో', 'U'), ('ర', '|'), ('జూ', 'U'), ('పు', '|'), ('క', 'U'), ('న్నుం', 'U'), ('గ', '|'), ('వ', '|'), ('నీ', 'U'), ('టు', '|'), ('పొం', 'U'), ('గె', '|'), ('డు', '|'), ('చ', '|'), ('నుం', 'U'), ('గ', '|'), ('వ', '|'), ('నీ', 'U'), ('టు', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('చ', 'U'), ('క్క', '|'), ('టిన్', 'U'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('నుం', 'U'), ('చు', '|'), ('హ', 'U'), ('స్త', '|'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('త', '|'), ('ము', '|'), ('నీ', 'U'), ('ట', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('కొ', 'U'), ('న్న', '|'), ('న', 'U'), ('న్నం', 'U'), ('గ', '|'), ('జు', '|'), ('డీ', 'U'), ('రు', '|'), ('బా', 'U'), ('రు', '|'), ('గ', '|'), ('సు', '|'), ('మా', 'U'), ('సి', '|'), ('ని', 'U'), ('వ్రే', 'U'), ('సె', '|'), ('డు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>పంతము మీఱ నీదు చనుబంతుల ప్రాపున లెక్కసేయఁ గొం-
 డంతటి కార్యమైన భవదంచితసాంద్రకటాక్షయుక్తి కే
@@ -2490,32 +2304,29 @@
 న్నంతనె యింద్రుఁడైన గణనా యనుకొందును సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('పం', 'U'), ('త', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('నీ', 'U'), ('దు', '|'), ('చ', '|'), ('ను', '|'), ('బం', 'U'), ('తు', '|'), ('ల', 'U'), ('ప్రా', 'U'), ('పు', '|'), ('న', '|'), ('లె', 'U'), ('క్క', '|'), ('సే', 'U'), ('య', '|'), ('గొం', 'U'), ('డం', 'U'), ('త', '|'), ('టి', '|'), ('కా', 'U'), ('ర్య', '|'), ('మై', 'U'), ('న', '|'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('చి', '|'), ('త', '|'), ('సాం', 'U'), ('ద్ర', '|'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('యు', 'U'), ('క్తి', '|'), ('కే', 'U'), ('కం', 'U'), ('తు', '|'), ('ని', '|'), ('బా', 'U'), ('ణ', '|'), ('పం', 'U'), ('క్తి', '|'), ('న', '|'), ('ట', '|'), ('క', 'U'), ('ట్ల', '|'), ('ను', '|'), ('గ', 'U'), ('ట్టు', '|'), ('దు', '|'), ('నీ', 'U'), ('దు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('వి', 'U'), ('న్నం', 'U'), ('త', '|'), ('నె', '|'), ('యిం', 'U'), ('ద్రు', '|'), ('డై', 'U'), ('న', '|'), ('గ', '|'), ('ణ', '|'), ('నా', 'U'), ('య', '|'), ('ను', '|'), ('కొం', 'U'), ('దు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>వెలదిరొ! కొంతసిగ్గు విడివీడని కాలమునందుఁ గేళి నే
 చెలఁగుచుఁ బూరుషాయితము చేయుమటన్న నెఱుంగనంచు లోఁ
@@ -2523,32 +2334,29 @@
 క్కిలి గిలిగింతగొల్పి యుబికించుట యెంతును సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ల', '|'), ('ది', '|'), ('రొ', '|'), ('కొం', 'U'), ('త', '|'), ('సి', 'U'), ('గ్గు', '|'), ('వి', '|'), ('డి', '|'), ('వీ', 'U'), ('డ', '|'), ('ని', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('గే', 'U'), ('ళి', '|'), ('నే', 'U'), ('చె', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('బూ', 'U'), ('రు', '|'), ('షా', 'U'), ('యి', '|'), ('త', '|'), ('ము', '|'), ('చే', 'U'), ('యు', '|'), ('మ', '|'), ('ట', 'U'), ('న్న', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('నం', 'U'), ('చు', '|'), ('లో', 'U'), ('గు', '|'), ('లు', '|'), ('కు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('బా', 'U'), ('హు', '|'), ('వు', '|'), ('లు', '|'), ('గొ', 'U'), ('బ్బు', '|'), ('న', '|'), ('జే', 'U'), ('కొ', '|'), ('ని', '|'), ('పై', 'U'), ('కి', '|'), ('లా', 'U'), ('గి', '|'), ('చె', 'U'), ('క్కి', '|'), ('లి', '|'), ('గి', '|'), ('లి', '|'), ('గిం', 'U'), ('త', '|'), ('గొ', 'U'), ('ల్పి', '|'), ('యు', '|'), ('బి', '|'), ('కిం', 'U'), ('చు', '|'), ('ట', '|'), ('యెం', 'U'), ('తు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>చెలఁగుచు జాఫరారసపుఁ జిమ్మనగ్రోవులఁ జిమ్ములాట డా-
 ల్కలరతనాలమేడగదులం గడు దాఁగుడుమూతలాట వే-
@@ -2556,32 +2364,29 @@
 నలరెడు నన్ని చోద్యములు నాడుదుమో తమి సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('జా', 'U'), ('ఫ', '|'), ('రా', 'U'), ('ర', '|'), ('స', '|'), ('పు', '|'), ('జి', 'U'), ('మ్మ', '|'), ('న', 'U'), ('గ్రో', 'U'), ('వు', '|'), ('ల', '|'), ('జి', 'U'), ('మ్ము', '|'), ('లా', 'U'), ('ట', '|'), ('డా', 'U'), ('ల్క', '|'), ('ల', '|'), ('ర', '|'), ('త', '|'), ('నా', 'U'), ('ల', '|'), ('మే', 'U'), ('డ', '|'), ('గ', '|'), ('దు', '|'), ('లం', 'U'), ('గ', '|'), ('డు', '|'), ('దా', 'U'), ('గు', '|'), ('డు', '|'), ('మూ', 'U'), ('త', '|'), ('లా', 'U'), ('ట', '|'), ('వే', 'U'), ('డ్క', '|'), ('ల', '|'), ('ద', '|'), ('గు', '|'), ('గం', 'U'), ('జి', '|'), ('ఫా', 'U'), ('ట', '|'), ('సొ', '|'), ('గ', '|'), ('టాల్', 'U'), ('చ', '|'), ('ద', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('లా', 'U'), ('ట', '|'), ('ము', 'U'), ('న్ను', '|'), ('గా', 'U'), ('న', '|'), ('ల', '|'), ('రె', '|'), ('డు', '|'), ('న', 'U'), ('న్ని', '|'), ('చో', 'U'), ('ద్య', '|'), ('ము', '|'), ('లు', '|'), ('నా', 'U'), ('డు', '|'), ('దు', '|'), ('మో', 'U'), ('త', '|'), ('మి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>కపురపుఁ దావి గుబ్బలను గల్పగుళుచ్ఛములిచ్చి, మాటలో
 నపరిమితామృతం బొసఁగి యబ్బురపున్ సురతాప్తి గూర్చి సౌ-
@@ -2589,32 +2394,29 @@
 ల్లపుడును జూడకుండ నహహా! విధి చేసెను సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('పు', '|'), ('ర', '|'), ('పు', '|'), ('దా', 'U'), ('వి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('ను', '|'), ('గ', 'U'), ('ల్ప', '|'), ('గు', '|'), ('ళు', 'U'), ('చ్ఛ', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చి', '|'), ('మా', 'U'), ('ట', '|'), ('లో', 'U'), ('న', '|'), ('ప', '|'), ('రి', '|'), ('మి', '|'), ('తా', 'U'), ('మృ', '|'), ('తం', 'U'), ('బొ', '|'), ('స', '|'), ('గి', '|'), ('య', 'U'), ('బ్బు', '|'), ('ర', '|'), ('పున్', 'U'), ('సు', '|'), ('ర', '|'), ('తా', 'U'), ('ప్తి', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('పు', '|'), ('ర', '|'), ('తి', '|'), ('సొం', 'U'), ('పు', '|'), ('గొ', 'U'), ('ల్పు', '|'), ('ని', '|'), ('ను', '|'), ('న', 'U'), ('క్క', '|'), ('డ', '|'), ('నే', 'U'), ('క', '|'), ('ను', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('వే', 'U'), ('య', '|'), ('కె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('ను', '|'), ('జూ', 'U'), ('డ', '|'), ('కుం', 'U'), ('డ', '|'), ('న', '|'), ('హ', '|'), ('హా', 'U'), ('వి', '|'), ('ధి', '|'), ('చే', 'U'), ('సె', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>చిలుకకు నాదు పేర విలసిల్లెడు పద్యము చెప్పుచుండ నా
 యలుకుడుగాగ నూరకె విహారము చేసెడు రీతినుండఁగా
@@ -2622,32 +2424,29 @@
 మ్మలముడి యొప్పు శేషరతి మారధనుర్గతి సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('లు', '|'), ('క', '|'), ('కు', '|'), ('నా', 'U'), ('దు', '|'), ('పే', 'U'), ('ర', '|'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లె', '|'), ('డు', '|'), ('ప', 'U'), ('ద్య', '|'), ('ము', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చుం', 'U'), ('డ', '|'), ('నా', 'U'), ('య', '|'), ('లు', '|'), ('కు', '|'), ('డు', '|'), ('గా', 'U'), ('గ', '|'), ('నూ', 'U'), ('ర', '|'), ('కె', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('చే', 'U'), ('సె', '|'), ('డు', '|'), ('రీ', 'U'), ('తి', '|'), ('నుం', 'U'), ('డ', '|'), ('గా', 'U'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('లు', '|'), ('సై', 'U'), ('గ', '|'), ('లున్', 'U'), ('బ', '|'), ('రి', '|'), ('హ', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('కో', 'U'), ('ప', '|'), ('పు', '|'), ('జూ', 'U'), ('పు', '|'), ('చే', 'U'), ('త', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('ల', '|'), ('ము', '|'), ('డి', '|'), ('యొ', 'U'), ('ప్పు', '|'), ('శే', 'U'), ('ష', '|'), ('ర', '|'), ('తి', '|'), ('మా', 'U'), ('ర', '|'), ('ధ', '|'), ('ను', 'U'), ('ర్గ', '|'), ('తి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>నీ జగజంపుఁ జూపులును నీ చనుగుబ్బలు నీ మహోరు లెం-
 తో జత మీఱ నన్నును నెదుర్కొనునో యన గప్పురంపు నీ-
@@ -2655,32 +2454,29 @@
 రాజిలు ద్వారమార్గమున రాఁ గనుటెన్నడు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('జ', '|'), ('గ', '|'), ('జం', 'U'), ('పు', '|'), ('జూ', 'U'), ('పు', '|'), ('లు', '|'), ('ను', '|'), ('నీ', 'U'), ('చ', '|'), ('ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లు', '|'), ('నీ', 'U'), ('మ', '|'), ('హో', 'U'), ('రు', '|'), ('లెం', 'U'), ('తో', 'U'), ('జ', '|'), ('త', '|'), ('మీ', 'U'), ('ఱ', '|'), ('న', 'U'), ('న్ను', '|'), ('ను', '|'), ('నె', '|'), ('దు', 'U'), ('ర్కొ', '|'), ('ను', '|'), ('నో', 'U'), ('య', '|'), ('న', '|'), ('గ', 'U'), ('ప్పు', '|'), ('రం', 'U'), ('పు', '|'), ('నీ', 'U'), ('రా', 'U'), ('జ', '|'), ('న', '|'), ('దీ', 'U'), ('పి', '|'), ('క', 'U'), ('ల్క', '|'), ('న', '|'), ('క', '|'), ('రా', 'U'), ('జ', '|'), ('త', '|'), ('కుం', 'U'), ('భ', '|'), ('ము', '|'), ('లం', 'U'), ('టి', '|'), ('బో', 'U'), ('ది', '|'), ('యల్', 'U'), ('రా', 'U'), ('జి', '|'), ('లు', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('న', '|'), ('రా', 'U'), ('గ', '|'), ('ను', '|'), ('టె', 'U'), ('న్న', '|'), ('డు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>హారములల్లనన్ గుచములందుఁ జరింపగ వచ్చునట్టి యొ-
 య్యారము నోరచూపుల యొయారము నవ్వుచుఁ జెంతనిల్చు నొ-
@@ -2688,32 +2484,29 @@
 య్యారము నాదు మానసమునం దెడబాయవు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('హా', 'U'), ('ర', '|'), ('ము', '|'), ('ల', 'U'), ('ల్ల', '|'), ('నన్', 'U'), ('గు', '|'), ('చ', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('జ', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('యొ', 'U'), ('య్యా', 'U'), ('ర', '|'), ('ము', '|'), ('నో', 'U'), ('ర', '|'), ('చూ', 'U'), ('పు', '|'), ('ల', '|'), ('యొ', '|'), ('యా', 'U'), ('ర', '|'), ('ము', '|'), ('న', 'U'), ('వ్వు', '|'), ('చు', '|'), ('జెం', 'U'), ('త', '|'), ('ని', 'U'), ('ల్చు', '|'), ('నొ', 'U'), ('య్యా', 'U'), ('ర', '|'), ('ము', '|'), ('శ', 'U'), ('య్య', '|'), ('చెం', 'U'), ('దె', '|'), ('డు', '|'), ('నొ', '|'), ('యా', 'U'), ('ర', '|'), ('ము', '|'), ('కే', 'U'), ('ళి', '|'), ('కి', '|'), ('దా', 'U'), ('ర్ప', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నొ', 'U'), ('య్యా', 'U'), ('ర', '|'), ('ము', '|'), ('నా', 'U'), ('దు', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('ము', '|'), ('నం', 'U'), ('దె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('వు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>కాంచనగంధి రాచిలుకకైవడి నీ వల దొండపండు మె-
 ప్పించెడు వేళ నిన్ను మరపింపఁగ నే నల చిల్కచేతఁ ది-
@@ -2721,32 +2514,29 @@
 డంచును మోవినొక్కి పరిహాసమొనర్తును సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('కాం', 'U'), ('చ', '|'), ('న', '|'), ('గం', 'U'), ('ధి', '|'), ('రా', 'U'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('నీ', 'U'), ('వ', '|'), ('ల', '|'), ('దొం', 'U'), ('డ', '|'), ('పం', 'U'), ('డు', '|'), ('మె', 'U'), ('ప్పిం', 'U'), ('చె', '|'), ('డు', '|'), ('వే', 'U'), ('ళ', '|'), ('ని', 'U'), ('న్ను', '|'), ('మ', '|'), ('ర', '|'), ('పిం', 'U'), ('ప', '|'), ('గ', '|'), ('నే', 'U'), ('న', '|'), ('ల', '|'), ('చి', 'U'), ('ల్క', '|'), ('చే', 'U'), ('త', '|'), ('ది', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('న', '|'), ('దా', 'U'), ('ని', '|'), ('పై', 'U'), ('బ్ర', '|'), ('తి', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చి', '|'), ('తొ', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('జే', 'U'), ('య', '|'), ('దొం', 'U'), ('డ', '|'), ('పం', 'U'), ('డం', 'U'), ('చు', '|'), ('ను', '|'), ('మో', 'U'), ('వి', '|'), ('నొ', 'U'), ('క్కి', '|'), ('ప', '|'), ('రి', '|'), ('హా', 'U'), ('స', '|'), ('మొ', '|'), ('న', 'U'), ('ర్తు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>మాటలు తేనెజాలు చనుమట్టులు బంగరుబొంగరాలు కన్
 తేటలు గండుమీలు నును నెమ్మెయి మించుల నేలు వాహవా
@@ -2754,32 +2544,29 @@
 పూటకుఁ గోటివేలు పడిపోవుచునున్నవి సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('ట', '|'), ('లు', '|'), ('తే', 'U'), ('నె', '|'), ('జా', 'U'), ('లు', '|'), ('చ', '|'), ('ను', '|'), ('మ', 'U'), ('ట్టు', '|'), ('లు', '|'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('బొం', 'U'), ('గ', '|'), ('రా', 'U'), ('లు', '|'), ('కన్', 'U'), ('తే', 'U'), ('ట', '|'), ('లు', '|'), ('గం', 'U'), ('డు', '|'), ('మీ', 'U'), ('లు', '|'), ('ను', '|'), ('ను', '|'), ('నె', 'U'), ('మ్మె', '|'), ('యి', '|'), ('మిం', 'U'), ('చు', '|'), ('ల', '|'), ('నే', 'U'), ('లు', '|'), ('వా', 'U'), ('హ', '|'), ('వా', 'U'), ('కూ', 'U'), ('ట', '|'), ('మి', '|'), ('నే', 'U'), ('లు', '|'), ('మే', 'U'), ('లు', '|'), ('గ', '|'), ('ల', '|'), ('కో', 'U'), ('పు', '|'), ('ల', '|'), ('లీ', 'U'), ('ల', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('కొ', 'U'), ('న్న', '|'), ('హా', 'U'), ('పూ', 'U'), ('ట', '|'), ('కు', '|'), ('గో', 'U'), ('టి', '|'), ('వే', 'U'), ('లు', '|'), ('ప', '|'), ('డి', '|'), ('పో', 'U'), ('వు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('వి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>హారములొత్తునంచుఁ బరిహార మొనర్చి కవుంగిలించి వ్యా-
 హారముదంబునన్ రతివిహారము సల్పి మనోజబాధ సం-
@@ -2787,32 +2574,29 @@
 హారము గాంతునే నను మహారముఁడందురె సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('హా', 'U'), ('ర', '|'), ('ము', '|'), ('లొ', 'U'), ('త్తు', '|'), ('నం', 'U'), ('చు', '|'), ('బ', '|'), ('రి', '|'), ('హా', 'U'), ('ర', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('క', '|'), ('వుం', 'U'), ('గి', '|'), ('లిం', 'U'), ('చి', 'U'), ('వ్యా', 'U'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('దం', 'U'), ('బు', '|'), ('నన్', 'U'), ('ర', '|'), ('తి', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('స', 'U'), ('ల్పి', '|'), ('మ', '|'), ('నో', 'U'), ('జ', '|'), ('బా', 'U'), ('ధ', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('నా', 'U'), ('దు', 'U'), ('వ్య', '|'), ('వ', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('ని', 'U'), ('ల్వ', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('ని', '|'), ('ద్ర', 'U'), ('వ్యా', 'U'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('గాం', 'U'), ('తు', '|'), ('నే', 'U'), ('న', '|'), ('ను', '|'), ('మ', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('డం', 'U'), ('దు', '|'), ('రె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>బోటిరొ వానచే వెడలిపోవఁగలే కొకనాఁడటుండి యే-
 ర్పాటుగ నిద్రవోవ నెఱపయ్యెద దీపము త్రెంచి వచ్చి, స-
@@ -2820,32 +2604,29 @@
 గూటమి నేలుటల్ దలచుకొందువొ లేదొకొ సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('బో', 'U'), ('టి', '|'), ('రొ', '|'), ('వా', 'U'), ('న', '|'), ('చే', 'U'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('పో', 'U'), ('వ', '|'), ('గ', '|'), ('లే', 'U'), ('కొ', '|'), ('క', '|'), ('నా', 'U'), ('డ', '|'), ('టుం', 'U'), ('డి', '|'), ('యే', 'U'), ('ర్పా', 'U'), ('టు', '|'), ('గ', '|'), ('ని', '|'), ('ద్ర', '|'), ('వో', 'U'), ('వ', '|'), ('నె', '|'), ('ఱ', '|'), ('ప', 'U'), ('య్యె', '|'), ('ద', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', 'U'), ('త్రెం', 'U'), ('చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('స', 'U'), ('య్యా', 'U'), ('ట', '|'), ('లు', '|'), ('మా', 'U'), ('ట', '|'), ('లున్', 'U'), ('బె', '|'), ('న', '|'), ('కు', '|'), ('లా', 'U'), ('ట', '|'), ('లు', '|'), ('సీ', 'U'), ('త్కృ', '|'), ('తు', '|'), ('లే', 'U'), ('మి', '|'), ('లే', 'U'), ('క', '|'), ('నన్', 'U'), ('గూ', 'U'), ('ట', '|'), ('మి', '|'), ('నే', 'U'), ('లు', '|'), ('టల్', 'U'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('కొం', 'U'), ('దు', '|'), ('వొ', '|'), ('లే', 'U'), ('దొ', '|'), ('కొ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>అనుపమమైన వేళ సకలాభరణంబులు దాల్చి బేజుమా-
 లొనరిచి మానికంపుటొరను౦చిన మారుకటారివంటి నిన్
@@ -2853,32 +2634,29 @@
 యని యిక నెన్నఁడేను మనసారఁగ జూచెద సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ను', '|'), ('ప', '|'), ('మ', '|'), ('మై', 'U'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('స', '|'), ('క', '|'), ('లా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('లు', '|'), ('దా', 'U'), ('ల్చి', '|'), ('బే', 'U'), ('జు', '|'), ('మా', 'U'), ('లొ', '|'), ('న', '|'), ('రి', '|'), ('చి', '|'), ('మా', 'U'), ('ని', '|'), ('కం', 'U'), ('పు', '|'), ('టొ', '|'), ('ర', '|'), ('ను', '|'), ('చి', '|'), ('న', '|'), ('మా', 'U'), ('రు', '|'), ('క', '|'), ('టా', 'U'), ('రి', '|'), ('వం', 'U'), ('టి', '|'), ('నిన్', 'U'), ('గ', '|'), ('ను', '|'), ('గ', '|'), ('వ', '|'), ('నిం', 'U'), ('డ', '|'), ('నే', 'U'), ('ను', '|'), ('గ', '|'), ('న', '|'), ('గా', 'U'), ('వె', '|'), ('ఱ', '|'), ('తుం', 'U'), ('గ', '|'), ('దె', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('తా', 'U'), ('కు', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('యి', '|'), ('క', '|'), ('నె', 'U'), ('న్న', '|'), ('డే', 'U'), ('ను', '|'), ('మ', '|'), ('న', '|'), ('సా', 'U'), ('ర', '|'), ('గ', '|'), ('జూ', 'U'), ('చె', '|'), ('ద', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>వేడిమి మాను చంద్ర! నిను వేఁడెదఁ జల్లనిరాజ వీవు నీ
 వాడను నే నటంచు బహువారము దూరిన నీ మొగంబునున్
@@ -2886,32 +2664,29 @@
 వీడదె రాహువం చడలి వెల్వడు దెన్నఁడు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('డి', '|'), ('మి', '|'), ('మా', 'U'), ('ను', '|'), ('చం', 'U'), ('ద్ర', '|'), ('ని', '|'), ('ను', '|'), ('వే', 'U'), ('డె', '|'), ('ద', '|'), ('జ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('రా', 'U'), ('జ', '|'), ('వీ', 'U'), ('వు', '|'), ('నీ', 'U'), ('వా', 'U'), ('డ', '|'), ('ను', '|'), ('నే', 'U'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('బ', '|'), ('హు', '|'), ('వా', 'U'), ('ర', '|'), ('ము', '|'), ('దూ', 'U'), ('రి', '|'), ('న', '|'), ('నీ', 'U'), ('మొ', '|'), ('గం', 'U'), ('బు', '|'), ('నున్', 'U'), ('జూ', 'U'), ('డ', '|'), ('క', '|'), ('యే', 'U'), ('చు', '|'), ('చుం', 'U'), ('డె', '|'), ('జ', '|'), ('డ', '|'), ('చొ', 'U'), ('ప్ప', '|'), ('డ', '|'), ('న', 'U'), ('ల్లు', '|'), ('ము', '|'), ('నీ', 'U'), ('దు', '|'), ('కొ', 'U'), ('ప్పు', '|'), ('చే', 'U'), ('వీ', 'U'), ('డ', '|'), ('దె', '|'), ('రా', 'U'), ('హు', '|'), ('వం', 'U'), ('చ', '|'), ('డ', '|'), ('లి', '|'), ('వె', 'U'), ('ల్వ', '|'), ('డు', '|'), ('దె', 'U'), ('న్న', '|'), ('డు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>తమ్ముల నెమ్మొగమ్ము నును దళ్కుఁ జనుంగవచే నశోకగు-
 చ్ఛమ్ముల మావిలేఁజిగురుఁ జక్కనివాతెఱ చేత మల్లెలున్
@@ -2919,32 +2694,29 @@
 త్తమ్ము లెటుండివచ్చె మరుఁ డాచక వ్రేసెడు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('మ్ము', '|'), ('ల', '|'), ('నె', 'U'), ('మ్మొ', '|'), ('గ', 'U'), ('మ్ము', '|'), ('ను', '|'), ('ను', '|'), ('ద', 'U'), ('ళ్కు', '|'), ('జ', '|'), ('నుం', 'U'), ('గ', '|'), ('వ', '|'), ('చే', 'U'), ('న', '|'), ('శో', 'U'), ('క', '|'), ('గు', 'U'), ('చ్ఛ', 'U'), ('మ్ము', '|'), ('ల', '|'), ('మా', 'U'), ('వి', '|'), ('లే', 'U'), ('జి', '|'), ('గు', '|'), ('రు', '|'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('వా', 'U'), ('తె', '|'), ('ఱ', '|'), ('చే', 'U'), ('త', '|'), ('మ', 'U'), ('ల్లె', '|'), ('లున్', 'U'), ('నె', 'U'), ('మ్మె', '|'), ('యి', '|'), ('తా', 'U'), ('వి', '|'), ('గ', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('నీ', 'U'), ('టు', '|'), ('న', '|'), ('గ', 'U'), ('ల్వ', '|'), ('ల', '|'), ('గె', 'U'), ('ల్చి', '|'), ('నా', 'U'), ('వు', 'U'), ('క్రొ', 'U'), ('త్త', 'U'), ('మ్ము', '|'), ('లె', '|'), ('టుం', 'U'), ('డి', '|'), ('వ', 'U'), ('చ్చె', '|'), ('మ', '|'), ('రు', '|'), ('డా', 'U'), ('చ', '|'), ('క', 'U'), ('వ్రే', 'U'), ('సె', '|'), ('డు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>నునుమునిపంటఁ గ్రొంబెదవి నొక్కి యనంగునికేళి నీదు మై
 పెనఁగొని నొక్కి క్రిక్కిరిసి పెక్కువ నెక్కువ పిక్కటిల్లఁ జ-
@@ -2952,32 +2724,29 @@
 త్తిన ఫలమబ్బె నేమయిన దిట్టము మాకిక సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('ను', '|'), ('ను', '|'), ('ము', '|'), ('ని', '|'), ('పం', 'U'), ('ట', 'U'), ('గ్రొం', 'U'), ('బె', '|'), ('ద', '|'), ('వి', '|'), ('నొ', 'U'), ('క్కి', '|'), ('య', '|'), ('నం', 'U'), ('గు', '|'), ('ని', '|'), ('కే', 'U'), ('ళి', '|'), ('నీ', 'U'), ('దు', '|'), ('మై', 'U'), ('పె', '|'), ('న', '|'), ('గొ', '|'), ('ని', '|'), ('నొ', 'U'), ('క్కి', 'U'), ('క్రి', 'U'), ('క్కి', '|'), ('రి', '|'), ('సి', '|'), ('పె', 'U'), ('క్కు', '|'), ('వ', '|'), ('నె', 'U'), ('క్కు', '|'), ('వ', '|'), ('పి', 'U'), ('క్క', '|'), ('టి', 'U'), ('ల్ల', '|'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('చ', '|'), ('ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లం', 'U'), ('టి', '|'), ('బి', '|'), ('గి', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జి', 'U'), ('క్కి', '|'), ('న', '|'), ('నా', 'U'), ('డె', '|'), ('జ', 'U'), ('న్మ', '|'), ('మె', 'U'), ('త్తి', '|'), ('న', '|'), ('ఫ', '|'), ('ల', '|'), ('మ', 'U'), ('బ్బె', '|'), ('నే', 'U'), ('మ', '|'), ('యి', '|'), ('న', '|'), ('ది', 'U'), ('ట్ట', '|'), ('ము', '|'), ('మా', 'U'), ('కి', '|'), ('క', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>కమలదళాక్షి నీవొకప్రకారముగాఁ బొలయల్కచే ముఖా-
 బ్జము వెడసేయ నే నెనరుపల్కులు పల్కి, పయంట లాగి హ-
@@ -2985,32 +2754,29 @@
 ధ్యమమున నాదు చే యిఱికెనన్న హసింతువు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('మ', '|'), ('ల', '|'), ('ద', '|'), ('ళా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('వొ', '|'), ('క', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('బొ', '|'), ('ల', '|'), ('య', 'U'), ('ల్క', '|'), ('చే', 'U'), ('ము', '|'), ('ఖా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('వె', '|'), ('డ', '|'), ('సే', 'U'), ('య', '|'), ('నే', 'U'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('లు', '|'), ('ప', 'U'), ('ల్కి', '|'), ('ప', '|'), ('యం', 'U'), ('ట', '|'), ('లా', 'U'), ('గి', '|'), ('హ', 'U'), ('స్త', '|'), ('ము', '|'), ('గ', '|'), ('ది', '|'), ('యిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్వ', '|'), ('డి', '|'), ('వి', '|'), ('ద', 'U'), ('ల్చి', '|'), ('స', '|'), ('సీ', 'U'), ('త్కృ', '|'), ('తి', '|'), ('తో', 'U'), ('ను', '|'), ('రో', 'U'), ('జ', '|'), ('మ', 'U'), ('ధ్య', '|'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('నా', 'U'), ('దు', '|'), ('చే', 'U'), ('యి', '|'), ('ఱి', '|'), ('కె', '|'), ('న', 'U'), ('న్న', '|'), ('హ', '|'), ('సిం', 'U'), ('తు', '|'), ('వు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>నను నల నవ్వుటాలకయినన్ బొలయల్కల జేసియైననున్
 నను గలలోననై నను క్షణం బెడబాయకజాలవంచు నో
@@ -3018,32 +2784,29 @@
 నునుచలిగాలి వేడికి మనోజుని దాఁడికి సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ను', '|'), ('న', '|'), ('ల', '|'), ('న', 'U'), ('వ్వు', '|'), ('టా', 'U'), ('ల', '|'), ('క', '|'), ('యి', '|'), ('నన్', 'U'), ('బొ', '|'), ('ల', '|'), ('య', 'U'), ('ల్క', '|'), ('ల', '|'), ('జే', 'U'), ('సి', '|'), ('యై', 'U'), ('న', '|'), ('నున్', 'U'), ('న', '|'), ('ను', '|'), ('గ', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('ను', 'U'), ('క్ష', '|'), ('ణం', 'U'), ('బె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('జా', 'U'), ('ల', '|'), ('వం', 'U'), ('చు', '|'), ('నో', 'U'), ('వ', '|'), ('న', '|'), ('జ', '|'), ('ద', '|'), ('ళా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|'), ('వం', 'U'), ('త', '|'), ('ల', '|'), ('నొం', 'U'), ('దె', '|'), ('ద', '|'), ('వె', 'U'), ('ట్టు', '|'), ('లో', 'U'), ('ర్తు', '|'), ('వే', 'U'), ('ను', '|'), ('ను', '|'), ('చ', '|'), ('లి', '|'), ('గా', 'U'), ('లి', '|'), ('వే', 'U'), ('డి', '|'), ('కి', '|'), ('మ', '|'), ('నో', 'U'), ('జు', '|'), ('ని', '|'), ('దా', 'U'), ('డి', '|'), ('కి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>నీ కడకంటిచే హరిణి నీ కనుసైగలఁ జిత్రరేఖయున్
 నీ కళ చేత హేమగతి నీ లలితోరుల కాంతి రంభ నీ
@@ -3051,32 +2814,29 @@
 నీ కెనరారు దేవతరుణీమణులయినను సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('క', '|'), ('డ', '|'), ('కం', 'U'), ('టి', '|'), ('చే', 'U'), ('హ', '|'), ('రి', '|'), ('ణి', '|'), ('నీ', 'U'), ('క', '|'), ('ను', '|'), ('సై', 'U'), ('గ', '|'), ('ల', '|'), ('జి', 'U'), ('త్ర', '|'), ('రే', 'U'), ('ఖ', '|'), ('యున్', 'U'), ('నీ', 'U'), ('క', '|'), ('ళ', '|'), ('చే', 'U'), ('త', '|'), ('హే', 'U'), ('మ', '|'), ('గ', '|'), ('తి', '|'), ('నీ', 'U'), ('ల', '|'), ('లి', '|'), ('తో', 'U'), ('రు', '|'), ('ల', '|'), ('కాం', 'U'), ('తి', '|'), ('రం', 'U'), ('భ', '|'), ('నీ', 'U'), ('శ్రీ', 'U'), ('క', '|'), ('ర', '|'), ('బా', 'U'), ('ల', '|'), ('లీ', 'U'), ('ల', '|'), ('శ', '|'), ('శి', '|'), ('రే', 'U'), ('ఖ', '|'), ('యు', '|'), ('నీ', 'U'), ('ర', '|'), ('స', '|'), ('వృ', 'U'), ('త్తి', '|'), ('జెం', 'U'), ('దు', '|'), ('టన్', 'U'), ('నీ', 'U'), ('కె', '|'), ('న', '|'), ('రా', 'U'), ('రు', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('రు', '|'), ('ణీ', 'U'), ('మ', '|'), ('ణు', '|'), ('ల', '|'), ('యి', '|'), ('న', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>భామిని నిన్న రే నిదుర పట్టక పట్టక పట్టినంతలో
 కామునికేళిలో మనము కౌతుకమంది పెనంగులాడి యే-
@@ -3084,32 +2844,29 @@
 స్వామికటాక్ష మట్లలరె స్వప్నమునందును, సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('భా', 'U'), ('మి', '|'), ('ని', '|'), ('ని', 'U'), ('న్న', '|'), ('రే', 'U'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('ప', 'U'), ('ట్ట', '|'), ('క', '|'), ('ప', 'U'), ('ట్ట', '|'), ('క', '|'), ('ప', 'U'), ('ట్టి', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('కా', 'U'), ('ము', '|'), ('ని', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('కౌ', 'U'), ('తు', '|'), ('క', '|'), ('మం', 'U'), ('ది', '|'), ('పె', '|'), ('నం', 'U'), ('గు', '|'), ('లా', 'U'), ('డి', '|'), ('యే', 'U'), ('మే', 'U'), ('మొ', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('ముల్', 'U'), ('స', '|'), ('లు', '|'), ('ప', '|'), ('నె', 'U'), ('క్క', '|'), ('డి', '|'), ('పా', 'U'), ('ప', '|'), ('పు', '|'), ('కో', 'U'), ('డి', '|'), ('కూ', 'U'), ('సె', '|'), ('నో', 'U'), ('స్వా', 'U'), ('మి', '|'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('మ', 'U'), ('ట్ల', '|'), ('ల', '|'), ('రె', 'U'), ('స్వ', 'U'), ('ప్న', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>నెల పయనం బటన్న విని నీవడలొందుదువంచు నింతలో
 నెలతరొ వత్తునంచు వెస నిన్నొక సమ్మతి చేసివచ్చి క్రొ-
@@ -3117,32 +2874,29 @@
 న్నెలలకుఁ దాళలేనయితి నీవెటులోర్తువె సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('నె', '|'), ('ల', '|'), ('ప', '|'), ('య', '|'), ('నం', 'U'), ('బ', '|'), ('ట', 'U'), ('న్న', '|'), ('వి', '|'), ('ని', '|'), ('నీ', 'U'), ('వ', '|'), ('డ', '|'), ('లొం', 'U'), ('దు', '|'), ('దు', '|'), ('వం', 'U'), ('చు', '|'), ('నిం', 'U'), ('త', '|'), ('లో', 'U'), ('నె', '|'), ('ల', '|'), ('త', '|'), ('రొ', '|'), ('వ', 'U'), ('త్తు', '|'), ('నం', 'U'), ('చు', '|'), ('వె', '|'), ('స', '|'), ('ని', 'U'), ('న్నొ', '|'), ('క', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('చే', 'U'), ('సి', '|'), ('వ', 'U'), ('చ్చి', 'U'), ('క్రొ', 'U'), ('న్నె', '|'), ('ల', '|'), ('ల', '|'), ('కు', '|'), ('వే', 'U'), ('డి', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('కు', '|'), ('ని', 'U'), ('ద్ద', '|'), ('పు', '|'), ('బూ', 'U'), ('వి', '|'), ('లు', '|'), ('కా', 'U'), ('ని', '|'), ('కా', 'U'), ('ఱు', '|'), ('చి', 'U'), ('న్నె', '|'), ('ల', '|'), ('ల', '|'), ('కు', '|'), ('దా', 'U'), ('ళ', '|'), ('లే', 'U'), ('న', '|'), ('యి', '|'), ('తి', '|'), ('నీ', 'U'), ('వె', '|'), ('టు', '|'), ('లో', 'U'), ('ర్తు', '|'), ('వె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>నీ జటపై జవాదిపస నిద్దపు నెమ్మెయిఁ గుల్క దావకో-
 రోజమృగీమదాంకితపు ఱొమ్ముదుడై తగ నీదు కన్నులన్
@@ -3150,32 +2904,29 @@
 లీజనులెల్ల నవ్వ, దరిలేని ముదంబగు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('జ', '|'), ('ట', '|'), ('పై', 'U'), ('జ', '|'), ('వా', 'U'), ('ది', '|'), ('ప', '|'), ('స', '|'), ('ని', 'U'), ('ద్ద', '|'), ('పు', '|'), ('నె', 'U'), ('మ్మె', '|'), ('యి', '|'), ('గు', 'U'), ('ల్క', '|'), ('దా', 'U'), ('వ', '|'), ('కో', 'U'), ('రో', 'U'), ('జ', '|'), ('మృ', '|'), ('గీ', 'U'), ('మ', '|'), ('దాం', 'U'), ('కి', '|'), ('త', '|'), ('పు', '|'), ('ఱొ', 'U'), ('మ్ము', '|'), ('దు', '|'), ('డై', 'U'), ('త', '|'), ('గ', '|'), ('నీ', 'U'), ('దు', '|'), ('క', 'U'), ('న్ను', '|'), ('లన్', 'U'), ('రా', 'U'), ('జి', '|'), ('లు', '|'), ('కా', 'U'), ('టు', '|'), ('కం', 'U'), ('టు', '|'), ('న', '|'), ('ధ', '|'), ('రం', 'U'), ('బు', '|'), ('వె', '|'), ('లిం', 'U'), ('గె', '|'), ('డు', '|'), ('న', 'U'), ('న్ను', '|'), ('జూ', 'U'), ('చి', '|'), ('యా', 'U'), ('లీ', 'U'), ('జ', '|'), ('ను', '|'), ('లె', 'U'), ('ల్ల', '|'), ('న', 'U'), ('వ్వ', '|'), ('ద', '|'), ('రి', '|'), ('లే', 'U'), ('ని', '|'), ('ము', '|'), ('దం', 'U'), ('బ', '|'), ('గు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>అలరులశయ్యఁ బండి, మనమవ్వలిమోములు చేసి యల్కచే
 పలుకక యుండి యొండొరులఁ బల్మరుచూడక యుండఁ జూచుచో
@@ -3183,32 +2934,29 @@
 కిలకిలనే కవుంగిళులఁ గేరుచునుందువు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ల', '|'), ('రు', '|'), ('ల', '|'), ('శ', 'U'), ('య్య', '|'), ('బం', 'U'), ('డి', '|'), ('మ', '|'), ('న', '|'), ('మ', 'U'), ('వ్వ', '|'), ('లి', '|'), ('మో', 'U'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('సి', '|'), ('య', 'U'), ('ల్క', '|'), ('చే', 'U'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('క', '|'), ('యుం', 'U'), ('డి', '|'), ('యొం', 'U'), ('డొ', '|'), ('రు', '|'), ('ల', '|'), ('బ', 'U'), ('ల్మ', '|'), ('రు', '|'), ('చూ', 'U'), ('డ', '|'), ('క', '|'), ('యుం', 'U'), ('డ', '|'), ('జూ', 'U'), ('చు', '|'), ('చో', 'U'), ('నె', '|'), ('ల', '|'), ('మి', '|'), ('నొ', '|'), ('కిం', 'U'), ('త', '|'), ('సే', 'U'), ('ప', '|'), ('టి', '|'), ('కి', '|'), ('ని', 'U'), ('ద్ద', '|'), ('రి', '|'), ('చూ', 'U'), ('పు', '|'), ('లు', '|'), ('దా', 'U'), ('ర', '|'), ('సి', 'U'), ('ల్లి', '|'), ('నన్', 'U'), ('కి', '|'), ('ల', '|'), ('కి', '|'), ('ల', '|'), ('నే', 'U'), ('క', '|'), ('వుం', 'U'), ('గి', '|'), ('ళు', '|'), ('ల', '|'), ('గే', 'U'), ('రు', '|'), ('చు', '|'), ('నుం', 'U'), ('దు', '|'), ('వు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>వింతగ నన్ను నీవు బదివేలవిధంబుల నవ్వులాట కొ-
 ట్టింతువు మాటల న్నెదఘటింతువు చన్గవ యల్కసేయ న-
@@ -3216,32 +2964,29 @@
 లింతువు నీ గతుల్ పొగడలేము గదే మది సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('విం', 'U'), ('త', '|'), ('గ', '|'), ('న', 'U'), ('న్ను', '|'), ('నీ', 'U'), ('వు', '|'), ('బ', '|'), ('ది', '|'), ('వే', 'U'), ('ల', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('ల', '|'), ('న', 'U'), ('వ్వు', '|'), ('లా', 'U'), ('ట', '|'), ('కొ', 'U'), ('ట్టిం', 'U'), ('తు', '|'), ('వు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', 'U'), ('న్నె', '|'), ('ద', '|'), ('ఘ', '|'), ('టిం', 'U'), ('తు', '|'), ('వు', '|'), ('చ', 'U'), ('న్గ', '|'), ('వ', '|'), ('య', 'U'), ('ల్క', '|'), ('సే', 'U'), ('య', '|'), ('న', 'U'), ('వ్విం', 'U'), ('తు', '|'), ('వు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('గ', 'U'), ('ప్పు', '|'), ('ర', '|'), ('పు', '|'), ('వీ', 'U'), ('డె', '|'), ('మొ', '|'), ('సం', 'U'), ('గి', '|'), ('మ', '|'), ('నో', 'U'), ('జ', '|'), ('రా', 'U'), ('జ్య', '|'), ('మే', 'U'), ('లిం', 'U'), ('తు', '|'), ('వు', '|'), ('నీ', 'U'), ('గ', '|'), ('తుల్', 'U'), ('పొ', '|'), ('గ', '|'), ('డ', '|'), ('లే', 'U'), ('ము', '|'), ('గ', '|'), ('దే', 'U'), ('మ', '|'), ('ది', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>తొలఁగక చెంతనున్న ననుఁ దొంగిలి రెప్పలఁ జూచిచూడన-
 ట్టులు వగగుల్కియుండెడు గడున్ బయనం బరుగంగ వేఁగి వి-
@@ -3249,32 +2994,29 @@
 పొలమున వెళ్లు నీ బెళుకుఁబొంకపుఁ జూపులు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('తొ', '|'), ('ల', '|'), ('గ', '|'), ('క', '|'), ('చెం', 'U'), ('త', '|'), ('ను', 'U'), ('న్న', '|'), ('న', '|'), ('ను', '|'), ('దొం', 'U'), ('గి', '|'), ('లి', '|'), ('రె', 'U'), ('ప్ప', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('న', 'U'), ('ట్టు', '|'), ('లు', '|'), ('వ', '|'), ('గ', '|'), ('గు', 'U'), ('ల్కి', '|'), ('యుం', 'U'), ('డె', '|'), ('డు', '|'), ('గ', '|'), ('డున్', 'U'), ('బ', '|'), ('య', '|'), ('నం', 'U'), ('బ', '|'), ('రు', '|'), ('గం', 'U'), ('గ', '|'), ('వే', 'U'), ('గి', '|'), ('వి', 'U'), ('చ్చ', '|'), ('ల', '|'), ('వి', '|'), ('డి', '|'), ('సౌ', 'U'), ('ధ', '|'), ('వీ', 'U'), ('థి', '|'), ('ప', '|'), ('యి', '|'), ('చా', 'U'), ('య', '|'), ('ల', '|'), ('జూ', 'U'), ('చె', '|'), ('ద', '|'), ('వో', 'U'), ('ర', '|'), ('గం', 'U'), ('ట', '|'), ('నే', 'U'), ('పొ', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('వె', 'U'), ('ళ్లు', '|'), ('నీ', 'U'), ('బె', '|'), ('ళు', '|'), ('కు', '|'), ('బొం', 'U'), ('క', '|'), ('పు', '|'), ('జూ', 'U'), ('పు', '|'), ('లు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>నను నెడబాసి యుండిన దినంబుల లెక్కలఁ గొంతసేపు, నా
 మునుపటి కేళిలో మెలఁగి ముచ్చటలాడుట కొంతసేపు, నా
@@ -3282,32 +3024,29 @@
 య్యన పవలెల్ల నోర్చి నిశియం దెటులోర్తువొ సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ను', '|'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('సి', '|'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('ది', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('లె', 'U'), ('క్క', '|'), ('ల', '|'), ('గొం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', '|'), ('నా', 'U'), ('ము', '|'), ('ను', '|'), ('ప', '|'), ('టి', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('మె', '|'), ('ల', '|'), ('గి', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('లా', 'U'), ('డు', '|'), ('ట', '|'), ('కొం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', '|'), ('నా', 'U'), ('క', '|'), ('ను', '|'), ('గు', '|'), ('ణ', '|'), ('మై', 'U'), ('న', '|'), ('వ', 'U'), ('స్తు', '|'), ('వు', '|'), ('ల', '|'), ('నం', 'U'), ('పె', '|'), ('డు', '|'), ('సం', 'U'), ('ద', '|'), ('డి', '|'), ('గొం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', '|'), ('నొ', 'U'), ('య్య', '|'), ('న', '|'), ('ప', '|'), ('వ', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నో', 'U'), ('ర్చి', '|'), ('ని', '|'), ('శి', '|'), ('యం', 'U'), ('దె', '|'), ('టు', '|'), ('లో', 'U'), ('ర్తు', '|'), ('వొ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>పెనిమిటి కాంచలేఁడనియుఁ బిల్చినఁ బల్కవటంచుఁ దోడి జ-
 వ్వను లెకసక్కెమాడ నొకవైఖరిఁ బల్కుచు నొంటి బాగులే-
@@ -3315,32 +3054,29 @@
 క్కుననిడి యుంటివంచు విని గుండెలు నిల్వవు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('పె', '|'), ('ని', '|'), ('మి', '|'), ('టి', '|'), ('కాం', 'U'), ('చ', '|'), ('లే', 'U'), ('డ', '|'), ('ని', '|'), ('యు', '|'), ('బి', 'U'), ('ల్చి', '|'), ('న', '|'), ('బ', 'U'), ('ల్క', '|'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('దో', 'U'), ('డి', '|'), ('జ', 'U'), ('వ్వ', '|'), ('ను', '|'), ('లె', '|'), ('క', '|'), ('స', 'U'), ('క్కె', '|'), ('మా', 'U'), ('డ', '|'), ('నొ', '|'), ('క', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('బ', 'U'), ('ల్కు', '|'), ('చు', '|'), ('నొం', 'U'), ('టి', '|'), ('బా', 'U'), ('గు', '|'), ('లే', 'U'), ('ద', '|'), ('ని', '|'), ('వె', '|'), ('త', '|'), ('ని', '|'), ('ద్ర', '|'), ('యో', 'U'), ('గి', '|'), ('ర', '|'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('క', '|'), ('కుం', 'U'), ('దు', '|'), ('చు', '|'), ('నూ', 'U'), ('పి', '|'), ('రె', 'U'), ('ల్ల', '|'), ('ము', 'U'), ('క్కు', '|'), ('న', '|'), ('ని', '|'), ('డి', '|'), ('యుం', 'U'), ('టి', '|'), ('వం', 'U'), ('చు', '|'), ('వి', '|'), ('ని', '|'), ('గుం', 'U'), ('డె', '|'), ('లు', '|'), ('ని', 'U'), ('ల్వ', '|'), ('వు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>రతి మును గేలిసోలి నడురాతిరి మేల్కని నేను నిన్ బునా-
 రతమతిఁ గౌఁగిలించినఁ బిరాలున నవ్వలికేఁగి రాక య-
@@ -3348,32 +3084,29 @@
 ఋతుమతివౌట తెల్పకయె యేర్పడఁ దెల్పుదు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('తి', '|'), ('ము', '|'), ('ను', '|'), ('గే', 'U'), ('లి', '|'), ('సో', 'U'), ('లి', '|'), ('న', '|'), ('డు', '|'), ('రా', 'U'), ('తి', '|'), ('రి', '|'), ('మే', 'U'), ('ల్క', '|'), ('ని', '|'), ('నే', 'U'), ('ను', '|'), ('నిన్', 'U'), ('బు', '|'), ('నా', 'U'), ('ర', '|'), ('త', '|'), ('మ', '|'), ('తి', '|'), ('గౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చి', '|'), ('న', '|'), ('బి', '|'), ('రా', 'U'), ('లు', '|'), ('న', '|'), ('న', 'U'), ('వ్వ', '|'), ('లి', '|'), ('కే', 'U'), ('గి', '|'), ('రా', 'U'), ('క', '|'), ('య', 'U'), ('ద్భు', '|'), ('త', '|'), ('ప', '|'), ('డి', '|'), ('నే', 'U'), ('ను', '|'), ('బి', 'U'), ('ల్వ', '|'), ('వి', '|'), ('ని', 'U'), ('ప్రొ', 'U'), ('ద్ది', '|'), ('క', '|'), ('నెం', 'U'), ('త', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కి', '|'), ('సి', 'U'), ('గ్గు', '|'), ('తో', 'U'), ('ఋ', '|'), ('తు', '|'), ('మ', '|'), ('తి', '|'), ('వౌ', 'U'), ('ట', '|'), ('తె', 'U'), ('ల్ప', '|'), ('క', '|'), ('యె', '|'), ('యే', 'U'), ('ర్ప', '|'), ('డ', '|'), ('దె', 'U'), ('ల్పు', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>పటుగతిఁ బూవుబంతి చనుబంతులపై గురిచేసి వ్రేయగా
 తటుకున నొడ్డి పుచ్చుకొని తక్కుచు నీ పనికేమి తాళుమం-
@@ -3381,32 +3114,29 @@
 చ్చటలనె తెల్లవాఱఁ బలుసందడి నుందువు సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('టు', '|'), ('గ', '|'), ('తి', '|'), ('బూ', 'U'), ('వు', '|'), ('బం', 'U'), ('తి', '|'), ('చ', '|'), ('ను', '|'), ('బం', 'U'), ('తు', '|'), ('ల', '|'), ('పై', 'U'), ('గు', '|'), ('రి', '|'), ('చే', 'U'), ('సి', 'U'), ('వ్రే', 'U'), ('య', '|'), ('గా', 'U'), ('త', '|'), ('టు', '|'), ('కు', '|'), ('న', '|'), ('నొ', 'U'), ('డ్డి', '|'), ('పు', 'U'), ('చ్చు', '|'), ('కొ', '|'), ('ని', '|'), ('త', 'U'), ('క్కు', '|'), ('చు', '|'), ('నీ', 'U'), ('ప', '|'), ('ని', '|'), ('కే', 'U'), ('మి', '|'), ('తా', 'U'), ('ళు', '|'), ('మం', 'U'), ('చి', '|'), ('టు', '|'), ('న', '|'), ('టు', '|'), ('చూ', 'U'), ('చి', '|'), ('చూ', 'U'), ('చి', '|'), ('వ', '|'), ('ల', '|'), ('యిం', 'U'), ('పు', '|'), ('చు', '|'), ('న', 'U'), ('వ్వు', '|'), ('చు', '|'), ('మూ', 'U'), ('డు', '|'), ('నా', 'U'), ('ళ్లు', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('ల', '|'), ('నె', '|'), ('తె', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('ఱ', '|'), ('బ', '|'), ('లు', '|'), ('సం', 'U'), ('ద', '|'), ('డి', '|'), ('నుం', 'U'), ('దు', '|'), ('వు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>గొదగొని మోవులానుచును గొంకక నేఁ బయికొందునంచు మైఁ
 బొదలి పెనంగులాడి చలవొంది వచించఁగరాని చేష్టలన్
@@ -3414,32 +3144,29 @@
 హృదయము జల్లుజల్లుమను నెంతని యోర్చెద సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('గొ', '|'), ('ద', '|'), ('గొ', '|'), ('ని', '|'), ('మో', 'U'), ('వు', '|'), ('లా', 'U'), ('ను', '|'), ('చు', '|'), ('ను', '|'), ('గొం', 'U'), ('క', '|'), ('క', '|'), ('నే', 'U'), ('బ', '|'), ('యి', '|'), ('కొం', 'U'), ('దు', '|'), ('నం', 'U'), ('చు', '|'), ('మై', 'U'), ('బొ', '|'), ('ద', '|'), ('లి', '|'), ('పె', '|'), ('నం', 'U'), ('గు', '|'), ('లా', 'U'), ('డి', '|'), ('చ', '|'), ('ల', '|'), ('వొం', 'U'), ('ది', '|'), ('వ', '|'), ('చిం', 'U'), ('చ', '|'), ('గ', '|'), ('రా', 'U'), ('ని', '|'), ('చే', 'U'), ('ష్ట', '|'), ('లన్', 'U'), ('మ', '|'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('నా', 'U'), ('ల', '|'), ('వ', '|'), ('నా', 'U'), ('టి', '|'), ('గ', '|'), ('తుల్', 'U'), ('త', '|'), ('లం', 'U'), ('చి', '|'), ('తే', 'U'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('ము', '|'), ('జ', 'U'), ('ల్లు', '|'), ('జ', 'U'), ('ల్లు', '|'), ('మ', '|'), ('ను', '|'), ('నెం', 'U'), ('త', '|'), ('ని', '|'), ('యో', 'U'), ('ర్చె', '|'), ('ద', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>ఏ గతినోర్తునే జలరుహేక్షణ! నే క్షణమైనఁ బాయగా
 లేఁ గదవే సువర్ణకదళీసదళీనకరోరుయుగ్మ య-
@@ -3447,32 +3174,29 @@
 యో గజయాన! యో రమణి! యో జగదద్భుతసుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('గ', '|'), ('తి', '|'), ('నో', 'U'), ('ర్తు', '|'), ('నే', 'U'), ('జ', '|'), ('ల', '|'), ('రు', '|'), ('హే', 'U'), ('క్ష', '|'), ('ణ', '|'), ('నే', 'U'), ('క్ష', '|'), ('ణ', '|'), ('మై', 'U'), ('న', '|'), ('బా', 'U'), ('య', '|'), ('గా', 'U'), ('లే', 'U'), ('గ', '|'), ('ద', '|'), ('వే', 'U'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('క', '|'), ('ద', '|'), ('ళీ', 'U'), ('స', '|'), ('ద', '|'), ('ళీ', 'U'), ('న', '|'), ('క', '|'), ('రో', 'U'), ('రు', '|'), ('యు', 'U'), ('గ్మ', '|'), ('య', 'U'), ('య్యో', 'U'), ('గు', '|'), ('రి', '|'), ('ద', 'U'), ('ప్ప', '|'), ('కుం', 'U'), ('డ', '|'), ('మ', '|'), ('రు', '|'), ('డు', 'U'), ('ల్ల', '|'), ('ము', '|'), ('జ', 'U'), ('ల్లె', '|'), ('డ', '|'), ('తూం', 'U'), ('ట్లు', '|'), ('చే', 'U'), ('సె', '|'), ('నే', 'U'), ('యో', 'U'), ('గ', '|'), ('జ', '|'), ('యా', 'U'), ('న', '|'), ('యో', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('యో', 'U'), ('జ', '|'), ('గ', '|'), ('ద', 'U'), ('ద్భు', '|'), ('త', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>కన్నియ యిప్పుడేల కడకట్ట ప్రయాణము దీర్చివచ్చి నిన్
 గన్నులఁ జూచి సంతసిలఁగల్గెడు పోఁడిమి పట్టినంతలో
@@ -3480,32 +3204,29 @@
 నన్నుఁ గవుంగలించుకొని నా వెత దీర్పవె సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('న్ని', '|'), ('య', '|'), ('యి', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('ల', '|'), ('క', '|'), ('డ', '|'), ('క', 'U'), ('ట్ట', 'U'), ('ప్ర', '|'), ('యా', 'U'), ('ణ', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('నిన్', 'U'), ('గ', 'U'), ('న్ను', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('సం', 'U'), ('త', '|'), ('సి', '|'), ('ల', '|'), ('గ', 'U'), ('ల్గె', '|'), ('డు', '|'), ('పో', 'U'), ('డి', '|'), ('మి', '|'), ('ప', 'U'), ('ట్టి', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('నె', 'U'), ('న్ని', '|'), ('ది', '|'), ('నం', 'U'), ('బు', '|'), ('లుం', 'U'), ('టి', '|'), ('వ', '|'), ('ని', '|'), ('యెం', 'U'), ('త', '|'), ('యు', '|'), ('గో', 'U'), ('ప', '|'), ('ము', '|'), ('మా', 'U'), ('ని', '|'), ('బి', 'U'), ('గ్గ', '|'), ('ఱన్', 'U'), ('న', 'U'), ('న్ను', '|'), ('గ', '|'), ('వుం', 'U'), ('గ', '|'), ('లిం', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('నా', 'U'), ('వె', '|'), ('త', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('వె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>కురులకుఁ గృష్ణభావమును గుబ్బల కచ్యుతరీతి కర్ణవై-
 ఖరికల శ్రీవరప్రతిభ కౌనునకున్ హరిమంగళాకృతుల్
@@ -3513,32 +3234,29 @@
 ష్కరపరితాపమెల్ల నవసారసలోచన సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('గృ', 'U'), ('ష్ణ', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('క', 'U'), ('చ్యు', '|'), ('త', '|'), ('రీ', 'U'), ('తి', '|'), ('క', 'U'), ('ర్ణ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('క', '|'), ('ల', 'U'), ('శ్రీ', 'U'), ('వ', '|'), ('ర', 'U'), ('ప్ర', '|'), ('తి', '|'), ('భ', '|'), ('కౌ', 'U'), ('ను', '|'), ('న', '|'), ('కున్', 'U'), ('హ', '|'), ('రి', '|'), ('మం', 'U'), ('గ', '|'), ('ళా', 'U'), ('కృ', '|'), ('తుల్', 'U'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('జె', '|'), ('లం', 'U'), ('గు', '|'), ('నీ', 'U'), ('కు', '|'), ('క', '|'), ('ల', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', 'U'), ('న్ను', '|'), ('ద', '|'), ('లం', 'U'), ('చ', '|'), ('బా', 'U'), ('యు', '|'), ('దు', 'U'), ('ష్క', '|'), ('ర', '|'), ('ప', '|'), ('రి', '|'), ('తా', 'U'), ('ప', '|'), ('మె', 'U'), ('ల్ల', '|'), ('న', '|'), ('వ', '|'), ('సా', 'U'), ('ర', '|'), ('స', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>అలికులవేణి నీ కొరకు నన్నలఁ దమ్ములఁ బాసి వస్తి నీ
 కులుకుమిటారిగబ్బిచనుగుబ్బల నొత్తుచుఁ గౌఁగిలించవే
@@ -3546,32 +3264,29 @@
 చెలియరొ నీకు నా యుసురు చెందక మానునె సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('లి', '|'), ('కు', '|'), ('ల', '|'), ('వే', 'U'), ('ణి', '|'), ('నీ', 'U'), ('కొ', '|'), ('ర', '|'), ('కు', '|'), ('న', 'U'), ('న్న', '|'), ('ల', '|'), ('ద', 'U'), ('మ్ము', '|'), ('ల', '|'), ('బా', 'U'), ('సి', '|'), ('వ', 'U'), ('స్తి', '|'), ('నీ', 'U'), ('కు', '|'), ('లు', '|'), ('కు', '|'), ('మి', '|'), ('టా', 'U'), ('రి', '|'), ('గ', 'U'), ('బ్బి', '|'), ('చ', '|'), ('ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('నొ', 'U'), ('త్తు', '|'), ('చు', '|'), ('గౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చ', '|'), ('వే', 'U'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('రొ', '|'), ('నీ', 'U'), ('కు', '|'), ('గుం', 'U'), ('డె', '|'), ('బ', '|'), ('లు', '|'), ('క', 'U'), ('ట్టి', '|'), ('డి', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('రా', 'U'), ('యి', '|'), ('చే', 'U'), ('సె', '|'), ('నే', 'U'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('రొ', '|'), ('నీ', 'U'), ('కు', '|'), ('నా', 'U'), ('యు', '|'), ('సు', '|'), ('రు', '|'), ('చెం', 'U'), ('ద', '|'), ('క', '|'), ('మా', 'U'), ('ను', '|'), ('నె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>తే వదనస్య చంద్రరుచిధిక్కరణప్రతిభాస్తు; తే దృశో-
 భావభవోత్పలాంబురుహబాణకదంబజయోస్తు సంతతం
@@ -3579,17 +3294,17 @@
 చే వినుతింతు నీకు శుభమీయఁగ దేవుని సుందరీమణీ!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sundariimani</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
-        <is>
-          <t>sundariimani</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
         <is>
           <t>[('తే', 'U'), ('వ', '|'), ('ద', '|'), ('న', 'U'), ('స్య', '|'), ('చం', 'U'), ('ద్ర', '|'), ('రు', '|'), ('చి', '|'), ('ధి', 'U'), ('క్క', '|'), ('ర', '|'), ('ణ', 'U'), ('ప్ర', '|'), ('తి', '|'), ('భా', 'U'), ('స్తు', '|'), ('తే', 'U'), ('దృ', '|'), ('శో', 'U'), ('భా', 'U'), ('వ', '|'), ('భ', '|'), ('వో', 'U'), ('త్ప', '|'), ('లాం', 'U'), ('బు', '|'), ('రు', '|'), ('హ', '|'), ('బా', 'U'), ('ణ', '|'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('జ', '|'), ('యో', 'U'), ('స్తు', '|'), ('సం', 'U'), ('త', '|'), ('తం', 'U'), ('తే', 'U'), ('వ', '|'), ('చ', '|'), ('న', 'U'), ('స్య', '|'), ('కో', 'U'), ('కి', '|'), ('ల', '|'), ('త', '|'), ('తి', 'U'), ('ప్ర', '|'), ('వ', '|'), ('రా', 'U'), ('య', '|'), ('స', '|'), ('కృ', 'U'), ('ద్వి', '|'), ('ధో', 'U'), ('స్త', '|'), ('టం', 'U'), ('చే', 'U'), ('వి', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('నీ', 'U'), ('కు', '|'), ('శు', '|'), ('భ', '|'), ('మీ', 'U'), ('య', '|'), ('గ', '|'), ('దే', 'U'), ('వు', '|'), ('ని', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>

--- a/dataset/lg/sundariimani.xlsx
+++ b/dataset/lg/sundariimani.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('పా', 'U'), ('ప', '|'), ('ట', '|'), ('దీ', 'U'), ('ర్చి', '|'), ('నె', 'U'), ('న్నొ', '|'), ('స', '|'), ('టి', '|'), ('పై', 'U'), ('ను', '|'), ('ను', '|'), ('పై', 'U'), ('య', '|'), ('సి', '|'), ('యా', 'U'), ('డు', '|'), ('చే', 'U'), ('యు', '|'), ('చు', 'U'), ('క్కా', 'U'), ('ప', '|'), ('యి', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('నొ', '|'), ('యా', 'U'), ('ర', '|'), ('పు', '|'), ('జా', 'U'), ('ఱు', '|'), ('ప', '|'), ('యం', 'U'), ('ట', '|'), ('చే', 'U'), ('ర్చి', '|'), ('వాల్', 'U'), ('జూ', 'U'), ('పు', '|'), ('ల', '|'), ('నా', 'U'), ('దు', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('ము', '|'), ('చూ', 'U'), ('ఱ', '|'), ('గొ', '|'), ('నన్', 'U'), ('సొ', '|'), ('గ', '|'), ('సై', 'U'), ('న', '|'), ('ర', 'U'), ('త్న', '|'), ('పుం', 'U'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('లా', 'U'), ('గ', '|'), ('నా', 'U'), ('యె', '|'), ('దు', '|'), ('ర', '|'), ('ని', 'U'), ('ల్చు', '|'), ('ట', '|'), ('యె', 'U'), ('న్న', '|'), ('డొ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('పా', 'U'), ('ప', '|'), ('ట', '|'), ('దీ', 'U'), ('ర్చి', '|'), ('నె', 'U'), ('న్నొ', '|'), ('స', '|'), ('టి', '|'), ('పై', 'U'), ('ను', '|'), ('ను', '|'), ('పై', 'U'), ('య', '|'), ('సి', '|'), ('యా', 'U'), ('డు', '|'), ('చే', 'U'), ('యు', '|'), ('చు', 'U'), ('క్కా', 'U'), ('ప', '|'), ('యి', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('నొ', '|'), ('యా', 'U'), ('ర', '|'), ('పు', '|'), ('జా', 'U'), ('ఱు', '|'), ('ప', '|'), ('యం', 'U'), ('ట', '|'), ('చే', 'U'), ('ర్చి', '|'), ('వాల్', 'U'), ('జూ', 'U'), ('పు', '|'), ('ల', '|'), ('నా', 'U'), ('దు', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('ము', '|'), ('చూ', 'U'), ('ఱ', '|'), ('గొ', '|'), ('న', 'U'), ('న్సొ', '|'), ('గ', '|'), ('సై', 'U'), ('న', '|'), ('ర', 'U'), ('త్న', '|'), ('పుం', 'U'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('లా', 'U'), ('గ', '|'), ('నా', 'U'), ('యె', '|'), ('దు', '|'), ('ర', '|'), ('ని', 'U'), ('ల్చు', '|'), ('ట', '|'), ('యె', 'U'), ('న్న', '|'), ('డొ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ద', '|'), ('క', '|'), ('ట', '|'), ('కం', 'U'), ('బు', '|'), ('ఘ', 'U'), ('ళ్లు', '|'), ('ర', '|'), ('న', '|'), ('బై', 'U'), ('కి', '|'), ('జి', '|'), ('వా', 'U'), ('లు', '|'), ('న', '|'), ('వ్రా', 'U'), ('లి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లుం', 'U'), ('గ', '|'), ('దు', '|'), ('ము', '|'), ('లు', '|'), ('క', 'U'), ('ట్ట', '|'), ('ఱొ', 'U'), ('మ్మ', '|'), ('ది', '|'), ('మి', '|'), ('గం', 'U'), ('టు', '|'), ('గ', '|'), ('వా', 'U'), ('తె', '|'), ('ఱ', '|'), ('నొ', 'U'), ('క్కి', '|'), ('మై', 'U'), ('గ', '|'), ('గు', 'U'), ('ర్పొ', '|'), ('ద', '|'), ('వ', '|'), ('గ', '|'), ('బ', 'U'), ('య్యె', '|'), ('దం', 'U'), ('జె', '|'), ('మ', '|'), ('ట', '|'), ('లొ', 'U'), ('త్తు', '|'), ('చు', '|'), ('గే', 'U'), ('రు', '|'), ('చు', '|'), ('గ్రిం', 'U'), ('దు', '|'), ('మీ', 'U'), ('దు', '|'), ('గా', 'U'), ('బొ', '|'), ('దు', '|'), ('వు', '|'), ('చు', '|'), ('నీ', 'U'), ('వె', '|'), ('నన్', 'U'), ('గ', '|'), ('వ', '|'), ('యు', '|'), ('పో', 'U'), ('డు', '|'), ('ము', '|'), ('లె', 'U'), ('న్న', '|'), ('డు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('ప', '|'), ('ద', '|'), ('క', '|'), ('ట', '|'), ('కం', 'U'), ('బు', '|'), ('ఘ', 'U'), ('ళ్లు', '|'), ('ర', '|'), ('న', '|'), ('బై', 'U'), ('కి', '|'), ('జి', '|'), ('వా', 'U'), ('లు', '|'), ('న', '|'), ('వ్రా', 'U'), ('లి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లుం', 'U'), ('గ', '|'), ('దు', '|'), ('ము', '|'), ('లు', '|'), ('క', 'U'), ('ట్ట', '|'), ('ఱొ', 'U'), ('మ్మ', '|'), ('ది', '|'), ('మి', '|'), ('గం', 'U'), ('టు', '|'), ('గ', '|'), ('వా', 'U'), ('తె', '|'), ('ఱ', '|'), ('నొ', 'U'), ('క్కి', '|'), ('మై', 'U'), ('గ', '|'), ('గు', 'U'), ('ర్పొ', '|'), ('ద', '|'), ('వ', '|'), ('గ', '|'), ('బ', 'U'), ('య్యె', '|'), ('దం', 'U'), ('జె', '|'), ('మ', '|'), ('ట', '|'), ('లొ', 'U'), ('త్తు', '|'), ('చు', '|'), ('గే', 'U'), ('రు', '|'), ('చు', '|'), ('గ్రిం', 'U'), ('దు', '|'), ('మీ', 'U'), ('దు', '|'), ('గా', 'U'), ('బొ', '|'), ('దు', '|'), ('వు', '|'), ('చు', '|'), ('నీ', 'U'), ('వె', '|'), ('న', 'U'), ('న్గ', '|'), ('వ', '|'), ('యు', '|'), ('పో', 'U'), ('డు', '|'), ('ము', '|'), ('లె', 'U'), ('న్న', '|'), ('డు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('ము', '|'), ('ను', '|'), ('క', '|'), ('ను', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('వే', 'U'), ('యు', 'U'), ('క్ష', '|'), ('ణ', '|'), ('మున్', 'U'), ('యు', '|'), ('గ', '|'), ('రీ', 'U'), ('తి', '|'), ('ని', '|'), ('దో', 'U'), ('చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('నే', 'U'), ('ని', '|'), ('ను', '|'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('ల్చె', '|'), ('ని', '|'), ('దే', 'U'), ('మ', '|'), ('ని', '|'), ('కొం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('జిం', 'U'), ('త', '|'), ('చే', 'U'), ('సి', '|'), ('వి', '|'), ('ను', '|'), ('మా', 'U'), ('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('చి', '|'), ('తి', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('నె', '|'), ('నీ', 'U'), ('ఘ', '|'), ('న', '|'), ('మ', '|'), ('ధు', '|'), ('రా', 'U'), ('ధ', '|'), ('రా', 'U'), ('మృ', '|'), ('త', '|'), ('ము', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('మౌ', 'U'), ('న', '|'), ('ని', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('ము', '|'), ('ను', '|'), ('క', '|'), ('ను', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('వే', 'U'), ('యు', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', 'U'), ('న్యు', '|'), ('గ', '|'), ('రీ', 'U'), ('తి', '|'), ('ని', '|'), ('దో', 'U'), ('చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('నే', 'U'), ('ని', '|'), ('ను', '|'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('ల్చె', '|'), ('ని', '|'), ('దే', 'U'), ('మ', '|'), ('ని', '|'), ('కొం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('జిం', 'U'), ('త', '|'), ('చే', 'U'), ('సి', '|'), ('వి', '|'), ('ను', '|'), ('మా', 'U'), ('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('చి', '|'), ('తి', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('నె', '|'), ('నీ', 'U'), ('ఘ', '|'), ('న', '|'), ('మ', '|'), ('ధు', '|'), ('రా', 'U'), ('ధ', '|'), ('రా', 'U'), ('మృ', '|'), ('త', '|'), ('ము', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('మౌ', 'U'), ('న', '|'), ('ని', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('బం', 'U'), ('గ', '|'), ('రు', '|'), ('తీ', 'U'), ('గె', '|'), ('వం', 'U'), ('టి', '|'), ('మె', '|'), ('యి', '|'), ('ప', 'U'), ('ట్టె', '|'), ('డు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లు', '|'), ('చే', 'U'), ('రె', '|'), ('డే', 'U'), ('సి', '|'), ('క', 'U'), ('న్నుం', 'U'), ('గ', '|'), ('లు', '|'), ('వల్', 'U'), ('క', '|'), ('నన్', 'U'), ('మి', '|'), ('ను', '|'), ('మి', '|'), ('ను', 'U'), ('క్క', '|'), ('ను', '|'), ('కౌన్', 'U'), ('బ', '|'), ('లు', '|'), ('మే', 'U'), ('ల్పి', '|'), ('ఱుం', 'U'), ('దు', '|'), ('జం', 'U'), ('కుం', 'U'), ('గ', '|'), ('ళ', '|'), ('లు', 'U'), ('ల్ల', '|'), ('సి', 'U'), ('ల్ల', '|'), ('ని', '|'), ('ట', '|'), ('కున్', 'U'), ('సి', '|'), ('రి', '|'), ('చు', 'U'), ('క్క', '|'), ('య', '|'), ('నం', 'U'), ('గ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('మా', 'U'), ('ముం', 'U'), ('గ', '|'), ('ల', '|'), ('ని', 'U'), ('ల్చు', '|'), ('టె', 'U'), ('న్న', '|'), ('డొ', '|'), ('కొ', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('దీ', 'U'), ('ర', '|'), ('గ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('బం', 'U'), ('గ', '|'), ('రు', '|'), ('తీ', 'U'), ('గె', '|'), ('వం', 'U'), ('టి', '|'), ('మె', '|'), ('యి', '|'), ('ప', 'U'), ('ట్టె', '|'), ('డు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లు', '|'), ('చే', 'U'), ('రె', '|'), ('డే', 'U'), ('సి', '|'), ('క', 'U'), ('న్నుం', 'U'), ('గ', '|'), ('లు', '|'), ('వ', 'U'), ('ల్క', '|'), ('న', 'U'), ('న్మి', '|'), ('ను', '|'), ('మి', '|'), ('ను', 'U'), ('క్క', '|'), ('ను', '|'), ('కౌ', 'U'), ('న్బ', '|'), ('లు', '|'), ('మే', 'U'), ('ల్పి', '|'), ('ఱుం', 'U'), ('దు', '|'), ('జం', 'U'), ('కుం', 'U'), ('గ', '|'), ('ళ', '|'), ('లు', 'U'), ('ల్ల', '|'), ('సి', 'U'), ('ల్ల', '|'), ('ని', '|'), ('ట', '|'), ('కు', 'U'), ('న్సి', '|'), ('రి', '|'), ('చు', 'U'), ('క్క', '|'), ('య', '|'), ('నం', 'U'), ('గ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('మా', 'U'), ('ముం', 'U'), ('గ', '|'), ('ల', '|'), ('ని', 'U'), ('ల్చు', '|'), ('టె', 'U'), ('న్న', '|'), ('డొ', '|'), ('కొ', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('దీ', 'U'), ('ర', '|'), ('గ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('మ', '|'), ('మ', '|'), ('ధు', '|'), ('ర', 'U'), ('త్వ', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('గ', '|'), ('దా', 'U'), ('యి', '|'), ('ది', '|'), ('దొం', 'U'), ('గి', '|'), ('లె', '|'), ('నం', 'U'), ('చు', '|'), ('మో', 'U'), ('ద', '|'), ('న', 'U'), ('య్య', '|'), ('మృ', '|'), ('త', '|'), ('పు', '|'), ('బిం', 'U'), ('దు', '|'), ('వో', 'U'), ('య', '|'), ('న', '|'), ('గ', '|'), ('నం', 'U'), ('ద', '|'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('గు', '|'), ('ము', 'U'), ('క్కు', '|'), ('న', 'U'), ('త్తు', '|'), ('ము', 'U'), ('త్య', '|'), ('ము', '|'), ('ను', '|'), ('ను', '|'), ('మో', 'U'), ('వి', '|'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('ని', '|'), ('దా', 'U'), ('కు', '|'), ('చు', '|'), ('నుం', 'U'), ('డ', '|'), ('గ', '|'), ('బూ', 'U'), ('రు', '|'), ('షా', 'U'), ('యి', '|'), ('త', '|'), ('క్ర', '|'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('నుం', 'U'), ('డు', '|'), ('నిన్', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ర', '|'), ('గున్', 'U'), ('మ', '|'), ('ది', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('త', '|'), ('మ', '|'), ('మ', '|'), ('ధు', '|'), ('ర', 'U'), ('త్వ', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('గ', '|'), ('దా', 'U'), ('యి', '|'), ('ది', '|'), ('దొం', 'U'), ('గి', '|'), ('లె', '|'), ('నం', 'U'), ('చు', '|'), ('మో', 'U'), ('ద', '|'), ('న', 'U'), ('య్య', '|'), ('మృ', '|'), ('త', '|'), ('పు', '|'), ('బిం', 'U'), ('దు', '|'), ('వో', 'U'), ('య', '|'), ('న', '|'), ('గ', '|'), ('నం', 'U'), ('ద', '|'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('గు', '|'), ('ము', 'U'), ('క్కు', '|'), ('న', 'U'), ('త్తు', '|'), ('ము', 'U'), ('త్య', '|'), ('ము', '|'), ('ను', '|'), ('ను', '|'), ('మో', 'U'), ('వి', '|'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('ని', '|'), ('దా', 'U'), ('కు', '|'), ('చు', '|'), ('నుం', 'U'), ('డ', '|'), ('గ', '|'), ('బూ', 'U'), ('రు', '|'), ('షా', 'U'), ('యి', '|'), ('త', '|'), ('క్ర', '|'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('నుం', 'U'), ('డు', '|'), ('ని', 'U'), ('న్ద', '|'), ('ల', '|'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ర', '|'), ('గు', 'U'), ('న్మ', '|'), ('ది', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('కా', 'U'), ('టు', '|'), ('క', '|'), ('కం', 'U'), ('టి', '|'), ('ని', 'U'), ('గ్గు', '|'), ('లె', '|'), ('స', '|'), ('గం', 'U'), ('బొ', '|'), ('స', '|'), ('గం', 'U'), ('గ', '|'), ('ను', '|'), ('నీ', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('మై', 'U'), ('నా', 'U'), ('టె', '|'), ('ను', '|'), ('ఱొ', 'U'), ('మ్ము', '|'), ('తా', 'U'), ('ళ', '|'), ('గ', '|'), ('ల', '|'), ('నా', 'U'), ('ల', '|'), ('ల', '|'), ('నా', 'U'), ('యి', '|'), ('ది', '|'), ('గా', 'U'), ('క', '|'), ('క', '|'), ('ప్ర', '|'), ('పున్', 'U'), ('వీ', 'U'), ('టి', '|'), ('యొ', '|'), ('సం', 'U'), ('గు', '|'), ('చుం', 'U'), ('బి', '|'), ('కి', '|'), ('లి', '|'), ('పి', 'U'), ('ట్ట', '|'), ('వ', '|'), ('గం', 'U'), ('గ', '|'), ('వ', '|'), ('గ', 'U'), ('న్న', '|'), ('నా', 'U'), ('టి', '|'), ('నీ', 'U'), ('కూ', 'U'), ('ట', '|'), ('ము', '|'), ('లె', 'U'), ('న్న', '|'), ('గుం', 'U'), ('డె', '|'), ('క', '|'), ('ర', '|'), ('గున్', 'U'), ('జ', '|'), ('ర', '|'), ('గున్', 'U'), ('ధృ', '|'), ('తి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('కా', 'U'), ('టు', '|'), ('క', '|'), ('కం', 'U'), ('టి', '|'), ('ని', 'U'), ('గ్గు', '|'), ('లె', '|'), ('స', '|'), ('గం', 'U'), ('బొ', '|'), ('స', '|'), ('గం', 'U'), ('గ', '|'), ('ను', '|'), ('నీ', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('మై', 'U'), ('నా', 'U'), ('టె', '|'), ('ను', '|'), ('ఱొ', 'U'), ('మ్ము', '|'), ('తా', 'U'), ('ళ', '|'), ('గ', '|'), ('ల', '|'), ('నా', 'U'), ('ల', '|'), ('ల', '|'), ('నా', 'U'), ('యి', '|'), ('ది', '|'), ('గా', 'U'), ('క', '|'), ('క', '|'), ('ప్ర', '|'), ('పున్', 'U'), ('వీ', 'U'), ('టి', '|'), ('యొ', '|'), ('సం', 'U'), ('గు', '|'), ('చుం', 'U'), ('బి', '|'), ('కి', '|'), ('లి', '|'), ('పి', 'U'), ('ట్ట', '|'), ('వ', '|'), ('గం', 'U'), ('గ', '|'), ('వ', '|'), ('గ', 'U'), ('న్న', '|'), ('నా', 'U'), ('టి', '|'), ('నీ', 'U'), ('కూ', 'U'), ('ట', '|'), ('ము', '|'), ('లె', 'U'), ('న్న', '|'), ('గుం', 'U'), ('డె', '|'), ('క', '|'), ('ర', '|'), ('గు', 'U'), ('న్జ', '|'), ('ర', '|'), ('గు', 'U'), ('న్ధృ', '|'), ('తి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('బ', '|'), ('హు', '|'), ('త', '|'), ('ర', '|'), ('ల', 'U'), ('జ్జ', '|'), ('గ', 'U'), ('న్ను', '|'), ('లొ', '|'), ('క', '|'), ('పా', 'U'), ('ళ', '|'), ('ము', '|'), ('గా', 'U'), ('ము', '|'), ('కు', '|'), ('ళిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('యు', '|'), ('రో', 'U'), ('రు', '|'), ('హ', '|'), ('ము', '|'), ('ల', '|'), ('నీ', 'U'), ('వి', '|'), ('పై', 'U'), ('గ', '|'), ('ర', '|'), ('స', '|'), ('రో', 'U'), ('జ', '|'), ('ము', '|'), ('లుం', 'U'), ('చి', '|'), ('తొ', '|'), ('డల్', 'U'), ('బి', '|'), ('గిం', 'U'), ('చ', '|'), ('నే', 'U'), ('ర', '|'), ('హి', '|'), ('వ', '|'), ('లు', '|'), ('వె', 'U'), ('ల్ల', '|'), ('బా', 'U'), ('ప', '|'), ('గ', '|'), ('బి', '|'), ('రా', 'U'), ('లు', '|'), ('న', '|'), ('దొ', 'U'), ('ల్త', '|'), ('టి', '|'), ('కూ', 'U'), ('ట', '|'), ('మిన్', 'U'), ('స్వ', '|'), ('యం', 'U'), ('గ్ర', '|'), ('హ', '|'), ('ణ', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('యు', '|'), ('ప', '|'), ('కా', 'U'), ('రి', '|'), ('ణి', '|'), ('వౌ', 'U'), ('దు', '|'), ('వె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('బ', '|'), ('హు', '|'), ('త', '|'), ('ర', '|'), ('ల', 'U'), ('జ్జ', '|'), ('గ', 'U'), ('న్ను', '|'), ('లొ', '|'), ('క', '|'), ('పా', 'U'), ('ళ', '|'), ('ము', '|'), ('గా', 'U'), ('ము', '|'), ('కు', '|'), ('ళిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('యు', '|'), ('రో', 'U'), ('రు', '|'), ('హ', '|'), ('ము', '|'), ('ల', '|'), ('నీ', 'U'), ('వి', '|'), ('పై', 'U'), ('గ', '|'), ('ర', '|'), ('స', '|'), ('రో', 'U'), ('జ', '|'), ('ము', '|'), ('లుం', 'U'), ('చి', '|'), ('తొ', '|'), ('డ', 'U'), ('ల్బి', '|'), ('గిం', 'U'), ('చ', '|'), ('నే', 'U'), ('ర', '|'), ('హి', '|'), ('వ', '|'), ('లు', '|'), ('వె', 'U'), ('ల్ల', '|'), ('బా', 'U'), ('ప', '|'), ('గ', '|'), ('బి', '|'), ('రా', 'U'), ('లు', '|'), ('న', '|'), ('దొ', 'U'), ('ల్త', '|'), ('టి', '|'), ('కూ', 'U'), ('ట', '|'), ('మి', 'U'), ('న్స్వ', '|'), ('యం', 'U'), ('గ్ర', '|'), ('హ', '|'), ('ణ', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('యు', '|'), ('ప', '|'), ('కా', 'U'), ('రి', '|'), ('ణి', '|'), ('వౌ', 'U'), ('దు', '|'), ('వె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[('ఎ', '|'), ('టు', '|'), ('లి', '|'), ('క', '|'), ('దె', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('ఱె', '|'), ('సె', '|'), ('ల', '|'), ('వీ', 'U'), ('య', '|'), ('ర', '|'), ('నీ', 'U'), ('దు', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('నా', 'U'), ('దు', '|'), ('సం', 'U'), ('ది', '|'), ('ట', '|'), ('ని', '|'), ('డి', '|'), ('నా', 'U'), ('వు', '|'), ('నా', 'U'), ('ప', '|'), ('ద', '|'), ('ము', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('మున్', 'U'), ('మె', '|'), ('ల', '|'), ('వై', 'U'), ('చి', '|'), ('తే', 'U'), ('మొ', '|'), ('కో', 'U'), ('చి', '|'), ('టి', '|'), ('పొ', '|'), ('టి', '|'), ('చే', 'U'), ('త', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('వె', '|'), ('సి', 'U'), ('గ్గు', '|'), ('ల', '|'), ('చే', 'U'), ('టి', '|'), ('పు', '|'), ('డే', 'U'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('గౌ', 'U'), ('గి', '|'), ('ట', '|'), ('బ', '|'), ('తి', '|'), ('మా', 'U'), ('లు', '|'), ('నిన్', 'U'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('గే', 'U'), ('ళి', '|'), ('యొ', '|'), ('న', 'U'), ('ర్తు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('ఎ', '|'), ('టు', '|'), ('లి', '|'), ('క', '|'), ('దె', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('ఱె', '|'), ('సె', '|'), ('ల', '|'), ('వీ', 'U'), ('య', '|'), ('ర', '|'), ('నీ', 'U'), ('దు', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('నా', 'U'), ('దు', '|'), ('సం', 'U'), ('ది', '|'), ('ట', '|'), ('ని', '|'), ('డి', '|'), ('నా', 'U'), ('వు', '|'), ('నా', 'U'), ('ప', '|'), ('ద', '|'), ('ము', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('ము', 'U'), ('న్మె', '|'), ('ల', '|'), ('వై', 'U'), ('చి', '|'), ('తే', 'U'), ('మొ', '|'), ('కో', 'U'), ('చి', '|'), ('టి', '|'), ('పొ', '|'), ('టి', '|'), ('చే', 'U'), ('త', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('వె', '|'), ('సి', 'U'), ('గ్గు', '|'), ('ల', '|'), ('చే', 'U'), ('టి', '|'), ('పు', '|'), ('డే', 'U'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('గౌ', 'U'), ('గి', '|'), ('ట', '|'), ('బ', '|'), ('తి', '|'), ('మా', 'U'), ('లు', '|'), ('ని', 'U'), ('న్బ', '|'), ('లి', '|'), ('మి', '|'), ('గే', 'U'), ('ళి', '|'), ('యొ', '|'), ('న', 'U'), ('ర్తు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('చె', 'U'), ('మ్మ', '|'), ('ట', '|'), ('నం', 'U'), ('టు', '|'), ('ముం', 'U'), ('గు', '|'), ('రు', '|'), ('లు', '|'), ('చిం', 'U'), ('ది', '|'), ('న', '|'), ('క', 'U'), ('స్తు', '|'), ('రి', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('ని', 'U'), ('ద్దు', '|'), ('రం', 'U'), ('గ్ర', 'U'), ('మ్మె', '|'), ('డు', '|'), ('క', 'U'), ('న్ను', '|'), ('లున్', 'U'), ('జె', '|'), ('ద', '|'), ('రు', '|'), ('కా', 'U'), ('టు', '|'), ('క', '|'), ('యున్', 'U'), ('నె', '|'), ('ల', '|'), ('వం', 'U'), ('క', '|'), ('లున్', 'U'), ('వి', '|'), ('నో', 'U'), ('ద', 'U'), ('మ్మ', '|'), ('గు', '|'), ('త', 'U'), ('ళ్కు', '|'), ('జె', 'U'), ('క్కు', '|'), ('లు', '|'), ('ర', '|'), ('ద', 'U'), ('క్ష', '|'), ('త', '|'), ('ల', 'U'), ('క్షి', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('మో', 'U'), ('వి', '|'), ('చే', 'U'), ('ని', 'U'), ('మ్మ', '|'), ('గు', '|'), ('నీ', 'U'), ('మొ', '|'), ('గం', 'U'), ('బు', '|'), ('గ', '|'), ('ను', '|'), ('టె', 'U'), ('న్న', '|'), ('డు', '|'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('న', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('చె', 'U'), ('మ్మ', '|'), ('ట', '|'), ('నం', 'U'), ('టు', '|'), ('ముం', 'U'), ('గు', '|'), ('రు', '|'), ('లు', '|'), ('చిం', 'U'), ('ది', '|'), ('న', '|'), ('క', 'U'), ('స్తు', '|'), ('రి', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('ని', 'U'), ('ద్దు', '|'), ('రం', 'U'), ('గ్ర', 'U'), ('మ్మె', '|'), ('డు', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', 'U'), ('న్జె', '|'), ('ద', '|'), ('రు', '|'), ('కా', 'U'), ('టు', '|'), ('క', '|'), ('యు', 'U'), ('న్నె', '|'), ('ల', '|'), ('వం', 'U'), ('క', '|'), ('లు', 'U'), ('న్వి', '|'), ('నో', 'U'), ('ద', 'U'), ('మ్మ', '|'), ('గు', '|'), ('త', 'U'), ('ళ్కు', '|'), ('జె', 'U'), ('క్కు', '|'), ('లు', '|'), ('ర', '|'), ('ద', 'U'), ('క్ష', '|'), ('త', '|'), ('ల', 'U'), ('క్షి', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('మో', 'U'), ('వి', '|'), ('చే', 'U'), ('ని', 'U'), ('మ్మ', '|'), ('గు', '|'), ('నీ', 'U'), ('మొ', '|'), ('గం', 'U'), ('బు', '|'), ('గ', '|'), ('ను', '|'), ('టె', 'U'), ('న్న', '|'), ('డు', '|'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('న', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('సో', 'U'), ('య', '|'), ('గ', '|'), ('ము', 'U'), ('ప్ప', '|'), ('తి', 'U'), ('ల్ల', '|'), ('న', '|'), ('ను', '|'), ('జూ', 'U'), ('చి', '|'), ('కి', '|'), ('సా', 'U'), ('లు', '|'), ('న', '|'), ('న', 'U'), ('వ్వి', '|'), ('లే', 'U'), ('చి', '|'), ('రా', 'U'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('పు', '|'), ('చు', '|'), ('బి', '|'), ('రా', 'U'), ('లు', '|'), ('న', '|'), ('శ', 'U'), ('య్య', '|'), ('కు', '|'), ('వ్రా', 'U'), ('లి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లన్', 'U'), ('నా', 'U'), ('యు', '|'), ('ర', '|'), ('మా', 'U'), ('ని', '|'), ('మో', 'U'), ('వి', '|'), ('ర', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('నొ', 'U'), ('క్కు', '|'), ('చు', '|'), ('జొ', 'U'), ('క్కి', '|'), ('చొ', 'U'), ('క్కి', '|'), ('యూ', 'U'), ('హూ', 'U'), ('య', '|'), ('ని', '|'), ('సై', 'U'), ('గ', '|'), ('నన్', 'U'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('కుం', 'U'), ('డ', '|'), ('న', '|'), ('ద', 'U'), ('ల్తు', '|'), ('వె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('సో', 'U'), ('య', '|'), ('గ', '|'), ('ము', 'U'), ('ప్ప', '|'), ('తి', 'U'), ('ల్ల', '|'), ('న', '|'), ('ను', '|'), ('జూ', 'U'), ('చి', '|'), ('కి', '|'), ('సా', 'U'), ('లు', '|'), ('న', '|'), ('న', 'U'), ('వ్వి', '|'), ('లే', 'U'), ('చి', '|'), ('రా', 'U'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('పు', '|'), ('చు', '|'), ('బి', '|'), ('రా', 'U'), ('లు', '|'), ('న', '|'), ('శ', 'U'), ('య్య', '|'), ('కు', '|'), ('వ్రా', 'U'), ('లి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లన్', 'U'), ('నా', 'U'), ('యు', '|'), ('ర', '|'), ('మా', 'U'), ('ని', '|'), ('మో', 'U'), ('వి', '|'), ('ర', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('నొ', 'U'), ('క్కు', '|'), ('చు', '|'), ('జొ', 'U'), ('క్కి', '|'), ('చొ', 'U'), ('క్కి', '|'), ('యూ', 'U'), ('హూ', 'U'), ('య', '|'), ('ని', '|'), ('సై', 'U'), ('గ', '|'), ('న', 'U'), ('న్బ', '|'), ('లు', '|'), ('క', '|'), ('కుం', 'U'), ('డ', '|'), ('న', '|'), ('ద', 'U'), ('ల్తు', '|'), ('వె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('మో', 'U'), ('హ', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('బం', 'U'), ('చ', '|'), ('శ', '|'), ('రు', '|'), ('మో', 'U'), ('హ', '|'), ('ర', '|'), ('మొ', 'U'), ('గ్గి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('గు', 'U'), ('ల్కు', '|'), ('నీ', 'U'), ('సా', 'U'), ('హ', '|'), ('స', '|'), ('మే', 'U'), ('మ', '|'), ('నన్', 'U'), ('బ', '|'), ('యి', '|'), ('కి', '|'), ('జం', 'U'), ('గు', '|'), ('న', '|'), ('దా', 'U'), ('టి', '|'), ('చె', '|'), ('లం', 'U'), ('గి', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('నీ', 'U'), ('హొ', '|'), ('న', '|'), ('రె', 'U'), ('ల్ల', '|'), ('నే', 'U'), ('ర్ప', '|'), ('ఱు', '|'), ('పు', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రి', '|'), ('వౌ', 'U'), ('దు', '|'), ('వు', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('ద్వ', '|'), ('రా', 'U'), ('రో', 'U'), ('హ', '|'), ('య', '|'), ('ట', 'U'), ('న్న', '|'), ('పే', 'U'), ('రు', '|'), ('ద', '|'), ('గు', '|'), ('రూ', 'U'), ('ఢి', '|'), ('గ', '|'), ('నీ', 'U'), ('యె', '|'), ('డ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('మో', 'U'), ('హ', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('బం', 'U'), ('చ', '|'), ('శ', '|'), ('రు', '|'), ('మో', 'U'), ('హ', '|'), ('ర', '|'), ('మొ', 'U'), ('గ్గి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('గు', 'U'), ('ల్కు', '|'), ('నీ', 'U'), ('సా', 'U'), ('హ', '|'), ('స', '|'), ('మే', 'U'), ('మ', '|'), ('న', 'U'), ('న్బ', '|'), ('యి', '|'), ('కి', '|'), ('జం', 'U'), ('గు', '|'), ('న', '|'), ('దా', 'U'), ('టి', '|'), ('చె', '|'), ('లం', 'U'), ('గి', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('నీ', 'U'), ('హొ', '|'), ('న', '|'), ('రె', 'U'), ('ల్ల', '|'), ('నే', 'U'), ('ర్ప', '|'), ('ఱు', '|'), ('పు', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రి', '|'), ('వౌ', 'U'), ('దు', '|'), ('వు', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('ద్వ', '|'), ('రా', 'U'), ('రో', 'U'), ('హ', '|'), ('య', '|'), ('ట', 'U'), ('న్న', '|'), ('పే', 'U'), ('రు', '|'), ('ద', '|'), ('గు', '|'), ('రూ', 'U'), ('ఢి', '|'), ('గ', '|'), ('నీ', 'U'), ('యె', '|'), ('డ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('లి', '|'), ('త', '|'), ('తి', '|'), ('మ్రో', 'U'), ('త', '|'), ('కున్', 'U'), ('శు', '|'), ('క', '|'), ('పి', '|'), ('కా', 'U'), ('వ', '|'), ('ళి', '|'), ('కూ', 'U'), ('త', '|'), ('కు', '|'), ('మం', 'U'), ('ట', '|'), ('మా', 'U'), ('రి', '|'), ('పూ', 'U'), ('వి', '|'), ('లు', '|'), ('తు', '|'), ('ని', '|'), ('క', 'U'), ('త్తి', '|'), ('కో', 'U'), ('త', '|'), ('కు', '|'), ('న', '|'), ('వీ', 'U'), ('న', '|'), ('స', '|'), ('మీ', 'U'), ('ర', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('నే', 'U'), ('త', '|'), ('కున్', 'U'), ('బొ', '|'), ('లు', '|'), ('పు', '|'), ('గ', '|'), ('జం', 'U'), ('ద్రు', '|'), ('పె', 'U'), ('ళ్లు', '|'), ('డు', '|'), ('క', '|'), ('పో', 'U'), ('త', '|'), ('కు', '|'), ('క్రొ', 'U'), ('వ్వి', '|'), ('రి', '|'), ('మ', 'U'), ('ల్లె', '|'), ('పూ', 'U'), ('త', '|'), ('కున్', 'U'), ('జ', '|'), ('ల', '|'), ('న', '|'), ('ము', '|'), ('నొం', 'U'), ('ది', '|'), ('గుం', 'U'), ('డె', '|'), ('ఝ', '|'), ('లు', '|'), ('ఝ', 'U'), ('ల్లు', '|'), ('మ', '|'), ('నెం', 'U'), ('గ', '|'), ('దె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('అ', '|'), ('లి', '|'), ('త', '|'), ('తి', '|'), ('మ్రో', 'U'), ('త', '|'), ('కు', 'U'), ('న్శు', '|'), ('క', '|'), ('పి', '|'), ('కా', 'U'), ('వ', '|'), ('ళి', '|'), ('కూ', 'U'), ('త', '|'), ('కు', '|'), ('మం', 'U'), ('ట', '|'), ('మా', 'U'), ('రి', '|'), ('పూ', 'U'), ('వి', '|'), ('లు', '|'), ('తు', '|'), ('ని', '|'), ('క', 'U'), ('త్తి', '|'), ('కో', 'U'), ('త', '|'), ('కు', '|'), ('న', '|'), ('వీ', 'U'), ('న', '|'), ('స', '|'), ('మీ', 'U'), ('ర', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('నే', 'U'), ('త', '|'), ('కున్', 'U'), ('బొ', '|'), ('లు', '|'), ('పు', '|'), ('గ', '|'), ('జం', 'U'), ('ద్రు', '|'), ('పె', 'U'), ('ళ్లు', '|'), ('డు', '|'), ('క', '|'), ('పో', 'U'), ('త', '|'), ('కు', '|'), ('క్రొ', 'U'), ('వ్వి', '|'), ('రి', '|'), ('మ', 'U'), ('ల్లె', '|'), ('పూ', 'U'), ('త', '|'), ('కున్', 'U'), ('జ', '|'), ('ల', '|'), ('న', '|'), ('ము', '|'), ('నొం', 'U'), ('ది', '|'), ('గుం', 'U'), ('డె', '|'), ('ఝ', '|'), ('లు', '|'), ('ఝ', 'U'), ('ల్లు', '|'), ('మ', '|'), ('నెం', 'U'), ('గ', '|'), ('దె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('డ', '|'), ('క', '|'), ('టి', '|'), ('సం', 'U'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('బు', '|'), ('రు', '|'), ('సా', 'U'), ('ప', '|'), ('ని', '|'), ('చీ', 'U'), ('రె', '|'), ('ప', '|'), ('యిన్', 'U'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('పా', 'U'), ('వ', '|'), ('డ', '|'), ('త', '|'), ('ళు', '|'), ('కుల్', 'U'), ('న', '|'), ('టిం', 'U'), ('ప', '|'), ('బి', '|'), ('గి', '|'), ('వ', '|'), ('ట్రు', '|'), ('వ', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('ర', 'U'), ('త్న', '|'), ('హా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('త', '|'), ('డ', '|'), ('బ', '|'), ('డి', '|'), ('సం', 'U'), ('ద', '|'), ('డిం', 'U'), ('ప', '|'), ('మ', '|'), ('రు', '|'), ('తం', 'U'), ('త్ర', '|'), ('ము', '|'), ('లం', 'U'), ('ది', '|'), ('య', '|'), ('లు', 'U'), ('గ్గ', '|'), ('డిం', 'U'), ('ప', '|'), ('గా', 'U'), ('బ', '|'), ('డ', '|'), ('క', '|'), ('కు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నీ', 'U'), ('సొ', '|'), ('బ', '|'), ('గు', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('బా', 'U'), ('య', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('జ', '|'), ('డ', '|'), ('క', '|'), ('టి', '|'), ('సం', 'U'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('బు', '|'), ('రు', '|'), ('సా', 'U'), ('ప', '|'), ('ని', '|'), ('చీ', 'U'), ('రె', '|'), ('ప', '|'), ('యి', 'U'), ('న్మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('పా', 'U'), ('వ', '|'), ('డ', '|'), ('త', '|'), ('ళు', '|'), ('కు', 'U'), ('ల్న', '|'), ('టిం', 'U'), ('ప', '|'), ('బి', '|'), ('గి', '|'), ('వ', '|'), ('ట్రు', '|'), ('వ', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('ర', 'U'), ('త్న', '|'), ('హా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('త', '|'), ('డ', '|'), ('బ', '|'), ('డి', '|'), ('సం', 'U'), ('ద', '|'), ('డిం', 'U'), ('ప', '|'), ('మ', '|'), ('రు', '|'), ('తం', 'U'), ('త్ర', '|'), ('ము', '|'), ('లం', 'U'), ('ది', '|'), ('య', '|'), ('లు', 'U'), ('గ్గ', '|'), ('డిం', 'U'), ('ప', '|'), ('గా', 'U'), ('బ', '|'), ('డ', '|'), ('క', '|'), ('కు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నీ', 'U'), ('సొ', '|'), ('బ', '|'), ('గు', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('బా', 'U'), ('య', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('కొ', '|'), ('ద', '|'), ('మ', '|'), ('మి', '|'), ('టా', 'U'), ('రి', '|'), ('చ', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('గో', 'U'), ('రు', '|'), ('ల', '|'), ('పో', 'U'), ('టు', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('వా', 'U'), ('తె', '|'), ('ఱన్', 'U'), ('గు', '|'), ('ది', '|'), ('రి', '|'), ('న', '|'), ('ప', 'U'), ('చ్చి', '|'), ('కా', 'U'), ('టు', '|'), ('క', '|'), ('ను', '|'), ('గో', 'U'), ('న', '|'), ('ల', '|'), ('ని', 'U'), ('ద్దు', '|'), ('ర', '|'), ('పా', 'U'), ('టు', '|'), ('చె', 'U'), ('మ్మ', '|'), ('టల్', 'U'), ('క', '|'), ('ద', '|'), ('లె', '|'), ('డు', '|'), ('మే', 'U'), ('ను', '|'), ('నీ', 'U'), ('టు', '|'), ('ప', '|'), ('ద', '|'), ('కం', 'U'), ('జ', '|'), ('ము', '|'), ('లన్', 'U'), ('ద', '|'), ('డ', '|'), ('బా', 'U'), ('టు', '|'), ('జా', 'U'), ('రు', '|'), ('ప', 'U'), ('య్యె', '|'), ('ద', '|'), ('యె', '|'), ('ద', '|'), ('మా', 'U'), ('టు', '|'), ('నీ', 'U'), ('వు', '|'), ('ప', '|'), ('డ', '|'), ('కిల్', 'U'), ('వె', '|'), ('డ', '|'), ('లం', 'U'), ('ద', '|'), ('గు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('కొ', '|'), ('ద', '|'), ('మ', '|'), ('మి', '|'), ('టా', 'U'), ('రి', '|'), ('చ', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('గో', 'U'), ('రు', '|'), ('ల', '|'), ('పో', 'U'), ('టు', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('వా', 'U'), ('తె', '|'), ('ఱన్', 'U'), ('గు', '|'), ('ది', '|'), ('రి', '|'), ('న', '|'), ('ప', 'U'), ('చ్చి', '|'), ('కా', 'U'), ('టు', '|'), ('క', '|'), ('ను', '|'), ('గో', 'U'), ('న', '|'), ('ల', '|'), ('ని', 'U'), ('ద్దు', '|'), ('ర', '|'), ('పా', 'U'), ('టు', '|'), ('చె', 'U'), ('మ్మ', '|'), ('టల్', 'U'), ('క', '|'), ('ద', '|'), ('లె', '|'), ('డు', '|'), ('మే', 'U'), ('ను', '|'), ('నీ', 'U'), ('టు', '|'), ('ప', '|'), ('ద', '|'), ('కం', 'U'), ('జ', '|'), ('ము', '|'), ('ల', 'U'), ('న్ద', '|'), ('డ', '|'), ('బా', 'U'), ('టు', '|'), ('జా', 'U'), ('రు', '|'), ('ప', 'U'), ('య్యె', '|'), ('ద', '|'), ('యె', '|'), ('ద', '|'), ('మా', 'U'), ('టు', '|'), ('నీ', 'U'), ('వు', '|'), ('ప', '|'), ('డ', '|'), ('కి', 'U'), ('ల్వె', '|'), ('డ', '|'), ('లం', 'U'), ('ద', '|'), ('గు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('ఇం', 'U'), ('చు', '|'), ('క', '|'), ('నొ', 'U'), ('క్క', '|'), ('నా', 'U'), ('డు', '|'), ('ప', '|'), ('డ', '|'), ('కిం', 'U'), ('ట', '|'), ('స', '|'), ('ము', 'U'), ('న్న', '|'), ('త', '|'), ('ద', 'U'), ('ర్ప', '|'), ('ణా', 'U'), ('ప్తి', '|'), ('నై', 'U'), ('జాం', 'U'), ('చి', '|'), ('త', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('ప', '|'), ('రాం', 'U'), ('గ', '|'), ('న', '|'), ('లౌ', 'U'), ('య', '|'), ('ని', '|'), ('య', 'U'), ('ల్గి', '|'), ('పో', 'U'), ('వ', '|'), ('వా', 'U'), ('రిం', 'U'), ('చు', '|'), ('చు', '|'), ('నీ', 'U'), ('డ', '|'), ('జూ', 'U'), ('చి', '|'), ('బె', '|'), ('ద', '|'), ('రే', 'U'), ('వ', '|'), ('ని', '|'), ('న', 'U'), ('వ్వు', '|'), ('చు', '|'), ('మో', 'U'), ('ము', '|'), ('ద్రి', 'U'), ('ప్పి', '|'), ('నీ', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('మ', '|'), ('నన్', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('ద', '|'), ('య', '|'), ('సే', 'U'), ('తు', '|'), ('వు', '|'), ('గా', 'U'), ('న', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('ఇం', 'U'), ('చు', '|'), ('క', '|'), ('నొ', 'U'), ('క్క', '|'), ('నా', 'U'), ('డు', '|'), ('ప', '|'), ('డ', '|'), ('కిం', 'U'), ('ట', '|'), ('స', '|'), ('ము', 'U'), ('న్న', '|'), ('త', '|'), ('ద', 'U'), ('ర్ప', '|'), ('ణా', 'U'), ('ప్తి', '|'), ('నై', 'U'), ('జాం', 'U'), ('చి', '|'), ('త', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('ప', '|'), ('రాం', 'U'), ('గ', '|'), ('న', '|'), ('లౌ', 'U'), ('య', '|'), ('ని', '|'), ('య', 'U'), ('ల్గి', '|'), ('పో', 'U'), ('వ', '|'), ('వా', 'U'), ('రిం', 'U'), ('చు', '|'), ('చు', '|'), ('నీ', 'U'), ('డ', '|'), ('జూ', 'U'), ('చి', '|'), ('బె', '|'), ('ద', '|'), ('రే', 'U'), ('వ', '|'), ('ని', '|'), ('న', 'U'), ('వ్వు', '|'), ('చు', '|'), ('మో', 'U'), ('ము', '|'), ('ద్రి', 'U'), ('ప్పి', '|'), ('నీ', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('మ', '|'), ('న', 'U'), ('న్గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('ద', '|'), ('య', '|'), ('సే', 'U'), ('తు', '|'), ('వు', '|'), ('గా', 'U'), ('న', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('రం', 'U'), ('జి', '|'), ('లం', 'U'), ('గ', '|'), ('న', '|'), ('ల', '|'), ('చి', 'U'), ('త్త', '|'), ('జు', '|'), ('ప', 'U'), ('ట్ట', '|'), ('పు', '|'), ('దం', 'U'), ('తి', '|'), ('వై', 'U'), ('వ', 'U'), ('త్తు', '|'), ('వు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('చి', '|'), ('త్రి', '|'), ('త', '|'), ('మ', '|'), ('యి', 'U'), ('బ్బ', '|'), ('డి', '|'), ('నుం', 'U'), ('డె', '|'), ('డు', '|'), ('న', 'U'), ('న్ను', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('మె', 'U'), ('త్తు', '|'), ('వొ', '|'), ('మె', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('సొ', '|'), ('ల', '|'), ('పు', '|'), ('మేన్', 'U'), ('వె', '|'), ('ద', '|'), ('దీ', 'U'), ('ర', '|'), ('గ', '|'), ('మో', 'U'), ('వి', '|'), ('నా', 'U'), ('న', '|'), ('కన్', 'U'), ('బి', 'U'), ('త్తు', '|'), ('వొ', '|'), ('నీ', 'U'), ('ఋ', '|'), ('ణం', 'U'), ('బు', '|'), ('లి', '|'), ('క', '|'), ('యె', 'U'), ('న్న', '|'), ('డు', '|'), ('దీ', 'U'), ('ర్తు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('రం', 'U'), ('జి', '|'), ('లం', 'U'), ('గ', '|'), ('న', '|'), ('ల', '|'), ('చి', 'U'), ('త్త', '|'), ('జు', '|'), ('ప', 'U'), ('ట్ట', '|'), ('పు', '|'), ('దం', 'U'), ('తి', '|'), ('వై', 'U'), ('వ', 'U'), ('త్తు', '|'), ('వు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('చి', '|'), ('త్రి', '|'), ('త', '|'), ('మ', '|'), ('యి', 'U'), ('బ్బ', '|'), ('డి', '|'), ('నుం', 'U'), ('డె', '|'), ('డు', '|'), ('న', 'U'), ('న్ను', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('మె', 'U'), ('త్తు', '|'), ('వొ', '|'), ('మె', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('సొ', '|'), ('ల', '|'), ('పు', '|'), ('మే', 'U'), ('న్వె', '|'), ('ద', '|'), ('దీ', 'U'), ('ర', '|'), ('గ', '|'), ('మో', 'U'), ('వి', '|'), ('నా', 'U'), ('న', '|'), ('కన్', 'U'), ('బి', 'U'), ('త్తు', '|'), ('వొ', '|'), ('నీ', 'U'), ('ఋ', '|'), ('ణం', 'U'), ('బు', '|'), ('లి', '|'), ('క', '|'), ('యె', 'U'), ('న్న', '|'), ('డు', '|'), ('దీ', 'U'), ('ర్తు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[('వ', 'U'), ('త్తు', '|'), ('న', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('ద', '|'), ('యన్', 'U'), ('మ్మ', '|'), ('టం', 'U'), ('చు', '|'), ('మో', 'U'), ('హ', 'U'), ('మ్ము', '|'), ('న', '|'), ('కౌ', 'U'), ('గ', '|'), ('లిం', 'U'), ('చు', '|'), ('కొ', '|'), ('న', '|'), ('న', 'U'), ('క్కు', '|'), ('న', '|'), ('జే', 'U'), ('ర్చి', '|'), ('సి', 'U'), ('ల్లు', '|'), ('గ', '|'), ('తి', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('న', '|'), ('శ్రు', '|'), ('లు', '|'), ('క', 'U'), ('మ్మ', '|'), ('దై', 'U'), ('న్య', '|'), ('ము', '|'), ('లెం', 'U'), ('చు', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('వ', 'U'), ('త్తు', '|'), ('న', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('ద', '|'), ('య', 'U'), ('న్మ్మ', '|'), ('టం', 'U'), ('చు', '|'), ('మో', 'U'), ('హ', 'U'), ('మ్ము', '|'), ('న', '|'), ('కౌ', 'U'), ('గ', '|'), ('లిం', 'U'), ('చు', '|'), ('కొ', '|'), ('న', '|'), ('న', 'U'), ('క్కు', '|'), ('న', '|'), ('జే', 'U'), ('ర్చి', '|'), ('సి', 'U'), ('ల్లు', '|'), ('గ', '|'), ('తి', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('న', '|'), ('శ్రు', '|'), ('లు', '|'), ('క', 'U'), ('మ్మ', '|'), ('దై', 'U'), ('న్య', '|'), ('ము', '|'), ('లెం', 'U'), ('చు', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('న', '|'), ('క', '|'), ('పు', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('ని', 'U'), ('న్ను', '|'), ('క', '|'), ('ను', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('నీ', 'U'), ('దు', '|'), ('చా', 'U'), ('తు', '|'), ('రీ', 'U'), ('వి', '|'), ('న', '|'), ('య', '|'), ('వ', '|'), ('చో', 'U'), ('గ', '|'), ('తుల్', 'U'), ('వి', '|'), ('నె', '|'), ('డు', '|'), ('వీ', 'U'), ('ను', '|'), ('లు', '|'), ('వీ', 'U'), ('ను', '|'), ('లు', '|'), ('నీ', 'U'), ('త', '|'), ('నూ', 'U'), ('ల', '|'), ('తం', 'U'), ('బె', '|'), ('న', '|'), ('గె', '|'), ('డు', '|'), ('మే', 'U'), ('ను', '|'), ('మే', 'U'), ('ను', '|'), ('త', '|'), ('మి', '|'), ('ని', 'U'), ('న్నె', '|'), ('పు', '|'), ('డున్', 'U'), ('మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('న', '|'), ('రం', 'U'), ('జ', '|'), ('న', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చ', '|'), ('కా', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('క', '|'), ('న', '|'), ('క', '|'), ('పు', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('ని', 'U'), ('న్ను', '|'), ('క', '|'), ('ను', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('నీ', 'U'), ('దు', '|'), ('చా', 'U'), ('తు', '|'), ('రీ', 'U'), ('వి', '|'), ('న', '|'), ('య', '|'), ('వ', '|'), ('చో', 'U'), ('గ', '|'), ('తు', 'U'), ('ల్వి', '|'), ('నె', '|'), ('డు', '|'), ('వీ', 'U'), ('ను', '|'), ('లు', '|'), ('వీ', 'U'), ('ను', '|'), ('లు', '|'), ('నీ', 'U'), ('త', '|'), ('నూ', 'U'), ('ల', '|'), ('తం', 'U'), ('బె', '|'), ('న', '|'), ('గె', '|'), ('డు', '|'), ('మే', 'U'), ('ను', '|'), ('మే', 'U'), ('ను', '|'), ('త', '|'), ('మి', '|'), ('ని', 'U'), ('న్నె', '|'), ('పు', '|'), ('డు', 'U'), ('న్మ', '|'), ('రు', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('న', '|'), ('రం', 'U'), ('జ', '|'), ('న', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చ', '|'), ('కా', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[('కు', '|'), ('లు', '|'), ('కు', '|'), ('చు', '|'), ('గే', 'U'), ('ళి', '|'), ('సౌ', 'U'), ('ధ', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('వె', '|'), ('స', '|'), ('నీ', 'U'), ('వ', '|'), ('రు', '|'), ('దెం', 'U'), ('చి', '|'), ('నా', 'U'), ('దు', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('వ', '|'), ('డి', '|'), ('మూ', 'U'), ('య', '|'), ('నే', 'U'), ('ని', '|'), ('ను', '|'), ('గ', '|'), ('నుం', 'U'), ('గొ', '|'), ('ను', '|'), ('లా', 'U'), ('గు', '|'), ('మో', 'U'), ('ము', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లు', '|'), ('వ', '|'), ('ళు', '|'), ('లు', 'U'), ('ల్క', '|'), ('వే', 'U'), ('సి', '|'), ('పి', '|'), ('రు', '|'), ('దు', '|'), ('ప', 'U'), ('ల్మ', '|'), ('రు', '|'), ('నం', 'U'), ('టు', '|'), ('చు', '|'), ('నీ', 'U'), ('వె', '|'), ('లా', 'U'), ('గి', '|'), ('నన్', 'U'), ('భ', '|'), ('ళి', '|'), ('భ', '|'), ('ళి', '|'), ('యం', 'U'), ('చు', '|'), ('న', 'U'), ('వ్వు', '|'), ('దు', '|'), ('వు', '|'), ('ప', 'U'), ('క్క', '|'), ('ను', '|'), ('పై', 'U'), ('బ', '|'), ('డి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('కు', '|'), ('లు', '|'), ('కు', '|'), ('చు', '|'), ('గే', 'U'), ('ళి', '|'), ('సౌ', 'U'), ('ధ', '|'), ('ము', '|'), ('న', '|'), ('కు', 'U'), ('న్వె', '|'), ('స', '|'), ('నీ', 'U'), ('వ', '|'), ('రు', '|'), ('దెం', 'U'), ('చి', '|'), ('నా', 'U'), ('దు', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('వ', '|'), ('డి', '|'), ('మూ', 'U'), ('య', '|'), ('నే', 'U'), ('ని', '|'), ('ను', '|'), ('గ', '|'), ('నుం', 'U'), ('గొ', '|'), ('ను', '|'), ('లా', 'U'), ('గు', '|'), ('మో', 'U'), ('ము', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లు', '|'), ('వ', '|'), ('ళు', '|'), ('లు', 'U'), ('ల్క', '|'), ('వే', 'U'), ('సి', '|'), ('పి', '|'), ('రు', '|'), ('దు', '|'), ('ప', 'U'), ('ల్మ', '|'), ('రు', '|'), ('నం', 'U'), ('టు', '|'), ('చు', '|'), ('నీ', 'U'), ('వె', '|'), ('లా', 'U'), ('గి', '|'), ('నన్', 'U'), ('భ', '|'), ('ళి', '|'), ('భ', '|'), ('ళి', '|'), ('యం', 'U'), ('చు', '|'), ('న', 'U'), ('వ్వు', '|'), ('దు', '|'), ('వు', '|'), ('ప', 'U'), ('క్క', '|'), ('ను', '|'), ('పై', 'U'), ('బ', '|'), ('డి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('ద', '|'), ('ను', '|'), ('డు', '|'), ('డా', 'U'), ('సె', '|'), ('బూ', 'U'), ('వి', '|'), ('లు', '|'), ('తు', '|'), ('మ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('లం', 'U'), ('ట', '|'), ('గ', '|'), ('నే', 'U'), ('సె', '|'), ('న', 'U'), ('క్క', '|'), ('టా', 'U'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('ము', '|'), ('దూ', 'U'), ('సె', '|'), ('దా', 'U'), ('ని', '|'), ('ప', '|'), ('యి', '|'), ('నిం', 'U'), ('దు', '|'), ('డు', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('గా', 'U'), ('సె', '|'), ('గో', 'U'), ('కి', '|'), ('లల్', 'U'), ('చె', '|'), ('ద', '|'), ('ర', '|'), ('క', '|'), ('కూ', 'U'), ('సె', '|'), ('జి', 'U'), ('ల్క', '|'), ('రొ', '|'), ('ద', '|'), ('చే', 'U'), ('సె', '|'), ('న', '|'), ('ళుల్', 'U'), ('వ', '|'), ('డి', '|'), ('మ్రో', 'U'), ('సె', '|'), ('నె', 'U'), ('ట్టు', '|'), ('లో', 'U'), ('ర్చె', '|'), ('ద', '|'), ('వి', '|'), ('ధి', '|'), ('ని', 'U'), ('న్ను', '|'), ('న', 'U'), ('న్నె', '|'), ('డ', '|'), ('ల', '|'), ('జే', 'U'), ('సె', '|'), ('దు', '|'), ('రా', 'U'), ('త్మ', '|'), ('త', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('మ', '|'), ('ద', '|'), ('ను', '|'), ('డు', '|'), ('డా', 'U'), ('సె', '|'), ('బూ', 'U'), ('వి', '|'), ('లు', '|'), ('తు', '|'), ('మ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('లం', 'U'), ('ట', '|'), ('గ', '|'), ('నే', 'U'), ('సె', '|'), ('న', 'U'), ('క్క', '|'), ('టా', 'U'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('ము', '|'), ('దూ', 'U'), ('సె', '|'), ('దా', 'U'), ('ని', '|'), ('ప', '|'), ('యి', '|'), ('నిం', 'U'), ('దు', '|'), ('డు', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('గా', 'U'), ('సె', '|'), ('గో', 'U'), ('కి', '|'), ('లల్', 'U'), ('చె', '|'), ('ద', '|'), ('ర', '|'), ('క', '|'), ('కూ', 'U'), ('సె', '|'), ('జి', 'U'), ('ల్క', '|'), ('రొ', '|'), ('ద', '|'), ('చే', 'U'), ('సె', '|'), ('న', '|'), ('ళు', 'U'), ('ల్వ', '|'), ('డి', '|'), ('మ్రో', 'U'), ('సె', '|'), ('నె', 'U'), ('ట్టు', '|'), ('లో', 'U'), ('ర్చె', '|'), ('ద', '|'), ('వి', '|'), ('ధి', '|'), ('ని', 'U'), ('న్ను', '|'), ('న', 'U'), ('న్నె', '|'), ('డ', '|'), ('ల', '|'), ('జే', 'U'), ('సె', '|'), ('దు', '|'), ('రా', 'U'), ('త్మ', '|'), ('త', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[('హా', 'U'), ('త', '|'), ('ర', '|'), ('ళా', 'U'), ('క్షి', '|'), ('హా', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('హా', 'U'), ('చె', '|'), ('లి', '|'), ('నీ', 'U'), ('వు', '|'), ('ను', '|'), ('నే', 'U'), ('ను', '|'), ('మే', 'U'), ('డ', '|'), ('లో', 'U'), ('గౌ', 'U'), ('తు', '|'), ('క', '|'), ('మం', 'U'), ('దు', '|'), ('ను', 'U'), ('న్హ', '|'), ('వు', '|'), ('సు', '|'), ('ఖా', 'U'), ('న', '|'), ('పు', '|'), ('వా', 'U'), ('ర', '|'), ('ము', '|'), ('చిం', 'U'), ('ద', '|'), ('మ', 'U'), ('ల్లి', '|'), ('కా', 'U'), ('నూ', 'U'), ('త', '|'), ('న', '|'), ('శ', 'U'), ('య్య', '|'), ('పై', 'U'), ('మ', '|'), ('రు', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('ము', '|'), ('లొం', 'U'), ('దు', '|'), ('మ', '|'), ('జా', 'U'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('తే', 'U'), ('రా', 'U'), ('తి', '|'), ('రి', '|'), ('కం', 'U'), ('టి', '|'), ('కిన్', 'U'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('రా', 'U'), ('ది', '|'), ('క', '|'), ('నె', 'U'), ('ట్లొ', '|'), ('కొ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('హా', 'U'), ('త', '|'), ('ర', '|'), ('ళా', 'U'), ('క్షి', '|'), ('హా', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('హా', 'U'), ('చె', '|'), ('లి', '|'), ('నీ', 'U'), ('వు', '|'), ('ను', '|'), ('నే', 'U'), ('ను', '|'), ('మే', 'U'), ('డ', '|'), ('లో', 'U'), ('గౌ', 'U'), ('తు', '|'), ('క', '|'), ('మం', 'U'), ('దు', '|'), ('ను', 'U'), ('న్హ', '|'), ('వు', '|'), ('సు', '|'), ('ఖా', 'U'), ('న', '|'), ('పు', '|'), ('వా', 'U'), ('ర', '|'), ('ము', '|'), ('చిం', 'U'), ('ద', '|'), ('మ', 'U'), ('ల్లి', '|'), ('కా', 'U'), ('నూ', 'U'), ('త', '|'), ('న', '|'), ('శ', 'U'), ('య్య', '|'), ('పై', 'U'), ('మ', '|'), ('రు', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('ము', '|'), ('లొం', 'U'), ('దు', '|'), ('మ', '|'), ('జా', 'U'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('తే', 'U'), ('రా', 'U'), ('తి', '|'), ('రి', '|'), ('కం', 'U'), ('టి', '|'), ('కి', 'U'), ('న్ని', '|'), ('దు', '|'), ('ర', '|'), ('రా', 'U'), ('ది', '|'), ('క', '|'), ('నె', 'U'), ('ట్లొ', '|'), ('కొ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('లున్', 'U'), ('మ', '|'), ('తా', 'U'), ('బు', '|'), ('లు', '|'), ('ను', '|'), ('ది', 'U'), ('వ్వ', '|'), ('టు', '|'), ('లున్', 'U'), ('కొ', '|'), ('ర', '|'), ('వి', '|'), ('యున్', 'U'), ('శ', '|'), ('శాం', 'U'), ('కు', '|'), ('డున్', 'U'), ('దీ', 'U'), ('పి', '|'), ('తు', '|'), ('లై', 'U'), ('వె', '|'), ('లిం', 'U'), ('గి', '|'), ('న', '|'), ('ను', '|'), ('నీ', 'U'), ('మె', '|'), ('యి', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('నీ', 'U'), ('యొ', '|'), ('యా', 'U'), ('ర', '|'), ('పుం', 'U'), ('జూ', 'U'), ('పు', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('ల', '|'), ('సొం', 'U'), ('పు', '|'), ('ను', '|'), ('గ', 'U'), ('న్గొ', '|'), ('న', '|'), ('కు', 'U'), ('న్న', '|'), ('జి', 'U'), ('త్త', '|'), ('వి', 'U'), ('క్షే', 'U'), ('ప', '|'), ('ము', '|'), ('నొం', 'U'), ('ది', '|'), ('రే', 'U'), ('ప', '|'), ('గ', '|'), ('లు', '|'), ('చీ', 'U'), ('క', '|'), ('టి', '|'), ('యౌ', 'U'), ('గ', '|'), ('దె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('లు', 'U'), ('న్మ', '|'), ('తా', 'U'), ('బు', '|'), ('లు', '|'), ('ను', '|'), ('ది', 'U'), ('వ్వ', '|'), ('టు', '|'), ('లు', 'U'), ('న్కొ', '|'), ('ర', '|'), ('వి', '|'), ('యు', 'U'), ('న్శ', '|'), ('శాం', 'U'), ('కు', '|'), ('డున్', 'U'), ('దీ', 'U'), ('పి', '|'), ('తు', '|'), ('లై', 'U'), ('వె', '|'), ('లిం', 'U'), ('గి', '|'), ('న', '|'), ('ను', '|'), ('నీ', 'U'), ('మె', '|'), ('యి', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('నీ', 'U'), ('యొ', '|'), ('యా', 'U'), ('ర', '|'), ('పుం', 'U'), ('జూ', 'U'), ('పు', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('ల', '|'), ('సొం', 'U'), ('పు', '|'), ('ను', '|'), ('గ', 'U'), ('న్గొ', '|'), ('న', '|'), ('కు', 'U'), ('న్న', '|'), ('జి', 'U'), ('త్త', '|'), ('వి', 'U'), ('క్షే', 'U'), ('ప', '|'), ('ము', '|'), ('నొం', 'U'), ('ది', '|'), ('రే', 'U'), ('ప', '|'), ('గ', '|'), ('లు', '|'), ('చీ', 'U'), ('క', '|'), ('టి', '|'), ('యౌ', 'U'), ('గ', '|'), ('దె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('క', '|'), ('టి', '|'), ('పెం', 'U'), ('పు', '|'), ('చే', 'U'), ('త', '|'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('త', '|'), ('ల', '|'), ('మున్', 'U'), ('వ', '|'), ('శ', '|'), ('మ', 'U'), ('య్యె', '|'), ('కో', 'U'), ('మ', '|'), ('లీ', 'U'), ('నీ', 'U'), ('కు', '|'), ('చ', '|'), ('కుం', 'U'), ('భ', '|'), ('యు', 'U'), ('గ్మ', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('ర్జి', '|'), ('త', '|'), ('మ', 'U'), ('య్యె', '|'), ('సు', '|'), ('రా', 'U'), ('ల', '|'), ('యం', 'U'), ('బ', '|'), ('హో', 'U'), ('చే', 'U'), ('కొ', '|'), ('న', '|'), ('గ', 'U'), ('ల్గె', '|'), ('నీ', 'U'), ('దు', '|'), ('జ', '|'), ('డ', '|'), ('చే', 'U'), ('న', '|'), ('హి', '|'), ('ధా', 'U'), ('మ', '|'), ('ము', '|'), ('ని', 'U'), ('న్ను', '|'), ('గూ', 'U'), ('డి', '|'), ('ము', 'U'), ('ల్లో', 'U'), ('క', '|'), ('ము', '|'), ('లే', 'U'), ('లి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('దు', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('నీ', 'U'), ('క', '|'), ('టి', '|'), ('పెం', 'U'), ('పు', '|'), ('చే', 'U'), ('త', '|'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('త', '|'), ('ల', '|'), ('ము', 'U'), ('న్వ', '|'), ('శ', '|'), ('మ', 'U'), ('య్యె', '|'), ('కో', 'U'), ('మ', '|'), ('లీ', 'U'), ('నీ', 'U'), ('కు', '|'), ('చ', '|'), ('కుం', 'U'), ('భ', '|'), ('యు', 'U'), ('గ్మ', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('ర్జి', '|'), ('త', '|'), ('మ', 'U'), ('య్యె', '|'), ('సు', '|'), ('రా', 'U'), ('ల', '|'), ('యం', 'U'), ('బ', '|'), ('హో', 'U'), ('చే', 'U'), ('కొ', '|'), ('న', '|'), ('గ', 'U'), ('ల్గె', '|'), ('నీ', 'U'), ('దు', '|'), ('జ', '|'), ('డ', '|'), ('చే', 'U'), ('న', '|'), ('హి', '|'), ('ధా', 'U'), ('మ', '|'), ('ము', '|'), ('ని', 'U'), ('న్ను', '|'), ('గూ', 'U'), ('డి', '|'), ('ము', 'U'), ('ల్లో', 'U'), ('క', '|'), ('ము', '|'), ('లే', 'U'), ('లి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('ము', '|'), ('ద', '|'), ('మం', 'U'), ('దు', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('జా', 'U'), ('ఫ', '|'), ('రా', 'U'), ('ర', '|'), ('స', '|'), ('పు', '|'), ('జి', 'U'), ('మ్మ', '|'), ('న', '|'), ('గ్రో', 'U'), ('వు', '|'), ('ల', '|'), ('జి', 'U'), ('మ్ము', '|'), ('లా', 'U'), ('ట', '|'), ('డా', 'U'), ('ల్క', '|'), ('ల', '|'), ('ర', '|'), ('త', '|'), ('నా', 'U'), ('ల', '|'), ('మే', 'U'), ('డ', '|'), ('గ', '|'), ('దు', '|'), ('లం', 'U'), ('గ', '|'), ('డు', '|'), ('దా', 'U'), ('గు', '|'), ('డు', '|'), ('మూ', 'U'), ('త', '|'), ('లా', 'U'), ('ట', '|'), ('వే', 'U'), ('డ్క', '|'), ('ల', '|'), ('ద', '|'), ('గు', '|'), ('గం', 'U'), ('జి', '|'), ('ఫా', 'U'), ('ట', '|'), ('సొ', '|'), ('గ', '|'), ('టాల్', 'U'), ('చ', '|'), ('ద', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('లా', 'U'), ('ట', '|'), ('ము', 'U'), ('న్ను', '|'), ('గా', 'U'), ('న', '|'), ('ల', '|'), ('రె', '|'), ('డు', '|'), ('న', 'U'), ('న్ని', '|'), ('చో', 'U'), ('ద్య', '|'), ('ము', '|'), ('లు', '|'), ('నా', 'U'), ('డు', '|'), ('దు', '|'), ('మో', 'U'), ('త', '|'), ('మి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('చె', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('జా', 'U'), ('ఫ', '|'), ('రా', 'U'), ('ర', '|'), ('స', '|'), ('పు', '|'), ('జి', 'U'), ('మ్మ', '|'), ('న', '|'), ('గ్రో', 'U'), ('వు', '|'), ('ల', '|'), ('జి', 'U'), ('మ్ము', '|'), ('లా', 'U'), ('ట', '|'), ('డా', 'U'), ('ల్క', '|'), ('ల', '|'), ('ర', '|'), ('త', '|'), ('నా', 'U'), ('ల', '|'), ('మే', 'U'), ('డ', '|'), ('గ', '|'), ('దు', '|'), ('లం', 'U'), ('గ', '|'), ('డు', '|'), ('దా', 'U'), ('గు', '|'), ('డు', '|'), ('మూ', 'U'), ('త', '|'), ('లా', 'U'), ('ట', '|'), ('వే', 'U'), ('డ్క', '|'), ('ల', '|'), ('ద', '|'), ('గు', '|'), ('గం', 'U'), ('జి', '|'), ('ఫా', 'U'), ('ట', '|'), ('సొ', '|'), ('గ', '|'), ('టా', 'U'), ('ల్చ', '|'), ('ద', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('లా', 'U'), ('ట', '|'), ('ము', 'U'), ('న్ను', '|'), ('గా', 'U'), ('న', '|'), ('ల', '|'), ('రె', '|'), ('డు', '|'), ('న', 'U'), ('న్ని', '|'), ('చో', 'U'), ('ద్య', '|'), ('ము', '|'), ('లు', '|'), ('నా', 'U'), ('డు', '|'), ('దు', '|'), ('మో', 'U'), ('త', '|'), ('మి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('పు', '|'), ('ర', '|'), ('పు', '|'), ('దా', 'U'), ('వి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('ను', '|'), ('గ', 'U'), ('ల్ప', '|'), ('గు', '|'), ('ళు', 'U'), ('చ్ఛ', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చి', '|'), ('మా', 'U'), ('ట', '|'), ('లో', 'U'), ('న', '|'), ('ప', '|'), ('రి', '|'), ('మి', '|'), ('తా', 'U'), ('మృ', '|'), ('తం', 'U'), ('బొ', '|'), ('స', '|'), ('గి', '|'), ('య', 'U'), ('బ్బు', '|'), ('ర', '|'), ('పున్', 'U'), ('సు', '|'), ('ర', '|'), ('తా', 'U'), ('ప్తి', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('పు', '|'), ('ర', '|'), ('తి', '|'), ('సొం', 'U'), ('పు', '|'), ('గొ', 'U'), ('ల్పు', '|'), ('ని', '|'), ('ను', '|'), ('న', 'U'), ('క్క', '|'), ('డ', '|'), ('నే', 'U'), ('క', '|'), ('ను', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('వే', 'U'), ('య', '|'), ('కె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('ను', '|'), ('జూ', 'U'), ('డ', '|'), ('కుం', 'U'), ('డ', '|'), ('న', '|'), ('హ', '|'), ('హా', 'U'), ('వి', '|'), ('ధి', '|'), ('చే', 'U'), ('సె', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('క', '|'), ('పు', '|'), ('ర', '|'), ('పు', '|'), ('దా', 'U'), ('వి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('ను', '|'), ('గ', 'U'), ('ల్ప', '|'), ('గు', '|'), ('ళు', 'U'), ('చ్ఛ', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చి', '|'), ('మా', 'U'), ('ట', '|'), ('లో', 'U'), ('న', '|'), ('ప', '|'), ('రి', '|'), ('మి', '|'), ('తా', 'U'), ('మృ', '|'), ('తం', 'U'), ('బొ', '|'), ('స', '|'), ('గి', '|'), ('య', 'U'), ('బ్బు', '|'), ('ర', '|'), ('పు', 'U'), ('న్సు', '|'), ('ర', '|'), ('తా', 'U'), ('ప్తి', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('పు', '|'), ('ర', '|'), ('తి', '|'), ('సొం', 'U'), ('పు', '|'), ('గొ', 'U'), ('ల్పు', '|'), ('ని', '|'), ('ను', '|'), ('న', 'U'), ('క్క', '|'), ('డ', '|'), ('నే', 'U'), ('క', '|'), ('ను', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('వే', 'U'), ('య', '|'), ('కె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('ను', '|'), ('జూ', 'U'), ('డ', '|'), ('కుం', 'U'), ('డ', '|'), ('న', '|'), ('హ', '|'), ('హా', 'U'), ('వి', '|'), ('ధి', '|'), ('చే', 'U'), ('సె', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[('చి', '|'), ('లు', '|'), ('క', '|'), ('కు', '|'), ('నా', 'U'), ('దు', '|'), ('పే', 'U'), ('ర', '|'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లె', '|'), ('డు', '|'), ('ప', 'U'), ('ద్య', '|'), ('ము', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చుం', 'U'), ('డ', '|'), ('నా', 'U'), ('య', '|'), ('లు', '|'), ('కు', '|'), ('డు', '|'), ('గా', 'U'), ('గ', '|'), ('నూ', 'U'), ('ర', '|'), ('కె', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('చే', 'U'), ('సె', '|'), ('డు', '|'), ('రీ', 'U'), ('తి', '|'), ('నుం', 'U'), ('డ', '|'), ('గా', 'U'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('లు', '|'), ('సై', 'U'), ('గ', '|'), ('లున్', 'U'), ('బ', '|'), ('రి', '|'), ('హ', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('కో', 'U'), ('ప', '|'), ('పు', '|'), ('జూ', 'U'), ('పు', '|'), ('చే', 'U'), ('త', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('ల', '|'), ('ము', '|'), ('డి', '|'), ('యొ', 'U'), ('ప్పు', '|'), ('శే', 'U'), ('ష', '|'), ('ర', '|'), ('తి', '|'), ('మా', 'U'), ('ర', '|'), ('ధ', '|'), ('ను', 'U'), ('ర్గ', '|'), ('తి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('చి', '|'), ('లు', '|'), ('క', '|'), ('కు', '|'), ('నా', 'U'), ('దు', '|'), ('పే', 'U'), ('ర', '|'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లె', '|'), ('డు', '|'), ('ప', 'U'), ('ద్య', '|'), ('ము', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చుం', 'U'), ('డ', '|'), ('నా', 'U'), ('య', '|'), ('లు', '|'), ('కు', '|'), ('డు', '|'), ('గా', 'U'), ('గ', '|'), ('నూ', 'U'), ('ర', '|'), ('కె', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('చే', 'U'), ('సె', '|'), ('డు', '|'), ('రీ', 'U'), ('తి', '|'), ('నుం', 'U'), ('డ', '|'), ('గా', 'U'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('లు', '|'), ('సై', 'U'), ('గ', '|'), ('లు', 'U'), ('న్బ', '|'), ('రి', '|'), ('హ', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('కో', 'U'), ('ప', '|'), ('పు', '|'), ('జూ', 'U'), ('పు', '|'), ('చే', 'U'), ('త', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('ల', '|'), ('ము', '|'), ('డి', '|'), ('యొ', 'U'), ('ప్పు', '|'), ('శే', 'U'), ('ష', '|'), ('ర', '|'), ('తి', '|'), ('మా', 'U'), ('ర', '|'), ('ధ', '|'), ('ను', 'U'), ('ర్గ', '|'), ('తి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[('హా', 'U'), ('ర', '|'), ('ము', '|'), ('ల', 'U'), ('ల్ల', '|'), ('నన్', 'U'), ('గు', '|'), ('చ', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('జ', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('యొ', 'U'), ('య్యా', 'U'), ('ర', '|'), ('ము', '|'), ('నో', 'U'), ('ర', '|'), ('చూ', 'U'), ('పు', '|'), ('ల', '|'), ('యొ', '|'), ('యా', 'U'), ('ర', '|'), ('ము', '|'), ('న', 'U'), ('వ్వు', '|'), ('చు', '|'), ('జెం', 'U'), ('త', '|'), ('ని', 'U'), ('ల్చు', '|'), ('నొ', 'U'), ('య్యా', 'U'), ('ర', '|'), ('ము', '|'), ('శ', 'U'), ('య్య', '|'), ('చెం', 'U'), ('దె', '|'), ('డు', '|'), ('నొ', '|'), ('యా', 'U'), ('ర', '|'), ('ము', '|'), ('కే', 'U'), ('ళి', '|'), ('కి', '|'), ('దా', 'U'), ('ర్ప', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నొ', 'U'), ('య్యా', 'U'), ('ర', '|'), ('ము', '|'), ('నా', 'U'), ('దు', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('ము', '|'), ('నం', 'U'), ('దె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('వు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('హా', 'U'), ('ర', '|'), ('ము', '|'), ('ల', 'U'), ('ల్ల', '|'), ('న', 'U'), ('న్గు', '|'), ('చ', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('జ', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('యొ', 'U'), ('య్యా', 'U'), ('ర', '|'), ('ము', '|'), ('నో', 'U'), ('ర', '|'), ('చూ', 'U'), ('పు', '|'), ('ల', '|'), ('యొ', '|'), ('యా', 'U'), ('ర', '|'), ('ము', '|'), ('న', 'U'), ('వ్వు', '|'), ('చు', '|'), ('జెం', 'U'), ('త', '|'), ('ని', 'U'), ('ల్చు', '|'), ('నొ', 'U'), ('య్యా', 'U'), ('ర', '|'), ('ము', '|'), ('శ', 'U'), ('య్య', '|'), ('చెం', 'U'), ('దె', '|'), ('డు', '|'), ('నొ', '|'), ('యా', 'U'), ('ర', '|'), ('ము', '|'), ('కే', 'U'), ('ళి', '|'), ('కి', '|'), ('దా', 'U'), ('ర్ప', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నొ', 'U'), ('య్యా', 'U'), ('ర', '|'), ('ము', '|'), ('నా', 'U'), ('దు', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('ము', '|'), ('నం', 'U'), ('దె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('వు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[('హా', 'U'), ('ర', '|'), ('ము', '|'), ('లొ', 'U'), ('త్తు', '|'), ('నం', 'U'), ('చు', '|'), ('బ', '|'), ('రి', '|'), ('హా', 'U'), ('ర', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('క', '|'), ('వుం', 'U'), ('గి', '|'), ('లిం', 'U'), ('చి', 'U'), ('వ్యా', 'U'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('దం', 'U'), ('బు', '|'), ('నన్', 'U'), ('ర', '|'), ('తి', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('స', 'U'), ('ల్పి', '|'), ('మ', '|'), ('నో', 'U'), ('జ', '|'), ('బా', 'U'), ('ధ', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('నా', 'U'), ('దు', 'U'), ('వ్య', '|'), ('వ', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('ని', 'U'), ('ల్వ', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('ని', '|'), ('ద్ర', 'U'), ('వ్యా', 'U'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('గాం', 'U'), ('తు', '|'), ('నే', 'U'), ('న', '|'), ('ను', '|'), ('మ', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('డం', 'U'), ('దు', '|'), ('రె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('హా', 'U'), ('ర', '|'), ('ము', '|'), ('లొ', 'U'), ('త్తు', '|'), ('నం', 'U'), ('చు', '|'), ('బ', '|'), ('రి', '|'), ('హా', 'U'), ('ర', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('క', '|'), ('వుం', 'U'), ('గి', '|'), ('లిం', 'U'), ('చి', 'U'), ('వ్యా', 'U'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('న్ర', '|'), ('తి', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('స', 'U'), ('ల్పి', '|'), ('మ', '|'), ('నో', 'U'), ('జ', '|'), ('బా', 'U'), ('ధ', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('నా', 'U'), ('దు', 'U'), ('వ్య', '|'), ('వ', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('ని', 'U'), ('ల్వ', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('ని', '|'), ('ద్ర', 'U'), ('వ్యా', 'U'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('గాం', 'U'), ('తు', '|'), ('నే', 'U'), ('న', '|'), ('ను', '|'), ('మ', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('డం', 'U'), ('దు', '|'), ('రె', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[('బో', 'U'), ('టి', '|'), ('రొ', '|'), ('వా', 'U'), ('న', '|'), ('చే', 'U'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('పో', 'U'), ('వ', '|'), ('గ', '|'), ('లే', 'U'), ('కొ', '|'), ('క', '|'), ('నా', 'U'), ('డ', '|'), ('టుం', 'U'), ('డి', '|'), ('యే', 'U'), ('ర్పా', 'U'), ('టు', '|'), ('గ', '|'), ('ని', '|'), ('ద్ర', '|'), ('వో', 'U'), ('వ', '|'), ('నె', '|'), ('ఱ', '|'), ('ప', 'U'), ('య్యె', '|'), ('ద', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('త్రెం', 'U'), ('చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('స', 'U'), ('య్యా', 'U'), ('ట', '|'), ('లు', '|'), ('మా', 'U'), ('ట', '|'), ('లున్', 'U'), ('బె', '|'), ('న', '|'), ('కు', '|'), ('లా', 'U'), ('ట', '|'), ('లు', '|'), ('సీ', 'U'), ('త్కృ', '|'), ('తు', '|'), ('లే', 'U'), ('మి', '|'), ('లే', 'U'), ('క', '|'), ('నన్', 'U'), ('గూ', 'U'), ('ట', '|'), ('మి', '|'), ('నే', 'U'), ('లు', '|'), ('టల్', 'U'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('కొం', 'U'), ('దు', '|'), ('వొ', '|'), ('లే', 'U'), ('దొ', '|'), ('కొ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('బో', 'U'), ('టి', '|'), ('రొ', '|'), ('వా', 'U'), ('న', '|'), ('చే', 'U'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('పో', 'U'), ('వ', '|'), ('గ', '|'), ('లే', 'U'), ('కొ', '|'), ('క', '|'), ('నా', 'U'), ('డ', '|'), ('టుం', 'U'), ('డి', '|'), ('యే', 'U'), ('ర్పా', 'U'), ('టు', '|'), ('గ', '|'), ('ని', '|'), ('ద్ర', '|'), ('వో', 'U'), ('వ', '|'), ('నె', '|'), ('ఱ', '|'), ('ప', 'U'), ('య్యె', '|'), ('ద', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('త్రెం', 'U'), ('చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('స', 'U'), ('య్యా', 'U'), ('ట', '|'), ('లు', '|'), ('మా', 'U'), ('ట', '|'), ('లు', 'U'), ('న్బె', '|'), ('న', '|'), ('కు', '|'), ('లా', 'U'), ('ట', '|'), ('లు', '|'), ('సీ', 'U'), ('త్కృ', '|'), ('తు', '|'), ('లే', 'U'), ('మి', '|'), ('లే', 'U'), ('క', '|'), ('నన్', 'U'), ('గూ', 'U'), ('ట', '|'), ('మి', '|'), ('నే', 'U'), ('లు', '|'), ('ట', 'U'), ('ల్ద', '|'), ('ల', '|'), ('చు', '|'), ('కొం', 'U'), ('దు', '|'), ('వొ', '|'), ('లే', 'U'), ('దొ', '|'), ('కొ', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('ను', '|'), ('న', '|'), ('ల', '|'), ('న', 'U'), ('వ్వు', '|'), ('టా', 'U'), ('ల', '|'), ('క', '|'), ('యి', '|'), ('నన్', 'U'), ('బొ', '|'), ('ల', '|'), ('య', 'U'), ('ల్క', '|'), ('ల', '|'), ('జే', 'U'), ('సి', '|'), ('యై', 'U'), ('న', '|'), ('నున్', 'U'), ('న', '|'), ('ను', '|'), ('గ', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('ను', 'U'), ('క్ష', '|'), ('ణం', 'U'), ('బె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('జా', 'U'), ('ల', '|'), ('వం', 'U'), ('చు', '|'), ('నో', 'U'), ('వ', '|'), ('న', '|'), ('జ', '|'), ('ద', '|'), ('ళా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|'), ('వం', 'U'), ('త', '|'), ('ల', '|'), ('నొం', 'U'), ('దె', '|'), ('ద', '|'), ('వె', 'U'), ('ట్టు', '|'), ('లో', 'U'), ('ర్తు', '|'), ('వే', 'U'), ('ను', '|'), ('ను', '|'), ('చ', '|'), ('లి', '|'), ('గా', 'U'), ('లి', '|'), ('వే', 'U'), ('డి', '|'), ('కి', '|'), ('మ', '|'), ('నో', 'U'), ('జు', '|'), ('ని', '|'), ('దా', 'U'), ('డి', '|'), ('కి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('న', '|'), ('ను', '|'), ('న', '|'), ('ల', '|'), ('న', 'U'), ('వ్వు', '|'), ('టా', 'U'), ('ల', '|'), ('క', '|'), ('యి', '|'), ('న', 'U'), ('న్బొ', '|'), ('ల', '|'), ('య', 'U'), ('ల్క', '|'), ('ల', '|'), ('జే', 'U'), ('సి', '|'), ('యై', 'U'), ('న', '|'), ('నున్', 'U'), ('న', '|'), ('ను', '|'), ('గ', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('ను', 'U'), ('క్ష', '|'), ('ణం', 'U'), ('బె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('జా', 'U'), ('ల', '|'), ('వం', 'U'), ('చు', '|'), ('నో', 'U'), ('వ', '|'), ('న', '|'), ('జ', '|'), ('ద', '|'), ('ళా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|'), ('వం', 'U'), ('త', '|'), ('ల', '|'), ('నొం', 'U'), ('దె', '|'), ('ద', '|'), ('వె', 'U'), ('ట్టు', '|'), ('లో', 'U'), ('ర్తు', '|'), ('వే', 'U'), ('ను', '|'), ('ను', '|'), ('చ', '|'), ('లి', '|'), ('గా', 'U'), ('లి', '|'), ('వే', 'U'), ('డి', '|'), ('కి', '|'), ('మ', '|'), ('నో', 'U'), ('జు', '|'), ('ని', '|'), ('దా', 'U'), ('డి', '|'), ('కి', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[('భా', 'U'), ('మి', '|'), ('ని', '|'), ('ని', 'U'), ('న్న', '|'), ('రే', 'U'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('ప', 'U'), ('ట్ట', '|'), ('క', '|'), ('ప', 'U'), ('ట్ట', '|'), ('క', '|'), ('ప', 'U'), ('ట్టి', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('కా', 'U'), ('ము', '|'), ('ని', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('కౌ', 'U'), ('తు', '|'), ('క', '|'), ('మం', 'U'), ('ది', '|'), ('పె', '|'), ('నం', 'U'), ('గు', '|'), ('లా', 'U'), ('డి', '|'), ('యే', 'U'), ('మే', 'U'), ('మొ', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('ముల్', 'U'), ('స', '|'), ('లు', '|'), ('ప', '|'), ('నె', 'U'), ('క్క', '|'), ('డి', '|'), ('పా', 'U'), ('ప', '|'), ('పు', '|'), ('కో', 'U'), ('డి', '|'), ('కూ', 'U'), ('సె', '|'), ('నో', 'U'), ('స్వా', 'U'), ('మి', '|'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('మ', 'U'), ('ట్ల', '|'), ('ల', '|'), ('రె', 'U'), ('స్వ', 'U'), ('ప్న', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('భా', 'U'), ('మి', '|'), ('ని', '|'), ('ని', 'U'), ('న్న', '|'), ('రే', 'U'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('ప', 'U'), ('ట్ట', '|'), ('క', '|'), ('ప', 'U'), ('ట్ట', '|'), ('క', '|'), ('ప', 'U'), ('ట్టి', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('కా', 'U'), ('ము', '|'), ('ని', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('కౌ', 'U'), ('తు', '|'), ('క', '|'), ('మం', 'U'), ('ది', '|'), ('పె', '|'), ('నం', 'U'), ('గు', '|'), ('లా', 'U'), ('డి', '|'), ('యే', 'U'), ('మే', 'U'), ('మొ', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('ము', 'U'), ('ల్స', '|'), ('లు', '|'), ('ప', '|'), ('నె', 'U'), ('క్క', '|'), ('డి', '|'), ('పా', 'U'), ('ప', '|'), ('పు', '|'), ('కో', 'U'), ('డి', '|'), ('కూ', 'U'), ('సె', '|'), ('నో', 'U'), ('స్వా', 'U'), ('మి', '|'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('మ', 'U'), ('ట్ల', '|'), ('ల', '|'), ('రె', 'U'), ('స్వ', 'U'), ('ప్న', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('ను', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[('విం', 'U'), ('త', '|'), ('గ', '|'), ('న', 'U'), ('న్ను', '|'), ('నీ', 'U'), ('వు', '|'), ('బ', '|'), ('ది', '|'), ('వే', 'U'), ('ల', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('ల', '|'), ('న', 'U'), ('వ్వు', '|'), ('లా', 'U'), ('ట', '|'), ('కొ', 'U'), ('ట్టిం', 'U'), ('తు', '|'), ('వు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', 'U'), ('న్నె', '|'), ('ద', '|'), ('ఘ', '|'), ('టిం', 'U'), ('తు', '|'), ('వు', '|'), ('చ', 'U'), ('న్గ', '|'), ('వ', '|'), ('య', 'U'), ('ల్క', '|'), ('సే', 'U'), ('య', '|'), ('న', 'U'), ('వ్విం', 'U'), ('తు', '|'), ('వు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('గ', 'U'), ('ప్పు', '|'), ('ర', '|'), ('పు', '|'), ('వీ', 'U'), ('డె', '|'), ('మొ', '|'), ('సం', 'U'), ('గి', '|'), ('మ', '|'), ('నో', 'U'), ('జ', '|'), ('రా', 'U'), ('జ్య', '|'), ('మే', 'U'), ('లిం', 'U'), ('తు', '|'), ('వు', '|'), ('నీ', 'U'), ('గ', '|'), ('తుల్', 'U'), ('పొ', '|'), ('గ', '|'), ('డ', '|'), ('లే', 'U'), ('ము', '|'), ('గ', '|'), ('దే', 'U'), ('మ', '|'), ('ది', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('విం', 'U'), ('త', '|'), ('గ', '|'), ('న', 'U'), ('న్ను', '|'), ('నీ', 'U'), ('వు', '|'), ('బ', '|'), ('ది', '|'), ('వే', 'U'), ('ల', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('ల', '|'), ('న', 'U'), ('వ్వు', '|'), ('లా', 'U'), ('ట', '|'), ('కొ', 'U'), ('ట్టిం', 'U'), ('తు', '|'), ('వు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', 'U'), ('న్నె', '|'), ('ద', '|'), ('ఘ', '|'), ('టిం', 'U'), ('తు', '|'), ('వు', '|'), ('చ', 'U'), ('న్గ', '|'), ('వ', '|'), ('య', 'U'), ('ల్క', '|'), ('సే', 'U'), ('య', '|'), ('న', 'U'), ('వ్విం', 'U'), ('తు', '|'), ('వు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('గ', 'U'), ('ప్పు', '|'), ('ర', '|'), ('పు', '|'), ('వీ', 'U'), ('డె', '|'), ('మొ', '|'), ('సం', 'U'), ('గి', '|'), ('మ', '|'), ('నో', 'U'), ('జ', '|'), ('రా', 'U'), ('జ్య', '|'), ('మే', 'U'), ('లిం', 'U'), ('తు', '|'), ('వు', '|'), ('నీ', 'U'), ('గ', '|'), ('తు', 'U'), ('ల్పొ', '|'), ('గ', '|'), ('డ', '|'), ('లే', 'U'), ('ము', '|'), ('గ', '|'), ('దే', 'U'), ('మ', '|'), ('ది', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('తొ', '|'), ('ల', '|'), ('గ', '|'), ('క', '|'), ('చెం', 'U'), ('త', '|'), ('ను', 'U'), ('న్న', '|'), ('న', '|'), ('ను', '|'), ('దొం', 'U'), ('గి', '|'), ('లి', '|'), ('రె', 'U'), ('ప్ప', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('న', 'U'), ('ట్టు', '|'), ('లు', '|'), ('వ', '|'), ('గ', '|'), ('గు', 'U'), ('ల్కి', '|'), ('యుం', 'U'), ('డె', '|'), ('డు', '|'), ('గ', '|'), ('డున్', 'U'), ('బ', '|'), ('య', '|'), ('నం', 'U'), ('బ', '|'), ('రు', '|'), ('గం', 'U'), ('గ', '|'), ('వే', 'U'), ('గి', '|'), ('వి', 'U'), ('చ్చ', '|'), ('ల', '|'), ('వి', '|'), ('డి', '|'), ('సౌ', 'U'), ('ధ', '|'), ('వీ', 'U'), ('థి', '|'), ('ప', '|'), ('యి', '|'), ('చా', 'U'), ('య', '|'), ('ల', '|'), ('జూ', 'U'), ('చె', '|'), ('ద', '|'), ('వో', 'U'), ('ర', '|'), ('గం', 'U'), ('ట', '|'), ('నే', 'U'), ('పొ', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('వె', 'U'), ('ళ్లు', '|'), ('నీ', 'U'), ('బె', '|'), ('ళు', '|'), ('కు', '|'), ('బొం', 'U'), ('క', '|'), ('పు', '|'), ('జూ', 'U'), ('పు', '|'), ('లు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('తొ', '|'), ('ల', '|'), ('గ', '|'), ('క', '|'), ('చెం', 'U'), ('త', '|'), ('ను', 'U'), ('న్న', '|'), ('న', '|'), ('ను', '|'), ('దొం', 'U'), ('గి', '|'), ('లి', '|'), ('రె', 'U'), ('ప్ప', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('న', 'U'), ('ట్టు', '|'), ('లు', '|'), ('వ', '|'), ('గ', '|'), ('గు', 'U'), ('ల్కి', '|'), ('యుం', 'U'), ('డె', '|'), ('డు', '|'), ('గ', '|'), ('డు', 'U'), ('న్బ', '|'), ('య', '|'), ('నం', 'U'), ('బ', '|'), ('రు', '|'), ('గం', 'U'), ('గ', '|'), ('వే', 'U'), ('గి', '|'), ('వి', 'U'), ('చ్చ', '|'), ('ల', '|'), ('వి', '|'), ('డి', '|'), ('సౌ', 'U'), ('ధ', '|'), ('వీ', 'U'), ('థి', '|'), ('ప', '|'), ('యి', '|'), ('చా', 'U'), ('య', '|'), ('ల', '|'), ('జూ', 'U'), ('చె', '|'), ('ద', '|'), ('వో', 'U'), ('ర', '|'), ('గం', 'U'), ('ట', '|'), ('నే', 'U'), ('పొ', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('వె', 'U'), ('ళ్లు', '|'), ('నీ', 'U'), ('బె', '|'), ('ళు', '|'), ('కు', '|'), ('బొం', 'U'), ('క', '|'), ('పు', '|'), ('జూ', 'U'), ('పు', '|'), ('లు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[('ర', '|'), ('తి', '|'), ('ము', '|'), ('ను', '|'), ('గే', 'U'), ('లి', '|'), ('సో', 'U'), ('లి', '|'), ('న', '|'), ('డు', '|'), ('రా', 'U'), ('తి', '|'), ('రి', '|'), ('మే', 'U'), ('ల్క', '|'), ('ని', '|'), ('నే', 'U'), ('ను', '|'), ('నిన్', 'U'), ('బు', '|'), ('నా', 'U'), ('ర', '|'), ('త', '|'), ('మ', '|'), ('తి', '|'), ('గౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చి', '|'), ('న', '|'), ('బి', '|'), ('రా', 'U'), ('లు', '|'), ('న', '|'), ('న', 'U'), ('వ్వ', '|'), ('లి', '|'), ('కే', 'U'), ('గి', '|'), ('రా', 'U'), ('క', '|'), ('య', 'U'), ('ద్భు', '|'), ('త', '|'), ('ప', '|'), ('డి', '|'), ('నే', 'U'), ('ను', '|'), ('బి', 'U'), ('ల్వ', '|'), ('వి', '|'), ('ని', '|'), ('ప్రొ', 'U'), ('ద్ది', '|'), ('క', '|'), ('నెం', 'U'), ('త', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కి', '|'), ('సి', 'U'), ('గ్గు', '|'), ('తో', 'U'), ('ఋ', '|'), ('తు', '|'), ('మ', '|'), ('తి', '|'), ('వౌ', 'U'), ('ట', '|'), ('తె', 'U'), ('ల్ప', '|'), ('క', '|'), ('యె', '|'), ('యే', 'U'), ('ర్ప', '|'), ('డ', '|'), ('దె', 'U'), ('ల్పు', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('ర', '|'), ('తి', '|'), ('ము', '|'), ('ను', '|'), ('గే', 'U'), ('లి', '|'), ('సో', 'U'), ('లి', '|'), ('న', '|'), ('డు', '|'), ('రా', 'U'), ('తి', '|'), ('రి', '|'), ('మే', 'U'), ('ల్క', '|'), ('ని', '|'), ('నే', 'U'), ('ను', '|'), ('ని', 'U'), ('న్బు', '|'), ('నా', 'U'), ('ర', '|'), ('త', '|'), ('మ', '|'), ('తి', '|'), ('గౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చి', '|'), ('న', '|'), ('బి', '|'), ('రా', 'U'), ('లు', '|'), ('న', '|'), ('న', 'U'), ('వ్వ', '|'), ('లి', '|'), ('కే', 'U'), ('గి', '|'), ('రా', 'U'), ('క', '|'), ('య', 'U'), ('ద్భు', '|'), ('త', '|'), ('ప', '|'), ('డి', '|'), ('నే', 'U'), ('ను', '|'), ('బి', 'U'), ('ల్వ', '|'), ('వి', '|'), ('ని', '|'), ('ప్రొ', 'U'), ('ద్ది', '|'), ('క', '|'), ('నెం', 'U'), ('త', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కి', '|'), ('సి', 'U'), ('గ్గు', '|'), ('తో', 'U'), ('ఋ', '|'), ('తు', '|'), ('మ', '|'), ('తి', '|'), ('వౌ', 'U'), ('ట', '|'), ('తె', 'U'), ('ల్ప', '|'), ('క', '|'), ('యె', '|'), ('యే', 'U'), ('ర్ప', '|'), ('డ', '|'), ('దె', 'U'), ('ల్పు', '|'), ('దు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[('గొ', '|'), ('ద', '|'), ('గొ', '|'), ('ని', '|'), ('మో', 'U'), ('వు', '|'), ('లా', 'U'), ('ను', '|'), ('చు', '|'), ('ను', '|'), ('గొం', 'U'), ('క', '|'), ('క', '|'), ('నే', 'U'), ('బ', '|'), ('యి', '|'), ('కొం', 'U'), ('దు', '|'), ('నం', 'U'), ('చు', '|'), ('మై', 'U'), ('బొ', '|'), ('ద', '|'), ('లి', '|'), ('పె', '|'), ('నం', 'U'), ('గు', '|'), ('లా', 'U'), ('డి', '|'), ('చ', '|'), ('ల', '|'), ('వొం', 'U'), ('ది', '|'), ('వ', '|'), ('చిం', 'U'), ('చ', '|'), ('గ', '|'), ('రా', 'U'), ('ని', '|'), ('చే', 'U'), ('ష్ట', '|'), ('లన్', 'U'), ('మ', '|'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('నా', 'U'), ('ల', '|'), ('వ', '|'), ('నా', 'U'), ('టి', '|'), ('గ', '|'), ('తుల్', 'U'), ('త', '|'), ('లం', 'U'), ('చి', '|'), ('తే', 'U'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('ము', '|'), ('జ', 'U'), ('ల్లు', '|'), ('జ', 'U'), ('ల్లు', '|'), ('మ', '|'), ('ను', '|'), ('నెం', 'U'), ('త', '|'), ('ని', '|'), ('యో', 'U'), ('ర్చె', '|'), ('ద', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('గొ', '|'), ('ద', '|'), ('గొ', '|'), ('ని', '|'), ('మో', 'U'), ('వు', '|'), ('లా', 'U'), ('ను', '|'), ('చు', '|'), ('ను', '|'), ('గొం', 'U'), ('క', '|'), ('క', '|'), ('నే', 'U'), ('బ', '|'), ('యి', '|'), ('కొం', 'U'), ('దు', '|'), ('నం', 'U'), ('చు', '|'), ('మై', 'U'), ('బొ', '|'), ('ద', '|'), ('లి', '|'), ('పె', '|'), ('నం', 'U'), ('గు', '|'), ('లా', 'U'), ('డి', '|'), ('చ', '|'), ('ల', '|'), ('వొం', 'U'), ('ది', '|'), ('వ', '|'), ('చిం', 'U'), ('చ', '|'), ('గ', '|'), ('రా', 'U'), ('ని', '|'), ('చే', 'U'), ('ష్ట', '|'), ('లన్', 'U'), ('మ', '|'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('కే', 'U'), ('ళి', '|'), ('లో', 'U'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('నా', 'U'), ('ల', '|'), ('వ', '|'), ('నా', 'U'), ('టి', '|'), ('గ', '|'), ('తు', 'U'), ('ల్త', '|'), ('లం', 'U'), ('చి', '|'), ('తే', 'U'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('ము', '|'), ('జ', 'U'), ('ల్లు', '|'), ('జ', 'U'), ('ల్లు', '|'), ('మ', '|'), ('ను', '|'), ('నెం', 'U'), ('త', '|'), ('ని', '|'), ('యో', 'U'), ('ర్చె', '|'), ('ద', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[('కు', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('గృ', 'U'), ('ష్ణ', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('క', 'U'), ('చ్యు', '|'), ('త', '|'), ('రీ', 'U'), ('తి', '|'), ('క', 'U'), ('ర్ణ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('క', '|'), ('ల', '|'), ('శ్రీ', 'U'), ('వ', '|'), ('ర', '|'), ('ప్ర', '|'), ('తి', '|'), ('భ', '|'), ('కౌ', 'U'), ('ను', '|'), ('న', '|'), ('కున్', 'U'), ('హ', '|'), ('రి', '|'), ('మం', 'U'), ('గ', '|'), ('ళా', 'U'), ('కృ', '|'), ('తుల్', 'U'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('జె', '|'), ('లం', 'U'), ('గు', '|'), ('నీ', 'U'), ('కు', '|'), ('క', '|'), ('ల', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', 'U'), ('న్ను', '|'), ('ద', '|'), ('లం', 'U'), ('చ', '|'), ('బా', 'U'), ('యు', '|'), ('దు', 'U'), ('ష్క', '|'), ('ర', '|'), ('ప', '|'), ('రి', '|'), ('తా', 'U'), ('ప', '|'), ('మె', 'U'), ('ల్ల', '|'), ('న', '|'), ('వ', '|'), ('సా', 'U'), ('ర', '|'), ('స', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
+          <t>[('కు', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('గృ', 'U'), ('ష్ణ', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('క', 'U'), ('చ్యు', '|'), ('త', '|'), ('రీ', 'U'), ('తి', '|'), ('క', 'U'), ('ర్ణ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', '|'), ('క', '|'), ('ల', '|'), ('శ్రీ', 'U'), ('వ', '|'), ('ర', '|'), ('ప్ర', '|'), ('తి', '|'), ('భ', '|'), ('కౌ', 'U'), ('ను', '|'), ('న', '|'), ('కు', 'U'), ('న్హ', '|'), ('రి', '|'), ('మం', 'U'), ('గ', '|'), ('ళా', 'U'), ('కృ', '|'), ('తుల్', 'U'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('జె', '|'), ('లం', 'U'), ('గు', '|'), ('నీ', 'U'), ('కు', '|'), ('క', '|'), ('ల', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('ని', 'U'), ('న్ను', '|'), ('ద', '|'), ('లం', 'U'), ('చ', '|'), ('బా', 'U'), ('యు', '|'), ('దు', 'U'), ('ష్క', '|'), ('ర', '|'), ('ప', '|'), ('రి', '|'), ('తా', 'U'), ('ప', '|'), ('మె', 'U'), ('ల్ల', '|'), ('న', '|'), ('వ', '|'), ('సా', 'U'), ('ర', '|'), ('స', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణీ', 'U')]</t>
         </is>
       </c>
     </row>
